--- a/File Naming.xlsx
+++ b/File Naming.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\curly\Desktop\Apple Genotyping\Genotyping Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\curly\Desktop\Apple Genotyping\Experiment Folders\Renaming Sample Labels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6440AA-A229-421B-B666-1E133A6E3772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997F658B-E0AC-499E-B2FA-490DDDF5BDF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3491D669-C83C-4979-B15B-06B44BE9C919}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{3491D669-C83C-4979-B15B-06B44BE9C919}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="1348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="1722">
   <si>
     <t>New</t>
   </si>
@@ -4080,13 +4080,1135 @@
   </si>
   <si>
     <t>12_1_T207R.nexus.cnv.txt</t>
+  </si>
+  <si>
+    <t>GenOld</t>
+  </si>
+  <si>
+    <t>GenNew</t>
+  </si>
+  <si>
+    <t>BCY0061_N1_(Axiom_JKI50kMd)_N01.CEL</t>
+  </si>
+  <si>
+    <t>BCY0063_P1_(Axiom_JKI50kMd)_P01.CEL</t>
+  </si>
+  <si>
+    <t>BCY0065_B3_(Axiom_JKI50kMd)_B03.CEL</t>
+  </si>
+  <si>
+    <t>BCY0067_D3_(Axiom_JKI50kMd)_D03.CEL</t>
+  </si>
+  <si>
+    <t>BCY0069_F3_(Axiom_JKI50kMd)_F03.CEL</t>
+  </si>
+  <si>
+    <t>BCY0071_H3_(Axiom_JKI50kMd)_H03.CEL</t>
+  </si>
+  <si>
+    <t>BCY0073_J3_(Axiom_JKI50kMd)_J03.CEL</t>
+  </si>
+  <si>
+    <t>BCY0075_L3_(Axiom_JKI50kMd)_L03.CEL</t>
+  </si>
+  <si>
+    <t>BCY0077_N3_(Axiom_JKI50kMd)_N03.CEL</t>
+  </si>
+  <si>
+    <t>BCY0079_P3_(Axiom_JKI50kMd)_P03.CEL</t>
+  </si>
+  <si>
+    <t>BCY0081_B5_(Axiom_JKI50kMd)_B05.CEL</t>
+  </si>
+  <si>
+    <t>BCY0083_D5_(Axiom_JKI50kMd)_D05.CEL</t>
+  </si>
+  <si>
+    <t>BCY0085_F5_(Axiom_JKI50kMd)_F05.CEL</t>
+  </si>
+  <si>
+    <t>BCY0087_H5_(Axiom_JKI50kMd)_H05.CEL</t>
+  </si>
+  <si>
+    <t>BCY0089_J5_(Axiom_JKI50kMd)_J05.CEL</t>
+  </si>
+  <si>
+    <t>BCY0091_L5_(Axiom_JKI50kMd)_L05.CEL</t>
+  </si>
+  <si>
+    <t>BCY0093_N5_(Axiom_JKI50kMd)_N05.CEL</t>
+  </si>
+  <si>
+    <t>BCY0095_P5_(Axiom_JKI50kMd)_P05.CEL</t>
+  </si>
+  <si>
+    <t>BCY0097_B7_(Axiom_JKI50kMd)_B07.CEL</t>
+  </si>
+  <si>
+    <t>BCY0099_D7_(Axiom_JKI50kMd)_D07.CEL</t>
+  </si>
+  <si>
+    <t>BCY0101_F7_(Axiom_JKI50kMd)_F07.CEL</t>
+  </si>
+  <si>
+    <t>BCY0103_H7_(Axiom_JKI50kMd)_H07.CEL</t>
+  </si>
+  <si>
+    <t>BCY0105_J7_(Axiom_JKI50kMd)_J07.CEL</t>
+  </si>
+  <si>
+    <t>BCY0107_L7_(Axiom_JKI50kMd)_L07.CEL</t>
+  </si>
+  <si>
+    <t>BCY0109_N7_(Axiom_JKI50kMd)_N07.CEL</t>
+  </si>
+  <si>
+    <t>BCY0111_P7_(Axiom_JKI50kMd)_P07.CEL</t>
+  </si>
+  <si>
+    <t>BCY0113_B9_(Axiom_JKI50kMd)_B09.CEL</t>
+  </si>
+  <si>
+    <t>BCY0115_D9_(Axiom_JKI50kMd)_D09.CEL</t>
+  </si>
+  <si>
+    <t>BCY0117_F9_(Axiom_JKI50kMd)_F09.CEL</t>
+  </si>
+  <si>
+    <t>BCY0119_H9_(Axiom_JKI50kMd)_H09.CEL</t>
+  </si>
+  <si>
+    <t>BCY0121_J9_(Axiom_JKI50kMd)_J09.CEL</t>
+  </si>
+  <si>
+    <t>BCY0123_L9_(Axiom_JKI50kMd)_L09.CEL</t>
+  </si>
+  <si>
+    <t>BCY0125_N9_(Axiom_JKI50kMd)_N09.CEL</t>
+  </si>
+  <si>
+    <t>BCY0127_P9_(Axiom_JKI50kMd)_P09.CEL</t>
+  </si>
+  <si>
+    <t>BCY0129_B11_(Axiom_JKI50kMd)_B11.CEL</t>
+  </si>
+  <si>
+    <t>BCY0131_D11_(Axiom_JKI50kMd)_D11.CEL</t>
+  </si>
+  <si>
+    <t>BCY0133_F11_(Axiom_JKI50kMd)_F11.CEL</t>
+  </si>
+  <si>
+    <t>BCY0135_H11_(Axiom_JKI50kMd)_H11.CEL</t>
+  </si>
+  <si>
+    <t>BCY0137_J11_(Axiom_JKI50kMd)_J11.CEL</t>
+  </si>
+  <si>
+    <t>BCY0139_L11_(Axiom_JKI50kMd)_L11.CEL</t>
+  </si>
+  <si>
+    <t>BCY0141_N11_(Axiom_JKI50kMd)_N11.CEL</t>
+  </si>
+  <si>
+    <t>BCY0143_P11_(Axiom_JKI50kMd)_P11.CEL</t>
+  </si>
+  <si>
+    <t>BCY0145_B13_(Axiom_JKI50kMd)_B13.CEL</t>
+  </si>
+  <si>
+    <t>BCY0147_D13_(Axiom_JKI50kMd)_D13.CEL</t>
+  </si>
+  <si>
+    <t>BCY0149_F13_(Axiom_JKI50kMd)_F13.CEL</t>
+  </si>
+  <si>
+    <t>BCY0151_H13_(Axiom_JKI50kMd)_H13.CEL</t>
+  </si>
+  <si>
+    <t>BCY0153_J13_(Axiom_JKI50kMd)_J13.CEL</t>
+  </si>
+  <si>
+    <t>BCY0155_L13_(Axiom_JKI50kMd)_L13.CEL</t>
+  </si>
+  <si>
+    <t>BCY0157_N13_(Axiom_JKI50kMd)_N13.CEL</t>
+  </si>
+  <si>
+    <t>BCY0159_P13_(Axiom_JKI50kMd)_P13.CEL</t>
+  </si>
+  <si>
+    <t>BCY0161_B15_(Axiom_JKI50kMd)_B15.CEL</t>
+  </si>
+  <si>
+    <t>BCY0163_D15_(Axiom_JKI50kMd)_D15.CEL</t>
+  </si>
+  <si>
+    <t>BCY0165_F15_(Axiom_JKI50kMd)_F15.CEL</t>
+  </si>
+  <si>
+    <t>BCY0167_H15_(Axiom_JKI50kMd)_H15.CEL</t>
+  </si>
+  <si>
+    <t>BCY0169_J15_(Axiom_JKI50kMd)_J15.CEL</t>
+  </si>
+  <si>
+    <t>BCY0171_L15_(Axiom_JKI50kMd)_L15.CEL</t>
+  </si>
+  <si>
+    <t>BCY0173_N15_(Axiom_JKI50kMd)_N15.CEL</t>
+  </si>
+  <si>
+    <t>BCY0175_P15_(Axiom_JKI50kMd)_P15.CEL</t>
+  </si>
+  <si>
+    <t>BCY0177_B17_(Axiom_JKI50kMd)_B17.CEL</t>
+  </si>
+  <si>
+    <t>BCY0179_D17_(Axiom_JKI50kMd)_D17.CEL</t>
+  </si>
+  <si>
+    <t>BCY0181_F17_(Axiom_JKI50kMd)_F17.CEL</t>
+  </si>
+  <si>
+    <t>BCY0183_H17_(Axiom_JKI50kMd)_H17.CEL</t>
+  </si>
+  <si>
+    <t>BCY0185_J17_(Axiom_JKI50kMd)_J17.CEL</t>
+  </si>
+  <si>
+    <t>BCY0187_L17_(Axiom_JKI50kMd)_L17.CEL</t>
+  </si>
+  <si>
+    <t>BCY0189_N17_(Axiom_JKI50kMd)_N17.CEL</t>
+  </si>
+  <si>
+    <t>BCY0191_P17_(Axiom_JKI50kMd)_P17.CEL</t>
+  </si>
+  <si>
+    <t>BCY0193_B19_(Axiom_JKI50kMd)_B19.CEL</t>
+  </si>
+  <si>
+    <t>BCY0195_D19_(Axiom_JKI50kMd)_D19.CEL</t>
+  </si>
+  <si>
+    <t>BCY0197_F19_(Axiom_JKI50kMd)_F19.CEL</t>
+  </si>
+  <si>
+    <t>BCY0199_H19_(Axiom_JKI50kMd)_H19.CEL</t>
+  </si>
+  <si>
+    <t>BCY0201_J19_(Axiom_JKI50kMd)_J19.CEL</t>
+  </si>
+  <si>
+    <t>BCY0203_L19_(Axiom_JKI50kMd)_L19.CEL</t>
+  </si>
+  <si>
+    <t>BCY0205_N19_(Axiom_JKI50kMd)_N19.CEL</t>
+  </si>
+  <si>
+    <t>BCY0207_P19_(Axiom_JKI50kMd)_P19.CEL</t>
+  </si>
+  <si>
+    <t>BCY0209_B21_(Axiom_JKI50kMd)_B21.CEL</t>
+  </si>
+  <si>
+    <t>BCY0211_D21_(Axiom_JKI50kMd)_D21.CEL</t>
+  </si>
+  <si>
+    <t>BCY0213_F21_(Axiom_JKI50kMd)_F21.CEL</t>
+  </si>
+  <si>
+    <t>BCY0215_H21_(Axiom_JKI50kMd)_H21.CEL</t>
+  </si>
+  <si>
+    <t>BCY0217_J21_(Axiom_JKI50kMd)_J21.CEL</t>
+  </si>
+  <si>
+    <t>BCY0219_L21_(Axiom_JKI50kMd)_L21.CEL</t>
+  </si>
+  <si>
+    <t>BCY0221_N21_(Axiom_JKI50kMd)_N21.CEL</t>
+  </si>
+  <si>
+    <t>BCY0223_P21_(Axiom_JKI50kMd)_P21.CEL</t>
+  </si>
+  <si>
+    <t>BCY0225_B23_(Axiom_JKI50kMd)_B23.CEL</t>
+  </si>
+  <si>
+    <t>BCY0227_D23_(Axiom_JKI50kMd)_D23.CEL</t>
+  </si>
+  <si>
+    <t>BCY0229_F23_(Axiom_JKI50kMd)_F23.CEL</t>
+  </si>
+  <si>
+    <t>BCY0231_H23_(Axiom_JKI50kMd)_H23.CEL</t>
+  </si>
+  <si>
+    <t>BCY0233_J23_(Axiom_JKI50kMd)_J23.CEL</t>
+  </si>
+  <si>
+    <t>BCY0235_L23_(Axiom_JKI50kMd)_L23.CEL</t>
+  </si>
+  <si>
+    <t>BCY0237_N23_(Axiom_JKI50kMd)_N23.CEL</t>
+  </si>
+  <si>
+    <t>BCY0239_P23_(Axiom_JKI50kMd)_P23.CEL</t>
+  </si>
+  <si>
+    <t>BCY0241_E2_(Axiom_JKI50kMd)_E02.CEL</t>
+  </si>
+  <si>
+    <t>BCY0243_G2_(Axiom_JKI50kMd)_G02.CEL</t>
+  </si>
+  <si>
+    <t>BCY0245_I2_(Axiom_JKI50kMd)_I02.CEL</t>
+  </si>
+  <si>
+    <t>BCY0247_K2_(Axiom_JKI50kMd)_K02.CEL</t>
+  </si>
+  <si>
+    <t>BCY0249_M2_(Axiom_JKI50kMd)_M02.CEL</t>
+  </si>
+  <si>
+    <t>BCY0251_O2_(Axiom_JKI50kMd)_O02.CEL</t>
+  </si>
+  <si>
+    <t>BCY0253_A4_(Axiom_JKI50kMd)_A04.CEL</t>
+  </si>
+  <si>
+    <t>BCY0255_C4_(Axiom_JKI50kMd)_C04.CEL</t>
+  </si>
+  <si>
+    <t>BCY0257_E4_(Axiom_JKI50kMd)_E04.CEL</t>
+  </si>
+  <si>
+    <t>BCY0259_G4_(Axiom_JKI50kMd)_G04.CEL</t>
+  </si>
+  <si>
+    <t>BCY0261_I4_(Axiom_JKI50kMd)_I04.CEL</t>
+  </si>
+  <si>
+    <t>BCY0263_K4_(Axiom_JKI50kMd)_K04.CEL</t>
+  </si>
+  <si>
+    <t>BCY0265_M4_(Axiom_JKI50kMd)_M04.CEL</t>
+  </si>
+  <si>
+    <t>BCY0267_O4_(Axiom_JKI50kMd)_O04.CEL</t>
+  </si>
+  <si>
+    <t>BCY0269_A6_(Axiom_JKI50kMd)_A06.CEL</t>
+  </si>
+  <si>
+    <t>BCY0271_C6_(Axiom_JKI50kMd)_C06.CEL</t>
+  </si>
+  <si>
+    <t>BCY0273_E6_(Axiom_JKI50kMd)_E06.CEL</t>
+  </si>
+  <si>
+    <t>BCY0275_G6_(Axiom_JKI50kMd)_G06.CEL</t>
+  </si>
+  <si>
+    <t>BCY0277_I6_(Axiom_JKI50kMd)_I06.CEL</t>
+  </si>
+  <si>
+    <t>BCY0279_K6_(Axiom_JKI50kMd)_K06.CEL</t>
+  </si>
+  <si>
+    <t>BCY0281_M6_(Axiom_JKI50kMd)_M06.CEL</t>
+  </si>
+  <si>
+    <t>BCY0283_O6_(Axiom_JKI50kMd)_O06.CEL</t>
+  </si>
+  <si>
+    <t>BCY0285_A8_(Axiom_JKI50kMd)_A08.CEL</t>
+  </si>
+  <si>
+    <t>BCY0287_C8_(Axiom_JKI50kMd)_C08.CEL</t>
+  </si>
+  <si>
+    <t>BCY0289_E8_(Axiom_JKI50kMd)_E08.CEL</t>
+  </si>
+  <si>
+    <t>BCY0291_G8_(Axiom_JKI50kMd)_G08.CEL</t>
+  </si>
+  <si>
+    <t>BCY0293_I8_(Axiom_JKI50kMd)_I08.CEL</t>
+  </si>
+  <si>
+    <t>BCY0295_K8_(Axiom_JKI50kMd)_K08.CEL</t>
+  </si>
+  <si>
+    <t>BCY0297_M8_(Axiom_JKI50kMd)_M08.CEL</t>
+  </si>
+  <si>
+    <t>BCY0299_O8_(Axiom_JKI50kMd)_O08.CEL</t>
+  </si>
+  <si>
+    <t>BCY0301_A10_(Axiom_JKI50kMd)_A10.CEL</t>
+  </si>
+  <si>
+    <t>BCY0303_C10_(Axiom_JKI50kMd)_C10.CEL</t>
+  </si>
+  <si>
+    <t>BCY0305_E10_(Axiom_JKI50kMd)_E10.CEL</t>
+  </si>
+  <si>
+    <t>BCY0307_G10_(Axiom_JKI50kMd)_G10.CEL</t>
+  </si>
+  <si>
+    <t>BCY0309_I10_(Axiom_JKI50kMd)_I10.CEL</t>
+  </si>
+  <si>
+    <t>BCY0311_K10_(Axiom_JKI50kMd)_K10.CEL</t>
+  </si>
+  <si>
+    <t>BCY0313_M10_(Axiom_JKI50kMd)_M10.CEL</t>
+  </si>
+  <si>
+    <t>BCY0315_O10_(Axiom_JKI50kMd)_O10.CEL</t>
+  </si>
+  <si>
+    <t>BCY0317_A12_(Axiom_JKI50kMd)_A12.CEL</t>
+  </si>
+  <si>
+    <t>BCY0319_C12_(Axiom_JKI50kMd)_C12.CEL</t>
+  </si>
+  <si>
+    <t>BCY0321_E12_(Axiom_JKI50kMd)_E12.CEL</t>
+  </si>
+  <si>
+    <t>BCY0323_G12_(Axiom_JKI50kMd)_G12.CEL</t>
+  </si>
+  <si>
+    <t>BCY0325_I12_(Axiom_JKI50kMd)_I12.CEL</t>
+  </si>
+  <si>
+    <t>BCY0327_K12_(Axiom_JKI50kMd)_K12.CEL</t>
+  </si>
+  <si>
+    <t>BCY0329_M12_(Axiom_JKI50kMd)_M12.CEL</t>
+  </si>
+  <si>
+    <t>BCY0331_O12_(Axiom_JKI50kMd)_O12.CEL</t>
+  </si>
+  <si>
+    <t>BCY0333_A14_(Axiom_JKI50kMd)_A14.CEL</t>
+  </si>
+  <si>
+    <t>BCY0335_C14_(Axiom_JKI50kMd)_C14.CEL</t>
+  </si>
+  <si>
+    <t>BCY0337_E14_(Axiom_JKI50kMd)_E14.CEL</t>
+  </si>
+  <si>
+    <t>BCY0339_G14_(Axiom_JKI50kMd)_G14.CEL</t>
+  </si>
+  <si>
+    <t>BCY0341_I14_(Axiom_JKI50kMd)_I14.CEL</t>
+  </si>
+  <si>
+    <t>BCY0343_K14_(Axiom_JKI50kMd)_K14.CEL</t>
+  </si>
+  <si>
+    <t>BCY0345_M14_(Axiom_JKI50kMd)_M14.CEL</t>
+  </si>
+  <si>
+    <t>BCY0347_O14_(Axiom_JKI50kMd)_O14.CEL</t>
+  </si>
+  <si>
+    <t>BCY0349_A16_(Axiom_JKI50kMd)_A16.CEL</t>
+  </si>
+  <si>
+    <t>BCY0351_C16_(Axiom_JKI50kMd)_C16.CEL</t>
+  </si>
+  <si>
+    <t>BCY0353_E16_(Axiom_JKI50kMd)_E16.CEL</t>
+  </si>
+  <si>
+    <t>BCY0355_G16_(Axiom_JKI50kMd)_G16.CEL</t>
+  </si>
+  <si>
+    <t>BCY0357_I16_(Axiom_JKI50kMd)_I16.CEL</t>
+  </si>
+  <si>
+    <t>BCY0359_K16_(Axiom_JKI50kMd)_K16.CEL</t>
+  </si>
+  <si>
+    <t>BCY0361_M16_(Axiom_JKI50kMd)_M16.CEL</t>
+  </si>
+  <si>
+    <t>BCY0363_O16_(Axiom_JKI50kMd)_O16.CEL</t>
+  </si>
+  <si>
+    <t>BCY0365_A18_(Axiom_JKI50kMd)_A18.CEL</t>
+  </si>
+  <si>
+    <t>BCY0367_C18_(Axiom_JKI50kMd)_C18.CEL</t>
+  </si>
+  <si>
+    <t>BCY0369_E18_(Axiom_JKI50kMd)_E18.CEL</t>
+  </si>
+  <si>
+    <t>BCY0371_G18_(Axiom_JKI50kMd)_G18.CEL</t>
+  </si>
+  <si>
+    <t>BCY0373_I18_(Axiom_JKI50kMd)_I18.CEL</t>
+  </si>
+  <si>
+    <t>BCY0375_K18_(Axiom_JKI50kMd)_K18.CEL</t>
+  </si>
+  <si>
+    <t>BCY0377_M18_(Axiom_JKI50kMd)_M18.CEL</t>
+  </si>
+  <si>
+    <t>BCY0379_O18_(Axiom_JKI50kMd)_O18.CEL</t>
+  </si>
+  <si>
+    <t>BCY0381_A20_(Axiom_JKI50kMd)_A20.CEL</t>
+  </si>
+  <si>
+    <t>BCY0383_C20_(Axiom_JKI50kMd)_C20.CEL</t>
+  </si>
+  <si>
+    <t>BCY0385_E20_(Axiom_JKI50kMd)_E20.CEL</t>
+  </si>
+  <si>
+    <t>BCY0387_G20_(Axiom_JKI50kMd)_G20.CEL</t>
+  </si>
+  <si>
+    <t>BCY0389_I20_(Axiom_JKI50kMd)_I20.CEL</t>
+  </si>
+  <si>
+    <t>BCY0053_F1_(Axiom_JKI50kMd)_F01.CEL</t>
+  </si>
+  <si>
+    <t>BCY0055_H1_(Axiom_JKI50kMd)_H01.CEL</t>
+  </si>
+  <si>
+    <t>BCY0057_J1_(Axiom_JKI50kMd)_J01.CEL</t>
+  </si>
+  <si>
+    <t>BCY0059_L1_(Axiom_JKI50kMd)_L01.CEL</t>
+  </si>
+  <si>
+    <t>BBQ1789_F17_(Axiom_JKI50kMd)_F17.CEL</t>
+  </si>
+  <si>
+    <t>BCX8074_L17_(Axiom_JKI50kMd)_L17.CEL</t>
+  </si>
+  <si>
+    <t>BCX8083_H17_(Axiom_JKI50kMd)_H17.CEL</t>
+  </si>
+  <si>
+    <t>BCX8087_J17_(Axiom_JKI50kMd)_J17.CEL</t>
+  </si>
+  <si>
+    <t>BCX8137_B19_(Axiom_JKI50kMd)_B19.CEL</t>
+  </si>
+  <si>
+    <t>BCX8149_N17_(Axiom_JKI50kMd)_N17.CEL</t>
+  </si>
+  <si>
+    <t>NoneP5A3_B21_(Axiom_JKI50kMd)_B21.CEL</t>
+  </si>
+  <si>
+    <t>NoneP5A4_B23_(Axiom_JKI50kMd)_B23.CEL</t>
+  </si>
+  <si>
+    <t>NoneP5B2_D19_(Axiom_JKI50kMd)_D19.CEL</t>
+  </si>
+  <si>
+    <t>NoneP5B3_D21_(Axiom_JKI50kMd)_D21.CEL</t>
+  </si>
+  <si>
+    <t>NoneP5B4_D23_(Axiom_JKI50kMd)_D23.CEL</t>
+  </si>
+  <si>
+    <t>NoneP5C2_F19_(Axiom_JKI50kMd)_F19.CEL</t>
+  </si>
+  <si>
+    <t>NoneP5C3_F21_(Axiom_JKI50kMd)_F21.CEL</t>
+  </si>
+  <si>
+    <t>NoneP5D2_H19_(Axiom_JKI50kMd)_H19.CEL</t>
+  </si>
+  <si>
+    <t>NoneP5D3_H21_(Axiom_JKI50kMd)_H21.CEL</t>
+  </si>
+  <si>
+    <t>NoneP5E2_J19_(Axiom_JKI50kMd)_J19.CEL</t>
+  </si>
+  <si>
+    <t>NoneP5E3_J21_(Axiom_JKI50kMd)_J21.CEL</t>
+  </si>
+  <si>
+    <t>NoneP5F2_L19_(Axiom_JKI50kMd)_L19.CEL</t>
+  </si>
+  <si>
+    <t>NoneP5F3_L21_(Axiom_JKI50kMd)_L21.CEL</t>
+  </si>
+  <si>
+    <t>NoneP5G2_N19_(Axiom_JKI50kMd)_N19.CEL</t>
+  </si>
+  <si>
+    <t>NoneP5G3_N21_(Axiom_JKI50kMd)_N21.CEL</t>
+  </si>
+  <si>
+    <t>NoneP5H2_P19_(Axiom_JKI50kMd)_P19.CEL</t>
+  </si>
+  <si>
+    <t>NoneP5H3_P21_(Axiom_JKI50kMd)_P21.CEL</t>
+  </si>
+  <si>
+    <t>BBQ1654_P17_(Axiom_JKI50kMd)_P17.CEL</t>
+  </si>
+  <si>
+    <t>Merton Russet.CEL</t>
+  </si>
+  <si>
+    <t>Oriole.CEL</t>
+  </si>
+  <si>
+    <t>Gewerzluikenapfel.CEL</t>
+  </si>
+  <si>
+    <t>Hajkovo Muskatove.CEL</t>
+  </si>
+  <si>
+    <t>Abas.CEL</t>
+  </si>
+  <si>
+    <t>Golden Russet.CEL</t>
+  </si>
+  <si>
+    <t>Rosemund.CEL</t>
+  </si>
+  <si>
+    <t>Winston.CEL</t>
+  </si>
+  <si>
+    <t>Glockenapfel eckter.CEL</t>
+  </si>
+  <si>
+    <t>Kingston Black.CEL</t>
+  </si>
+  <si>
+    <t>Cambridge Pippin.CEL</t>
+  </si>
+  <si>
+    <t>Northern Spy.CEL</t>
+  </si>
+  <si>
+    <t>Springrove Codlin.CEL</t>
+  </si>
+  <si>
+    <t>French Crab.CEL</t>
+  </si>
+  <si>
+    <t>Besterfielder Renette.CEL</t>
+  </si>
+  <si>
+    <t>Uster Gloria.CEL</t>
+  </si>
+  <si>
+    <t>Altainder Plannkuchenapfel.CEL</t>
+  </si>
+  <si>
+    <t>Lobo.CEL</t>
+  </si>
+  <si>
+    <t>Stayman's Winesap.CEL</t>
+  </si>
+  <si>
+    <t>Geeveston Fanny.CEL</t>
+  </si>
+  <si>
+    <t>Green Square.CEL</t>
+  </si>
+  <si>
+    <t>Fleuritard Rouge.CEL</t>
+  </si>
+  <si>
+    <t>Malus kaido.CEL</t>
+  </si>
+  <si>
+    <t>Dietrecht.CEL</t>
+  </si>
+  <si>
+    <t>Spivey.CEL</t>
+  </si>
+  <si>
+    <t>Nancy's Favourite.CEL</t>
+  </si>
+  <si>
+    <t>Shorland Queen.CEL</t>
+  </si>
+  <si>
+    <t>Wilmont Russet.CEL</t>
+  </si>
+  <si>
+    <t>Warner's King.CEL</t>
+  </si>
+  <si>
+    <t>Grimes Golden.CEL</t>
+  </si>
+  <si>
+    <t>Hetlina.CEL</t>
+  </si>
+  <si>
+    <t>Sunglo.CEL</t>
+  </si>
+  <si>
+    <t>The Doctor.CEL</t>
+  </si>
+  <si>
+    <t>Catshead.CEL</t>
+  </si>
+  <si>
+    <t>Astrachan.CEL</t>
+  </si>
+  <si>
+    <t>Egremont Russet.CEL</t>
+  </si>
+  <si>
+    <t>Tydeman’s Late Orange.CEL</t>
+  </si>
+  <si>
+    <t>Tydeman's Late Orange.CEL</t>
+  </si>
+  <si>
+    <t>Ellison's Orange.CEL</t>
+  </si>
+  <si>
+    <t>Malus boccata gracilis.CEL</t>
+  </si>
+  <si>
+    <t>Golden Noble.CEL</t>
+  </si>
+  <si>
+    <t>Lord Lambourne .CEL</t>
+  </si>
+  <si>
+    <t>Kentish Fillbasket.CEL</t>
+  </si>
+  <si>
+    <t>Melrose.CEL</t>
+  </si>
+  <si>
+    <t>Maggie Grieve.CEL</t>
+  </si>
+  <si>
+    <t>Calville Blanc d'Hiver.CEL</t>
+  </si>
+  <si>
+    <t>Flower of Kent.CEL</t>
+  </si>
+  <si>
+    <t>William Crump.CEL</t>
+  </si>
+  <si>
+    <t>Belle de Boskoop.CEL</t>
+  </si>
+  <si>
+    <t>Peasgood Nonsuch.CEL</t>
+  </si>
+  <si>
+    <t>Malus floribunda.CEL</t>
+  </si>
+  <si>
+    <t>Bramley's Seedling.CEL</t>
+  </si>
+  <si>
+    <t>Sintax Alkmene.CEL</t>
+  </si>
+  <si>
+    <t>Lady Hamilton Sth..CEL</t>
+  </si>
+  <si>
+    <t>Mother in Law.CEL</t>
+  </si>
+  <si>
+    <t>Democrat.CEL</t>
+  </si>
+  <si>
+    <t>Statesman.CEL</t>
+  </si>
+  <si>
+    <t>Rymer.CEL</t>
+  </si>
+  <si>
+    <t>Camoesa De Llobregat.CEL</t>
+  </si>
+  <si>
+    <t>Ribston Pippin.CEL</t>
+  </si>
+  <si>
+    <t>Tydeman's Early Worcester.CEL</t>
+  </si>
+  <si>
+    <t>Rhode Island Greening.CEL</t>
+  </si>
+  <si>
+    <t>Brighton.CEL</t>
+  </si>
+  <si>
+    <t>Cloden.CEL</t>
+  </si>
+  <si>
+    <t>Scarlett Pearmain.CEL</t>
+  </si>
+  <si>
+    <t>Paneske.CEL</t>
+  </si>
+  <si>
+    <t>William Anderson.CEL</t>
+  </si>
+  <si>
+    <t>Sciros.CEL</t>
+  </si>
+  <si>
+    <t>Alma Pippin.CEL</t>
+  </si>
+  <si>
+    <t>Gloria Mundy.CEL</t>
+  </si>
+  <si>
+    <t>Jupp's Russet.CEL</t>
+  </si>
+  <si>
+    <t>Gold Strike.CEL</t>
+  </si>
+  <si>
+    <t>Discovery.CEL</t>
+  </si>
+  <si>
+    <t>Blakeway.CEL</t>
+  </si>
+  <si>
+    <t>Adam's Pearmain.CEL</t>
+  </si>
+  <si>
+    <t>Fairbelle.CEL</t>
+  </si>
+  <si>
+    <t>Winter Banana.CEL</t>
+  </si>
+  <si>
+    <t>Brabantse Bellefleur.CEL</t>
+  </si>
+  <si>
+    <t>Twenty Ounce.CEL</t>
+  </si>
+  <si>
+    <t>Ballarat.CEL</t>
+  </si>
+  <si>
+    <t>Beautiful Arcade.CEL</t>
+  </si>
+  <si>
+    <t>Hawthornden.CEL</t>
+  </si>
+  <si>
+    <t>Blenhiem Orange.CEL</t>
+  </si>
+  <si>
+    <t>Monty's Surprise.CEL</t>
+  </si>
+  <si>
+    <t>Kidd's Orange.CEL</t>
+  </si>
+  <si>
+    <t>Sunset.CEL</t>
+  </si>
+  <si>
+    <t>Liberty.CEL</t>
+  </si>
+  <si>
+    <t>Splendour.CEL</t>
+  </si>
+  <si>
+    <t>Malus Pumila Niedwitzkiana.CEL</t>
+  </si>
+  <si>
+    <t>Gene Pitney.CEL</t>
+  </si>
+  <si>
+    <t>Sheppard Perfection.CEL</t>
+  </si>
+  <si>
+    <t>Rome Beauty.CEL</t>
+  </si>
+  <si>
+    <t>Scarlet Nonpareil.CEL</t>
+  </si>
+  <si>
+    <t>Grenadier.CEL</t>
+  </si>
+  <si>
+    <t>Tower of Glamis.CEL</t>
+  </si>
+  <si>
+    <t>Red Astrachan.CEL</t>
+  </si>
+  <si>
+    <t>Rall's Janet.CEL</t>
+  </si>
+  <si>
+    <t>Sir Prize.CEL</t>
+  </si>
+  <si>
+    <t>Yellow Bellflower.CEL</t>
+  </si>
+  <si>
+    <t>Roja de Valle Benejama.CEL</t>
+  </si>
+  <si>
+    <t>Shamrock.CEL</t>
+  </si>
+  <si>
+    <t>Malus aldenhanmi.CEL</t>
+  </si>
+  <si>
+    <t>Washington.CEL</t>
+  </si>
+  <si>
+    <t>Granny Smith.CEL</t>
+  </si>
+  <si>
+    <t>Queen Mary.CEL</t>
+  </si>
+  <si>
+    <t>Nonpareil.CEL</t>
+  </si>
+  <si>
+    <t>Nonetit Bastard.CEL</t>
+  </si>
+  <si>
+    <t>Springdale.CEL</t>
+  </si>
+  <si>
+    <t>Prima.CEL</t>
+  </si>
+  <si>
+    <t>Richared.CEL</t>
+  </si>
+  <si>
+    <t>Beauty of Kent.CEL</t>
+  </si>
+  <si>
+    <t>Close.CEL</t>
+  </si>
+  <si>
+    <t>Woolbrook Pippin.CEL</t>
+  </si>
+  <si>
+    <t>Rosa du Perche.CEL</t>
+  </si>
+  <si>
+    <t>Monroes Favourite.CEL</t>
+  </si>
+  <si>
+    <t>Cornish Aromatic.CEL</t>
+  </si>
+  <si>
+    <t>Albany Beauty.CEL</t>
+  </si>
+  <si>
+    <t>C'Huero Ru Bien.CEL</t>
+  </si>
+  <si>
+    <t>Reinette du Canada.CEL</t>
+  </si>
+  <si>
+    <t>Black Twig.CEL</t>
+  </si>
+  <si>
+    <t>Belle Bonne.CEL</t>
+  </si>
+  <si>
+    <t>Golden Pippin.CEL</t>
+  </si>
+  <si>
+    <t>Eklinville.CEL</t>
+  </si>
+  <si>
+    <t>Romanite.CEL</t>
+  </si>
+  <si>
+    <t>Cortland.CEL</t>
+  </si>
+  <si>
+    <t>Laxton's Superb.CEL</t>
+  </si>
+  <si>
+    <t>Scarlett Pimpernel.CEL</t>
+  </si>
+  <si>
+    <t>Jack Humm.CEL</t>
+  </si>
+  <si>
+    <t>Karmajin de Sonnaville.CEL</t>
+  </si>
+  <si>
+    <t>Lord Derby.CEL</t>
+  </si>
+  <si>
+    <t>Newtown Pippin.CEL</t>
+  </si>
+  <si>
+    <t>Bordes (cider).CEL</t>
+  </si>
+  <si>
+    <t>Alice.CEL</t>
+  </si>
+  <si>
+    <t>Priscilla.CEL</t>
+  </si>
+  <si>
+    <t>Bisquet (cider).CEL</t>
+  </si>
+  <si>
+    <t>Geheimrat Breuhahn.CEL</t>
+  </si>
+  <si>
+    <t>George Neale.CEL</t>
+  </si>
+  <si>
+    <t>Lodi.CEL</t>
+  </si>
+  <si>
+    <t>Allen's Everlasting.CEL</t>
+  </si>
+  <si>
+    <t>Fuji.CEL</t>
+  </si>
+  <si>
+    <t>Lord Wolseley .CEL</t>
+  </si>
+  <si>
+    <t>Raritan.CEL</t>
+  </si>
+  <si>
+    <t>Esopus Spitzenburg.CEL</t>
+  </si>
+  <si>
+    <t>Freyberg.CEL</t>
+  </si>
+  <si>
+    <t>Sweet Alford.CEL</t>
+  </si>
+  <si>
+    <t>Red Baron.CEL</t>
+  </si>
+  <si>
+    <t>Red Dougherty.CEL</t>
+  </si>
+  <si>
+    <t>Malus micromalus.CEL</t>
+  </si>
+  <si>
+    <t>Salome.CEL</t>
+  </si>
+  <si>
+    <t>Bonza.CEL</t>
+  </si>
+  <si>
+    <t>Black Prince.CEL</t>
+  </si>
+  <si>
+    <t>Charlotte.CEL</t>
+  </si>
+  <si>
+    <t>Irish Peach.CEL</t>
+  </si>
+  <si>
+    <t>Jonathan.CEL</t>
+  </si>
+  <si>
+    <t>Chieftan.CEL</t>
+  </si>
+  <si>
+    <t>Worcester Pearmain.CEL</t>
+  </si>
+  <si>
+    <t>Bismark.CEL</t>
+  </si>
+  <si>
+    <t>Spartan.CEL</t>
+  </si>
+  <si>
+    <t>Bozena Nemcova.CEL</t>
+  </si>
+  <si>
+    <t>Golden Harvest.CEL</t>
+  </si>
+  <si>
+    <t>Saint Magdalen.CEL</t>
+  </si>
+  <si>
+    <t>Mother.CEL</t>
+  </si>
+  <si>
+    <t>Charden.CEL</t>
+  </si>
+  <si>
+    <t>M. robusta 5.CEL</t>
+  </si>
+  <si>
+    <t>Stemphered Pippin.CEL</t>
+  </si>
+  <si>
+    <t>Royal Gala.CEL</t>
+  </si>
+  <si>
+    <t>Alkmene.CEL</t>
+  </si>
+  <si>
+    <t>Jonagold.CEL</t>
+  </si>
+  <si>
+    <t>Akane.CEL</t>
+  </si>
+  <si>
+    <t>A466R02T149.CEL</t>
+  </si>
+  <si>
+    <t>PremA129.CEL</t>
+  </si>
+  <si>
+    <t>M. baccata jackii.CEL</t>
+  </si>
+  <si>
+    <t>A209R08T022.CEL</t>
+  </si>
+  <si>
+    <t>A101R08T016.CEL</t>
+  </si>
+  <si>
+    <t>A569R10T144.CEL</t>
+  </si>
+  <si>
+    <t>M9.CEL</t>
+  </si>
+  <si>
+    <t>A470R26T092.CEL</t>
+  </si>
+  <si>
+    <t>A400R04T094.CEL</t>
+  </si>
+  <si>
+    <t>PremA153.CEL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4095,6 +5217,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -4136,11 +5279,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4476,4739 +5627,6195 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E34BED-E957-451A-B7BC-5186A8B11186}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D337"/>
+  <dimension ref="A1:F337"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.90625" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" customWidth="1"/>
-    <col min="4" max="4" width="25.1796875" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" customWidth="1"/>
+    <col min="5" max="5" width="38.44140625" customWidth="1"/>
+    <col min="6" max="6" width="28.109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="7" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2" s="3" t="s">
+        <v>1515</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3" s="3" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4" s="3" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5" s="3" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8" s="3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E9" s="3" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E10" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E11" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E12" s="3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E13" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E14" s="3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E15" s="3" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E16" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E17" s="3" t="s">
+        <v>1361</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E18" s="3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E19" s="3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E20" s="3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>1031</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E21" s="3" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>1032</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E22" s="3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="3" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E23" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
         <v>1034</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E24" s="3" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="3" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E25" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="3" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E26" s="3" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="3" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E27" s="3" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="3" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E28" s="3" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="3" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E29" s="3" t="s">
+        <v>1373</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="3" t="s">
         <v>1040</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E30" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="3" t="s">
         <v>1041</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E31" s="3" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="3" t="s">
         <v>1042</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E32" s="3" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="3" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E33" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="3" t="s">
         <v>1044</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E34" s="3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="3" t="s">
         <v>1045</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E35" s="3" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="3" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E36" s="3" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="3" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E37" s="3" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="3" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E38" s="3" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="3" t="s">
         <v>1049</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E39" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="3" t="s">
         <v>1050</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E40" s="3" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="3" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E41" s="3" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="3" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E42" s="3" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="3" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E43" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="3" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E44" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="3" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E45" s="3" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="3" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E46" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="3" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E47" s="3" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="3" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E48" s="3" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="3" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E49" s="3" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="3" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E50" s="3" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="3" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E51" s="3" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="3" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E52" s="3" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="3" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E53" s="3" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="3" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E54" s="3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="3" t="s">
         <v>1065</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E55" s="3" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="3" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E56" s="3" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="3" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E57" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="3" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E58" s="3" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="3" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E59" s="3" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="3" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E60" s="3" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="3" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E61" s="3" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="3" t="s">
         <v>1072</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E62" s="3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="3" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E63" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="3" t="s">
         <v>1074</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E64" s="3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="3" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E65" s="3" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="3" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E66" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="3" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E67" s="3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="3" t="s">
         <v>1078</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E68" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="3" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E69" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="3" t="s">
         <v>1080</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E70" s="3" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="3" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E71" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="3" t="s">
         <v>1082</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E72" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="3" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E73" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="3" t="s">
         <v>1084</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E74" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="3" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E75" s="3" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="3" t="s">
         <v>1086</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E76" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="3" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E77" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="3" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E78" s="3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="3" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E79" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="3" t="s">
         <v>1090</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E80" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="3" t="s">
         <v>1091</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E81" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="3" t="s">
         <v>1092</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E82" s="3" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="3" t="s">
         <v>1093</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E83" s="3" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="3" t="s">
         <v>1094</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E84" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="3" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E85" s="3" t="s">
+        <v>1429</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="3" t="s">
         <v>1096</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E86" s="3" t="s">
+        <v>1430</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="3" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E87" s="3" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="3" t="s">
         <v>1098</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E88" s="3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="3" t="s">
         <v>1099</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E89" s="3" t="s">
+        <v>1433</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="3" t="s">
         <v>1100</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E90" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="3" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E91" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="3" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E92" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="3" t="s">
         <v>1103</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E93" s="3" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="3" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E94" s="3" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="3" t="s">
         <v>1105</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E95" s="3" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="3" t="s">
         <v>1106</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E96" s="3" t="s">
+        <v>1440</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="3" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E97" s="3" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="3" t="s">
         <v>1108</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E98" s="3" t="s">
+        <v>1442</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="3" t="s">
         <v>1109</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E99" s="3" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="3" t="s">
         <v>1110</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E100" s="3" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="3" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E101" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="3" t="s">
         <v>1112</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E102" s="3" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="3" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E103" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="3" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E104" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="3" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E105" s="3" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="3" t="s">
         <v>1116</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E106" s="3" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="3" t="s">
         <v>1117</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E107" s="3" t="s">
+        <v>1451</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="3" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E108" s="3" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="3" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E109" s="3" t="s">
+        <v>1453</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="3" t="s">
         <v>1120</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E110" s="3" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="3" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E111" s="3" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="3" t="s">
         <v>786</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="3" t="s">
         <v>1122</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E112" s="3" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="3" t="s">
         <v>1123</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E113" s="3" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="3" t="s">
         <v>1124</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E114" s="3" t="s">
+        <v>1458</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="3" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E115" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="3" t="s">
         <v>1126</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E116" s="3" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="3" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E117" s="3" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="3" t="s">
         <v>1128</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E118" s="3" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="3" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E119" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="3" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E120" s="3" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="3" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E121" s="3" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="3" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E122" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="3" t="s">
         <v>1133</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E123" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="3" t="s">
         <v>1134</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E124" s="3" t="s">
+        <v>1468</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="3" t="s">
         <v>1135</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E125" s="3" t="s">
+        <v>1469</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="3" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E126" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="3" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E127" s="3" t="s">
+        <v>1471</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="3" t="s">
         <v>802</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="3" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E128" s="3" t="s">
+        <v>1472</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="3" t="s">
         <v>1139</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E129" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="3" t="s">
         <v>804</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="3" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E130" s="3" t="s">
+        <v>1474</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="3" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E131" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="3" t="s">
         <v>806</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="3" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E132" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="3" t="s">
         <v>1143</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E133" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="3" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E134" s="3" t="s">
+        <v>1478</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="3" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E135" s="3" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="3" t="s">
         <v>810</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="3" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E136" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="3" t="s">
         <v>811</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="3" t="s">
         <v>1147</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E137" s="3" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="3" t="s">
         <v>1148</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E138" s="3" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="3" t="s">
         <v>813</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="3" t="s">
         <v>1149</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E139" s="3" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="3" t="s">
         <v>1150</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E140" s="3" t="s">
+        <v>1484</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="3" t="s">
         <v>1151</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E141" s="3" t="s">
+        <v>1485</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="3" t="s">
         <v>1152</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E142" s="3" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="3" t="s">
         <v>1153</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E143" s="3" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="3" t="s">
         <v>818</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="3" t="s">
         <v>1154</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E144" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="3" t="s">
         <v>1155</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E145" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="3" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E146" s="3" t="s">
+        <v>1490</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="3" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E147" s="3" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="3" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E148" s="3" t="s">
+        <v>1492</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="3" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E149" s="3" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="3" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E150" s="3" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="3" t="s">
         <v>1161</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E151" s="3" t="s">
+        <v>1495</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" s="3" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E152" s="3" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E153" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="3" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E154" s="3" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="3" t="s">
         <v>1165</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E155" s="3" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="3" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E156" s="3" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" s="3" t="s">
         <v>1167</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E157" s="3" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" s="3" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E158" s="3" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159" s="3" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E159" s="3" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160" s="3" t="s">
         <v>1170</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E160" s="3" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="3" t="s">
         <v>1171</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E161" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="3" t="s">
         <v>1172</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E162" s="3" t="s">
+        <v>1506</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="3" t="s">
         <v>837</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" s="3" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E163" s="3" t="s">
+        <v>1507</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="3" t="s">
         <v>838</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164" s="3" t="s">
         <v>1174</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E164" s="3" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="3" t="s">
         <v>839</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165" s="3" t="s">
         <v>1175</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E165" s="3" t="s">
+        <v>1509</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="3" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E166" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="3" t="s">
         <v>841</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" s="3" t="s">
         <v>1177</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E167" s="3" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168" s="3" t="s">
         <v>1178</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E168" s="3" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" s="3" t="s">
         <v>1179</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E169" s="3" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F169" s="5" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D170" s="3" t="s">
         <v>1180</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E170" s="3" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D171" s="3" t="s">
         <v>1181</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E171" s="3" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D172" s="3" t="s">
         <v>1182</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E172" s="3" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D173" s="3" t="s">
         <v>1183</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E173" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D174" s="3" t="s">
         <v>1184</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E174" s="3" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D175" s="3" t="s">
         <v>1185</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E175" s="3" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="3" t="s">
         <v>850</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D176" s="3" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E176" s="3" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D177" s="3" t="s">
         <v>1187</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E177" s="3" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D178" s="3" t="s">
         <v>1188</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E178" s="3" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D179" s="3" t="s">
         <v>1189</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E179" s="3" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="3" t="s">
         <v>854</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D180" s="3" t="s">
         <v>1190</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E180" s="3" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C181" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D181" s="3" t="s">
         <v>1191</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E181" s="3" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C182" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D182" s="3" t="s">
         <v>1192</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E182" s="3" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C183" s="3" t="s">
         <v>857</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D183" s="3" t="s">
         <v>1193</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E183" s="3" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F183" s="5" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C184" s="3" t="s">
         <v>858</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D184" s="3" t="s">
         <v>1194</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E184" s="3" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C185" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D185" s="3" t="s">
         <v>1195</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E185" s="3" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F185" s="5" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C186" s="3" t="s">
         <v>860</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D186" s="3" t="s">
         <v>1196</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E186" s="3" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F186" s="5" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C187" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D187" s="3" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E187" s="3" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F187" s="5" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C188" s="3" t="s">
         <v>862</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D188" s="3" t="s">
         <v>1198</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E188" s="3" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C189" s="3" t="s">
         <v>863</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D189" s="3" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E189" s="3" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F189" s="5" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C190" s="3" t="s">
         <v>864</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D190" s="3" t="s">
         <v>1200</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E190" s="3" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C191" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D191" s="3" t="s">
         <v>1201</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E191" s="3" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F191" s="5" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C192" s="3" t="s">
         <v>866</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D192" s="3" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E192" s="3" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F192" s="5" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C193" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D193" s="3" t="s">
         <v>1203</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E193" s="3" t="s">
+        <v>1541</v>
+      </c>
+      <c r="F193" s="5" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C194" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D194" s="3" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E194" s="3" t="s">
+        <v>1542</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C195" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D195" s="3" t="s">
         <v>1205</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E195" s="3"/>
+      <c r="F195" s="4"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C196" s="3" t="s">
         <v>870</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D196" s="3" t="s">
         <v>1206</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E196" s="3"/>
+      <c r="F196" s="4"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C197" s="3" t="s">
         <v>871</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D197" s="3" t="s">
         <v>1207</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E197" s="3"/>
+      <c r="F197" s="4"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C198" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D198" s="3" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E198" s="3"/>
+      <c r="F198" s="4"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C199" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D199" s="3" t="s">
         <v>1209</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E199" s="3"/>
+      <c r="F199" s="4"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C200" s="3" t="s">
         <v>874</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D200" s="3" t="s">
         <v>1210</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E200" s="3"/>
+      <c r="F200" s="4"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C201" s="3" t="s">
         <v>875</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D201" s="3" t="s">
         <v>1211</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E201" s="3"/>
+      <c r="F201" s="4"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C202" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D202" s="3" t="s">
         <v>1212</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E202" s="3"/>
+      <c r="F202" s="4"/>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C203" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D203" s="3" t="s">
         <v>1213</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E203" s="3"/>
+      <c r="F203" s="4"/>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C204" s="3" t="s">
         <v>878</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D204" s="3" t="s">
         <v>1214</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E204" s="3"/>
+      <c r="F204" s="4"/>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C205" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D205" s="3" t="s">
         <v>1215</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E205" s="3"/>
+      <c r="F205" s="4"/>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C206" s="3" t="s">
         <v>880</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D206" s="3" t="s">
         <v>1216</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E206" s="3"/>
+      <c r="F206" s="4"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C207" s="3" t="s">
         <v>881</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D207" s="3" t="s">
         <v>1217</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E207" s="3"/>
+      <c r="F207" s="4"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C208" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D208" s="3" t="s">
         <v>1218</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E208" s="3"/>
+      <c r="F208" s="4"/>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C209" s="3" t="s">
         <v>883</v>
       </c>
-      <c r="D209" t="s">
+      <c r="D209" s="3" t="s">
         <v>1219</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E209" s="3"/>
+      <c r="F209" s="4"/>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C210" s="3" t="s">
         <v>884</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D210" s="3" t="s">
         <v>1220</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E210" s="3"/>
+      <c r="F210" s="4"/>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C211" s="3" t="s">
         <v>885</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D211" s="3" t="s">
         <v>1221</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E211" s="3"/>
+      <c r="F211" s="4"/>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C212" s="3" t="s">
         <v>886</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D212" s="3" t="s">
         <v>1222</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E212" s="3"/>
+      <c r="F212" s="4"/>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C213" s="3" t="s">
         <v>887</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D213" s="3" t="s">
         <v>1223</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E213" s="3"/>
+      <c r="F213" s="4"/>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C214" s="3" t="s">
         <v>888</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D214" s="3" t="s">
         <v>1224</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E214" s="3"/>
+      <c r="F214" s="4"/>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C215" s="3" t="s">
         <v>889</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D215" s="3" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E215" s="3"/>
+      <c r="F215" s="4"/>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C216" s="3" t="s">
         <v>890</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D216" s="3" t="s">
         <v>1226</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E216" s="3"/>
+      <c r="F216" s="4"/>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C217" s="3" t="s">
         <v>891</v>
       </c>
-      <c r="D217" t="s">
+      <c r="D217" s="3" t="s">
         <v>1227</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E217" s="3"/>
+      <c r="F217" s="4"/>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C218" s="3" t="s">
         <v>892</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D218" s="3" t="s">
         <v>1228</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E218" s="3"/>
+      <c r="F218" s="4"/>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C219" s="3" t="s">
         <v>893</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D219" s="3" t="s">
         <v>1229</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E219" s="3"/>
+      <c r="F219" s="4"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C220" s="3" t="s">
         <v>894</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D220" s="3" t="s">
         <v>1230</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E220" s="3"/>
+      <c r="F220" s="4"/>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C221" s="3" t="s">
         <v>895</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D221" s="3" t="s">
         <v>1231</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E221" s="3"/>
+      <c r="F221" s="4"/>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C222" s="3" t="s">
         <v>896</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D222" s="3" t="s">
         <v>1232</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E222" s="3"/>
+      <c r="F222" s="4"/>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C223" s="3" t="s">
         <v>897</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D223" s="3" t="s">
         <v>1233</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E223" s="3"/>
+      <c r="F223" s="4"/>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C224" s="3" t="s">
         <v>898</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D224" s="3" t="s">
         <v>1234</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E224" s="3"/>
+      <c r="F224" s="4"/>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C225" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D225" s="3" t="s">
         <v>1235</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E225" s="3"/>
+      <c r="F225" s="4"/>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C226" s="3" t="s">
         <v>900</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D226" s="3" t="s">
         <v>1236</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E226" s="3"/>
+      <c r="F226" s="4"/>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C227" s="3" t="s">
         <v>901</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D227" s="3" t="s">
         <v>1237</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E227" s="3"/>
+      <c r="F227" s="4"/>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C228" s="3" t="s">
         <v>902</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D228" s="3" t="s">
         <v>1238</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E228" s="3"/>
+      <c r="F228" s="4"/>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C229" s="3" t="s">
         <v>903</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D229" s="3" t="s">
         <v>1239</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E229" s="3"/>
+      <c r="F229" s="4"/>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C230" s="3" t="s">
         <v>904</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D230" s="3" t="s">
         <v>1240</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E230" s="3"/>
+      <c r="F230" s="4"/>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C231" s="3" t="s">
         <v>905</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D231" s="3" t="s">
         <v>1241</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E231" s="3"/>
+      <c r="F231" s="4"/>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C232" s="3" t="s">
         <v>906</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D232" s="3" t="s">
         <v>1242</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E232" s="3"/>
+      <c r="F232" s="4"/>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B233" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C233" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D233" s="3" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E233" s="3"/>
+      <c r="F233" s="4"/>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C234" s="3" t="s">
         <v>908</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D234" s="3" t="s">
         <v>1244</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E234" s="3"/>
+      <c r="F234" s="4"/>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C235" s="3" t="s">
         <v>909</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D235" s="3" t="s">
         <v>1245</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E235" s="3"/>
+      <c r="F235" s="4"/>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C236" s="3" t="s">
         <v>910</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D236" s="3" t="s">
         <v>1246</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E236" s="3"/>
+      <c r="F236" s="4"/>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C237" s="3" t="s">
         <v>911</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D237" s="3" t="s">
         <v>1247</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E237" s="3"/>
+      <c r="F237" s="4"/>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C238" s="3" t="s">
         <v>912</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D238" s="3" t="s">
         <v>1248</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E238" s="3"/>
+      <c r="F238" s="4"/>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C239" s="3" t="s">
         <v>913</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D239" s="3" t="s">
         <v>1249</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E239" s="3"/>
+      <c r="F239" s="4"/>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B240" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C240" s="3" t="s">
         <v>914</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D240" s="3" t="s">
         <v>1250</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E240" s="3"/>
+      <c r="F240" s="4"/>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="C241" t="s">
+      <c r="C241" s="3" t="s">
         <v>915</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D241" s="3" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E241" s="3"/>
+      <c r="F241" s="4"/>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B242" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C242" s="3" t="s">
         <v>916</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D242" s="3" t="s">
         <v>1252</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E242" s="3"/>
+      <c r="F242" s="4"/>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B243" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C243" s="3" t="s">
         <v>917</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D243" s="3" t="s">
         <v>1253</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E243" s="3"/>
+      <c r="F243" s="4"/>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B244" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C244" s="3" t="s">
         <v>918</v>
       </c>
-      <c r="D244" t="s">
+      <c r="D244" s="3" t="s">
         <v>1254</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E244" s="3"/>
+      <c r="F244" s="4"/>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B245" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C245" s="3" t="s">
         <v>919</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D245" s="3" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E245" s="3"/>
+      <c r="F245" s="4"/>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B246" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C246" s="3" t="s">
         <v>920</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D246" s="3" t="s">
         <v>1256</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E246" s="3"/>
+      <c r="F246" s="4"/>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C247" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D247" s="3" t="s">
         <v>1257</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E247" s="3"/>
+      <c r="F247" s="4"/>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B248" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C248" s="3" t="s">
         <v>922</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D248" s="3" t="s">
         <v>1258</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E248" s="3"/>
+      <c r="F248" s="4"/>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B249" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C249" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D249" s="3" t="s">
         <v>1259</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E249" s="3"/>
+      <c r="F249" s="4"/>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C250" s="3" t="s">
         <v>924</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D250" s="3" t="s">
         <v>1260</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E250" s="3"/>
+      <c r="F250" s="4"/>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B251" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C251" s="3" t="s">
         <v>925</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D251" s="3" t="s">
         <v>1261</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E251" s="3"/>
+      <c r="F251" s="4"/>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C252" s="3" t="s">
         <v>926</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D252" s="3" t="s">
         <v>1262</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E252" s="3"/>
+      <c r="F252" s="4"/>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B253" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="C253" t="s">
+      <c r="C253" s="3" t="s">
         <v>927</v>
       </c>
-      <c r="D253" t="s">
+      <c r="D253" s="3" t="s">
         <v>1263</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E253" s="3"/>
+      <c r="F253" s="4"/>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B254" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C254" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="D254" t="s">
+      <c r="D254" s="3" t="s">
         <v>1264</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E254" s="3"/>
+      <c r="F254" s="4"/>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B255" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C255" s="3" t="s">
         <v>929</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D255" s="3" t="s">
         <v>1265</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E255" s="3"/>
+      <c r="F255" s="4"/>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B256" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C256" s="3" t="s">
         <v>930</v>
       </c>
-      <c r="D256" t="s">
+      <c r="D256" s="3" t="s">
         <v>1266</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E256" s="3"/>
+      <c r="F256" s="4"/>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C257" s="3" t="s">
         <v>931</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D257" s="3" t="s">
         <v>1267</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E257" s="3"/>
+      <c r="F257" s="4"/>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B258" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C258" s="3" t="s">
         <v>932</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D258" s="3" t="s">
         <v>1268</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E258" s="3"/>
+      <c r="F258" s="4"/>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B259" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C259" s="3" t="s">
         <v>933</v>
       </c>
-      <c r="D259" t="s">
+      <c r="D259" s="3" t="s">
         <v>1269</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E259" s="3"/>
+      <c r="F259" s="4"/>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B260" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C260" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="D260" t="s">
+      <c r="D260" s="3" t="s">
         <v>1270</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E260" s="3"/>
+      <c r="F260" s="4"/>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B261" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C261" s="3" t="s">
         <v>935</v>
       </c>
-      <c r="D261" t="s">
+      <c r="D261" s="3" t="s">
         <v>1271</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E261" s="3"/>
+      <c r="F261" s="4"/>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="C262" t="s">
+      <c r="C262" s="3" t="s">
         <v>936</v>
       </c>
-      <c r="D262" t="s">
+      <c r="D262" s="3" t="s">
         <v>1272</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E262" s="3"/>
+      <c r="F262" s="4"/>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B263" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="C263" t="s">
+      <c r="C263" s="3" t="s">
         <v>937</v>
       </c>
-      <c r="D263" t="s">
+      <c r="D263" s="3" t="s">
         <v>1273</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E263" s="3"/>
+      <c r="F263" s="4"/>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B264" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C264" s="3" t="s">
         <v>938</v>
       </c>
-      <c r="D264" t="s">
+      <c r="D264" s="3" t="s">
         <v>1274</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E264" s="3"/>
+      <c r="F264" s="4"/>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B265" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="C265" t="s">
+      <c r="C265" s="3" t="s">
         <v>939</v>
       </c>
-      <c r="D265" t="s">
+      <c r="D265" s="3" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E265" s="3"/>
+      <c r="F265" s="4"/>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B266" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="C266" t="s">
+      <c r="C266" s="3" t="s">
         <v>940</v>
       </c>
-      <c r="D266" t="s">
+      <c r="D266" s="3" t="s">
         <v>1276</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E266" s="3"/>
+      <c r="F266" s="4"/>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B267" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="C267" t="s">
+      <c r="C267" s="3" t="s">
         <v>941</v>
       </c>
-      <c r="D267" t="s">
+      <c r="D267" s="3" t="s">
         <v>1277</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E267" s="3"/>
+      <c r="F267" s="4"/>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B268" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="C268" t="s">
+      <c r="C268" s="3" t="s">
         <v>942</v>
       </c>
-      <c r="D268" t="s">
+      <c r="D268" s="3" t="s">
         <v>1278</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E268" s="3"/>
+      <c r="F268" s="4"/>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B269" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="C269" t="s">
+      <c r="C269" s="3" t="s">
         <v>943</v>
       </c>
-      <c r="D269" t="s">
+      <c r="D269" s="3" t="s">
         <v>1279</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E269" s="3"/>
+      <c r="F269" s="4"/>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B270" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="C270" t="s">
+      <c r="C270" s="3" t="s">
         <v>944</v>
       </c>
-      <c r="D270" t="s">
+      <c r="D270" s="3" t="s">
         <v>1280</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E270" s="3"/>
+      <c r="F270" s="4"/>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B271" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="C271" t="s">
+      <c r="C271" s="3" t="s">
         <v>945</v>
       </c>
-      <c r="D271" t="s">
+      <c r="D271" s="3" t="s">
         <v>1281</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E271" s="3"/>
+      <c r="F271" s="4"/>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B272" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="C272" t="s">
+      <c r="C272" s="3" t="s">
         <v>946</v>
       </c>
-      <c r="D272" t="s">
+      <c r="D272" s="3" t="s">
         <v>1282</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E272" s="3"/>
+      <c r="F272" s="4"/>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B273" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="C273" t="s">
+      <c r="C273" s="3" t="s">
         <v>947</v>
       </c>
-      <c r="D273" t="s">
+      <c r="D273" s="3" t="s">
         <v>1283</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E273" s="3"/>
+      <c r="F273" s="4"/>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B274" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="C274" t="s">
+      <c r="C274" s="3" t="s">
         <v>948</v>
       </c>
-      <c r="D274" t="s">
+      <c r="D274" s="3" t="s">
         <v>1284</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E274" s="3"/>
+      <c r="F274" s="4"/>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B275" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="C275" t="s">
+      <c r="C275" s="3" t="s">
         <v>949</v>
       </c>
-      <c r="D275" t="s">
+      <c r="D275" s="3" t="s">
         <v>1285</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E275" s="3"/>
+      <c r="F275" s="4"/>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B276" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="C276" t="s">
+      <c r="C276" s="3" t="s">
         <v>950</v>
       </c>
-      <c r="D276" t="s">
+      <c r="D276" s="3" t="s">
         <v>1286</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E276" s="3"/>
+      <c r="F276" s="4"/>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B277" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="C277" t="s">
+      <c r="C277" s="3" t="s">
         <v>951</v>
       </c>
-      <c r="D277" t="s">
+      <c r="D277" s="3" t="s">
         <v>1287</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E277" s="3"/>
+      <c r="F277" s="4"/>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B278" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="C278" t="s">
+      <c r="C278" s="3" t="s">
         <v>952</v>
       </c>
-      <c r="D278" t="s">
+      <c r="D278" s="3" t="s">
         <v>1288</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E278" s="3"/>
+      <c r="F278" s="4"/>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B279" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="C279" t="s">
+      <c r="C279" s="3" t="s">
         <v>953</v>
       </c>
-      <c r="D279" t="s">
+      <c r="D279" s="3" t="s">
         <v>1289</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E279" s="3"/>
+      <c r="F279" s="4"/>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B280" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="C280" t="s">
+      <c r="C280" s="3" t="s">
         <v>954</v>
       </c>
-      <c r="D280" t="s">
+      <c r="D280" s="3" t="s">
         <v>1290</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E280" s="3"/>
+      <c r="F280" s="4"/>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B281" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="C281" t="s">
+      <c r="C281" s="3" t="s">
         <v>955</v>
       </c>
-      <c r="D281" t="s">
+      <c r="D281" s="3" t="s">
         <v>1291</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E281" s="3"/>
+      <c r="F281" s="4"/>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B282" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="C282" t="s">
+      <c r="C282" s="3" t="s">
         <v>956</v>
       </c>
-      <c r="D282" t="s">
+      <c r="D282" s="3" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E282" s="3"/>
+      <c r="F282" s="4"/>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B283" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="C283" t="s">
+      <c r="C283" s="3" t="s">
         <v>957</v>
       </c>
-      <c r="D283" t="s">
+      <c r="D283" s="3" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E283" s="3"/>
+      <c r="F283" s="4"/>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B284" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="C284" t="s">
+      <c r="C284" s="3" t="s">
         <v>958</v>
       </c>
-      <c r="D284" t="s">
+      <c r="D284" s="3" t="s">
         <v>1294</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E284" s="3"/>
+      <c r="F284" s="4"/>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B285" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="C285" t="s">
+      <c r="C285" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="D285" t="s">
+      <c r="D285" s="3" t="s">
         <v>1295</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E285" s="3"/>
+      <c r="F285" s="4"/>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B286" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="C286" t="s">
+      <c r="C286" s="3" t="s">
         <v>960</v>
       </c>
-      <c r="D286" t="s">
+      <c r="D286" s="3" t="s">
         <v>1296</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E286" s="3"/>
+      <c r="F286" s="4"/>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B287" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="C287" t="s">
+      <c r="C287" s="3" t="s">
         <v>961</v>
       </c>
-      <c r="D287" t="s">
+      <c r="D287" s="3" t="s">
         <v>1297</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E287" s="3"/>
+      <c r="F287" s="4"/>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B288" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="C288" t="s">
+      <c r="C288" s="3" t="s">
         <v>962</v>
       </c>
-      <c r="D288" t="s">
+      <c r="D288" s="3" t="s">
         <v>1298</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E288" s="3"/>
+      <c r="F288" s="4"/>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B289" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="C289" t="s">
+      <c r="C289" s="3" t="s">
         <v>963</v>
       </c>
-      <c r="D289" t="s">
+      <c r="D289" s="3" t="s">
         <v>1299</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E289" s="3"/>
+      <c r="F289" s="4"/>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B290" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C290" t="s">
+      <c r="C290" s="3" t="s">
         <v>964</v>
       </c>
-      <c r="D290" t="s">
+      <c r="D290" s="3" t="s">
         <v>1300</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E290" s="3"/>
+      <c r="F290" s="4"/>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C291" t="s">
+      <c r="C291" s="3" t="s">
         <v>965</v>
       </c>
-      <c r="D291" t="s">
+      <c r="D291" s="3" t="s">
         <v>1301</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E291" s="3"/>
+      <c r="F291" s="4"/>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B292" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="C292" t="s">
+      <c r="C292" s="3" t="s">
         <v>966</v>
       </c>
-      <c r="D292" t="s">
+      <c r="D292" s="3" t="s">
         <v>1302</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E292" s="3"/>
+      <c r="F292" s="4"/>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B293" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="C293" t="s">
+      <c r="C293" s="3" t="s">
         <v>967</v>
       </c>
-      <c r="D293" t="s">
+      <c r="D293" s="3" t="s">
         <v>1303</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E293" s="3"/>
+      <c r="F293" s="4"/>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B294" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="C294" t="s">
+      <c r="C294" s="3" t="s">
         <v>968</v>
       </c>
-      <c r="D294" t="s">
+      <c r="D294" s="3" t="s">
         <v>1304</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E294" s="3"/>
+      <c r="F294" s="4"/>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B295" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="C295" t="s">
+      <c r="C295" s="3" t="s">
         <v>969</v>
       </c>
-      <c r="D295" t="s">
+      <c r="D295" s="3" t="s">
         <v>1305</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E295" s="3"/>
+      <c r="F295" s="4"/>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B296" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="C296" t="s">
+      <c r="C296" s="3" t="s">
         <v>970</v>
       </c>
-      <c r="D296" t="s">
+      <c r="D296" s="3" t="s">
         <v>1306</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E296" s="3"/>
+      <c r="F296" s="4"/>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B297" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="C297" t="s">
+      <c r="C297" s="3" t="s">
         <v>971</v>
       </c>
-      <c r="D297" t="s">
+      <c r="D297" s="3" t="s">
         <v>1307</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E297" s="3"/>
+      <c r="F297" s="4"/>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B298" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="C298" t="s">
+      <c r="C298" s="3" t="s">
         <v>972</v>
       </c>
-      <c r="D298" t="s">
+      <c r="D298" s="3" t="s">
         <v>1308</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E298" s="3"/>
+      <c r="F298" s="4"/>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B299" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="C299" t="s">
+      <c r="C299" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="D299" t="s">
+      <c r="D299" s="3" t="s">
         <v>1309</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E299" s="3"/>
+      <c r="F299" s="4"/>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B300" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="C300" t="s">
+      <c r="C300" s="3" t="s">
         <v>974</v>
       </c>
-      <c r="D300" t="s">
+      <c r="D300" s="3" t="s">
         <v>1310</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E300" s="3"/>
+      <c r="F300" s="4"/>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B301" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="C301" t="s">
+      <c r="C301" s="3" t="s">
         <v>975</v>
       </c>
-      <c r="D301" t="s">
+      <c r="D301" s="3" t="s">
         <v>1311</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E301" s="3"/>
+      <c r="F301" s="4"/>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B302" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C302" t="s">
+      <c r="C302" s="3" t="s">
         <v>976</v>
       </c>
-      <c r="D302" t="s">
+      <c r="D302" s="3" t="s">
         <v>1312</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E302" s="3"/>
+      <c r="F302" s="4"/>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B303" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="C303" t="s">
+      <c r="C303" s="3" t="s">
         <v>977</v>
       </c>
-      <c r="D303" t="s">
+      <c r="D303" s="3" t="s">
         <v>1313</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E303" s="3"/>
+      <c r="F303" s="4"/>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B304" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="C304" t="s">
+      <c r="C304" s="3" t="s">
         <v>978</v>
       </c>
-      <c r="D304" t="s">
+      <c r="D304" s="3" t="s">
         <v>1314</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E304" s="3"/>
+      <c r="F304" s="4"/>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B305" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="C305" t="s">
+      <c r="C305" s="3" t="s">
         <v>979</v>
       </c>
-      <c r="D305" t="s">
+      <c r="D305" s="3" t="s">
         <v>1315</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E305" s="3"/>
+      <c r="F305" s="4"/>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B306" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="C306" t="s">
+      <c r="C306" s="3" t="s">
         <v>980</v>
       </c>
-      <c r="D306" t="s">
+      <c r="D306" s="3" t="s">
         <v>1316</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E306" s="3"/>
+      <c r="F306" s="4"/>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B307" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="C307" t="s">
+      <c r="C307" s="3" t="s">
         <v>981</v>
       </c>
-      <c r="D307" t="s">
+      <c r="D307" s="3" t="s">
         <v>1317</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E307" s="3"/>
+      <c r="F307" s="4"/>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B308" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="C308" t="s">
+      <c r="C308" s="3" t="s">
         <v>982</v>
       </c>
-      <c r="D308" t="s">
+      <c r="D308" s="3" t="s">
         <v>1318</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E308" s="3"/>
+      <c r="F308" s="4"/>
+    </row>
+    <row r="309" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B309" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="C309" t="s">
+      <c r="C309" s="3" t="s">
         <v>983</v>
       </c>
-      <c r="D309" t="s">
+      <c r="D309" s="3" t="s">
         <v>1319</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E309" s="3"/>
+      <c r="F309" s="4"/>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B310" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="C310" t="s">
+      <c r="C310" s="3" t="s">
         <v>984</v>
       </c>
-      <c r="D310" t="s">
+      <c r="D310" s="3" t="s">
         <v>1320</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E310" s="3"/>
+      <c r="F310" s="4"/>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B311" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="C311" t="s">
+      <c r="C311" s="3" t="s">
         <v>985</v>
       </c>
-      <c r="D311" t="s">
+      <c r="D311" s="3" t="s">
         <v>1321</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E311" s="3"/>
+      <c r="F311" s="4"/>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B312" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="C312" t="s">
+      <c r="C312" s="3" t="s">
         <v>986</v>
       </c>
-      <c r="D312" t="s">
+      <c r="D312" s="3" t="s">
         <v>1322</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E312" s="3"/>
+      <c r="F312" s="4"/>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B313" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="C313" t="s">
+      <c r="C313" s="3" t="s">
         <v>987</v>
       </c>
-      <c r="D313" t="s">
+      <c r="D313" s="3" t="s">
         <v>1323</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E313" s="3"/>
+      <c r="F313" s="4"/>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B314" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="C314" t="s">
+      <c r="C314" s="3" t="s">
         <v>988</v>
       </c>
-      <c r="D314" t="s">
+      <c r="D314" s="3" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E314" s="3"/>
+      <c r="F314" s="4"/>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B315" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="C315" t="s">
+      <c r="C315" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="D315" t="s">
+      <c r="D315" s="3" t="s">
         <v>1325</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E315" s="3"/>
+      <c r="F315" s="4"/>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B316" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="C316" t="s">
+      <c r="C316" s="3" t="s">
         <v>990</v>
       </c>
-      <c r="D316" t="s">
+      <c r="D316" s="3" t="s">
         <v>1326</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E316" s="3"/>
+      <c r="F316" s="4"/>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B317" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="C317" t="s">
+      <c r="C317" s="3" t="s">
         <v>991</v>
       </c>
-      <c r="D317" t="s">
+      <c r="D317" s="3" t="s">
         <v>1327</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E317" s="3"/>
+      <c r="F317" s="4"/>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B318" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="C318" t="s">
+      <c r="C318" s="3" t="s">
         <v>992</v>
       </c>
-      <c r="D318" t="s">
+      <c r="D318" s="3" t="s">
         <v>1328</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E318" s="3"/>
+      <c r="F318" s="4"/>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B319" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="C319" t="s">
+      <c r="C319" s="3" t="s">
         <v>993</v>
       </c>
-      <c r="D319" t="s">
+      <c r="D319" s="3" t="s">
         <v>1329</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E319" s="3"/>
+      <c r="F319" s="4"/>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B320" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="C320" t="s">
+      <c r="C320" s="3" t="s">
         <v>994</v>
       </c>
-      <c r="D320" t="s">
+      <c r="D320" s="3" t="s">
         <v>1330</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E320" s="3"/>
+      <c r="F320" s="4"/>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B321" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="C321" t="s">
+      <c r="C321" s="3" t="s">
         <v>995</v>
       </c>
-      <c r="D321" t="s">
+      <c r="D321" s="3" t="s">
         <v>1331</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E321" s="3"/>
+      <c r="F321" s="4"/>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B322" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="C322" t="s">
+      <c r="C322" s="3" t="s">
         <v>996</v>
       </c>
-      <c r="D322" t="s">
+      <c r="D322" s="3" t="s">
         <v>1332</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E322" s="3"/>
+      <c r="F322" s="4"/>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B323" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="C323" t="s">
+      <c r="C323" s="3" t="s">
         <v>997</v>
       </c>
-      <c r="D323" t="s">
+      <c r="D323" s="3" t="s">
         <v>1333</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E323" s="3"/>
+      <c r="F323" s="4"/>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B324" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="C324" t="s">
+      <c r="C324" s="3" t="s">
         <v>998</v>
       </c>
-      <c r="D324" t="s">
+      <c r="D324" s="3" t="s">
         <v>1334</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E324" s="3"/>
+      <c r="F324" s="4"/>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B325" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="C325" t="s">
+      <c r="C325" s="3" t="s">
         <v>999</v>
       </c>
-      <c r="D325" t="s">
+      <c r="D325" s="3" t="s">
         <v>1335</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E325" s="3"/>
+      <c r="F325" s="4"/>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B326" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="C326" t="s">
+      <c r="C326" s="3" t="s">
         <v>1000</v>
       </c>
-      <c r="D326" t="s">
+      <c r="D326" s="3" t="s">
         <v>1336</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E326" s="3"/>
+      <c r="F326" s="4"/>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B327" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="C327" t="s">
+      <c r="C327" s="3" t="s">
         <v>1001</v>
       </c>
-      <c r="D327" t="s">
+      <c r="D327" s="3" t="s">
         <v>1337</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E327" s="3"/>
+      <c r="F327" s="4"/>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B328" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="C328" t="s">
+      <c r="C328" s="3" t="s">
         <v>1002</v>
       </c>
-      <c r="D328" t="s">
+      <c r="D328" s="3" t="s">
         <v>1338</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E328" s="3"/>
+      <c r="F328" s="4"/>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B329" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="C329" t="s">
+      <c r="C329" s="3" t="s">
         <v>1003</v>
       </c>
-      <c r="D329" t="s">
+      <c r="D329" s="3" t="s">
         <v>1339</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E329" s="3"/>
+      <c r="F329" s="4"/>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B330" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="C330" t="s">
+      <c r="C330" s="3" t="s">
         <v>1004</v>
       </c>
-      <c r="D330" t="s">
+      <c r="D330" s="3" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E330" s="3"/>
+      <c r="F330" s="4"/>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B331" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="C331" t="s">
+      <c r="C331" s="3" t="s">
         <v>1005</v>
       </c>
-      <c r="D331" t="s">
+      <c r="D331" s="3" t="s">
         <v>1341</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E331" s="3"/>
+      <c r="F331" s="4"/>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B332" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="C332" t="s">
+      <c r="C332" s="3" t="s">
         <v>1006</v>
       </c>
-      <c r="D332" t="s">
+      <c r="D332" s="3" t="s">
         <v>1342</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E332" s="3"/>
+      <c r="F332" s="4"/>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B333" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="C333" t="s">
+      <c r="C333" s="3" t="s">
         <v>1007</v>
       </c>
-      <c r="D333" t="s">
+      <c r="D333" s="3" t="s">
         <v>1343</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E333" s="3"/>
+      <c r="F333" s="4"/>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B334" t="s">
+      <c r="B334" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="C334" t="s">
+      <c r="C334" s="3" t="s">
         <v>1008</v>
       </c>
-      <c r="D334" t="s">
+      <c r="D334" s="3" t="s">
         <v>1344</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E334" s="3"/>
+      <c r="F334" s="4"/>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B335" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="C335" t="s">
+      <c r="C335" s="3" t="s">
         <v>1009</v>
       </c>
-      <c r="D335" t="s">
+      <c r="D335" s="3" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" ht="23" x14ac:dyDescent="0.35">
+      <c r="E335" s="3"/>
+      <c r="F335" s="4"/>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B336" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="C336" t="s">
+      <c r="C336" s="3" t="s">
         <v>1010</v>
       </c>
-      <c r="D336" t="s">
+      <c r="D336" s="3" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E336" s="3"/>
+      <c r="F336" s="4"/>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B337" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="C337" t="s">
+      <c r="C337" s="3" t="s">
         <v>1011</v>
       </c>
-      <c r="D337" t="s">
+      <c r="D337" s="3" t="s">
         <v>1347</v>
       </c>
+      <c r="E337" s="3"/>
+      <c r="F337" s="4"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:E170">
+    <sortCondition ref="E2:E170"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/File Naming.xlsx
+++ b/File Naming.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\curly\Desktop\Apple Genotyping\Experiment Folders\Renaming Sample Labels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\curly\Desktop\Apple Genotyping\Experiments\Renaming Sample Labels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997F658B-E0AC-499E-B2FA-490DDDF5BDF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4164DE-3DFB-4A5E-B9B7-62409AED889C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{3491D669-C83C-4979-B15B-06B44BE9C919}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{3491D669-C83C-4979-B15B-06B44BE9C919}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="1722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="1736">
   <si>
     <t>New</t>
   </si>
@@ -4778,9 +4778,6 @@
     <t>Tydeman’s Late Orange.CEL</t>
   </si>
   <si>
-    <t>Tydeman's Late Orange.CEL</t>
-  </si>
-  <si>
     <t>Ellison's Orange.CEL</t>
   </si>
   <si>
@@ -4931,9 +4928,6 @@
     <t>Splendour.CEL</t>
   </si>
   <si>
-    <t>Malus Pumila Niedwitzkiana.CEL</t>
-  </si>
-  <si>
     <t>Gene Pitney.CEL</t>
   </si>
   <si>
@@ -5202,6 +5196,54 @@
   </si>
   <si>
     <t>PremA153.CEL</t>
+  </si>
+  <si>
+    <t>A101R08T016_rep.CEL</t>
+  </si>
+  <si>
+    <t>A209R08T022_rep.CEL</t>
+  </si>
+  <si>
+    <t>A400R04T094_rep.CEL</t>
+  </si>
+  <si>
+    <t>A466R02T149_rep.CEL</t>
+  </si>
+  <si>
+    <t>A470R26T092_rep.CEL</t>
+  </si>
+  <si>
+    <t>A569R10T144_rep.CEL</t>
+  </si>
+  <si>
+    <t>M. baccata jackii_rep.CEL</t>
+  </si>
+  <si>
+    <t>M. robusta 5_rep.CEL</t>
+  </si>
+  <si>
+    <t>M. robusta 5_rep2.CEL</t>
+  </si>
+  <si>
+    <t>M9_rep.CEL</t>
+  </si>
+  <si>
+    <t>Malus pumila Niedzwetzkyana.CEL</t>
+  </si>
+  <si>
+    <t>PremA129_rep.CEL</t>
+  </si>
+  <si>
+    <t>PremA153_rep.CEL</t>
+  </si>
+  <si>
+    <t>Sciros_rep.CEL</t>
+  </si>
+  <si>
+    <t>Sciros_rep2.CEL</t>
+  </si>
+  <si>
+    <t>Tydeman's Late Orange_rep.CEL</t>
   </si>
 </sst>
 </file>
@@ -5279,14 +5321,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5630,8 +5670,8 @@
   <dimension ref="A1:F337"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H192" sqref="H192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5641,26 +5681,26 @@
     <col min="3" max="3" width="11.5546875" customWidth="1"/>
     <col min="4" max="4" width="25.21875" customWidth="1"/>
     <col min="5" max="5" width="38.44140625" customWidth="1"/>
-    <col min="6" max="6" width="28.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>674</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>675</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>1348</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>1349</v>
       </c>
     </row>
@@ -5668,6153 +5708,6153 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>1012</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>1515</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>1543</v>
+      <c r="E2" s="2" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1714</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>1013</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>1516</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>1544</v>
+      <c r="E3" s="2" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>1720</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>1014</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>1517</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>1545</v>
+      <c r="E4" s="2" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>1713</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>1015</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>1518</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>1546</v>
+      <c r="E5" s="2" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>1721</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>1016</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>1350</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>1547</v>
+      <c r="E6" s="2" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>1718</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>1017</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>1351</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>1548</v>
+      <c r="E7" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>1722</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>1018</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>1352</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>1549</v>
+      <c r="E8" s="2" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>1710</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>1019</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>1353</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>1550</v>
+      <c r="E9" s="2" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>1723</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>1020</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>1354</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>1551</v>
+      <c r="E10" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>1717</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>1021</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>1355</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>1552</v>
+      <c r="E11" s="2" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>1724</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>1022</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>1356</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>1553</v>
+      <c r="E12" s="2" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>1715</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>1023</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>1357</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>1554</v>
+      <c r="E13" s="2" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>1725</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>1024</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>1358</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>1555</v>
+      <c r="E14" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>1547</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>1025</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>1359</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>1556</v>
+      <c r="E15" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>1616</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>1026</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>1360</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>1557</v>
+      <c r="E16" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>1709</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>1027</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>1361</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>1558</v>
+      <c r="E17" s="2" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>1657</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>1028</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>1362</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>1559</v>
+      <c r="E18" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>1673</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>1029</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>1363</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>1560</v>
+      <c r="E19" s="2" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>1707</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>1030</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>1364</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>1561</v>
+      <c r="E20" s="2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>1679</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>1031</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>1365</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>1562</v>
+      <c r="E21" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>1610</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>1032</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>1366</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>1563</v>
+      <c r="E22" s="2" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>1559</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>1033</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>1367</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>1564</v>
+      <c r="E23" s="2" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>1577</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>1034</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>1368</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>1565</v>
+      <c r="E24" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>1621</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>1035</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>1369</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>1566</v>
+      <c r="E25" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>1622</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>1036</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>1370</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>1567</v>
+      <c r="E26" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>1651</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>1037</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>1371</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E27" s="2" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>1038</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>1372</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>1569</v>
+      <c r="E28" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>1590</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>1039</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>1373</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>1570</v>
+      <c r="E29" s="2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>1040</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>1374</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>1571</v>
+      <c r="E30" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>1697</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>1041</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>1375</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>1572</v>
+      <c r="E31" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>1675</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>1042</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>1376</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>1573</v>
+      <c r="E32" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>1691</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>1043</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>1377</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>1574</v>
+      <c r="E33" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>1660</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>1044</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>1378</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>1575</v>
+      <c r="E34" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>1615</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>1045</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>1379</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>1576</v>
+      <c r="E35" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>1624</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>1380</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>1577</v>
+      <c r="E36" s="2" t="s">
+        <v>1495</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>1690</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>1047</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>1381</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>1578</v>
+      <c r="E37" s="2" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>1672</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>1048</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>1382</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>1579</v>
+      <c r="E38" s="2" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>1699</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>1049</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>1383</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>1580</v>
+      <c r="E39" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>1619</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="2" t="s">
         <v>1050</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>1384</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>1581</v>
+      <c r="E40" s="2" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>1593</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="2" t="s">
         <v>1051</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>1385</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>1582</v>
+      <c r="E41" s="2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>1604</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="2" t="s">
         <v>1052</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>1386</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>1583</v>
+      <c r="E42" s="2" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>1587</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="2" t="s">
         <v>1053</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>1387</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>1584</v>
+      <c r="E43" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>1553</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>1054</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>1388</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>1585</v>
+      <c r="E44" s="2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>1600</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>1055</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>1389</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>1586</v>
+      <c r="E45" s="2" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>1576</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>1056</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>1390</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>1587</v>
+      <c r="E46" s="2" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>1703</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="2" t="s">
         <v>1057</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>1391</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>1588</v>
+      <c r="E47" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>1692</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="2" t="s">
         <v>1058</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>1392</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>1589</v>
+      <c r="E48" s="2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>1695</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="2" t="s">
         <v>1059</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>1393</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>1590</v>
+      <c r="E49" s="2" t="s">
+        <v>1463</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>1658</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="2" t="s">
         <v>1060</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>1394</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>1591</v>
+      <c r="E50" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>1605</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="2" t="s">
         <v>1061</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>1395</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>1592</v>
+      <c r="E51" s="2" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>1652</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="2" t="s">
         <v>1062</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>1396</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>1593</v>
+      <c r="E52" s="2" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>1656</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="2" t="s">
         <v>1063</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>1397</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>1594</v>
+      <c r="E53" s="2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>1665</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="2" t="s">
         <v>1064</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>1398</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>1595</v>
+      <c r="E54" s="2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>1597</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="2" t="s">
         <v>1065</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>1399</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>1596</v>
+      <c r="E55" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>1566</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="2" t="s">
         <v>1066</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>1400</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>1597</v>
+      <c r="E56" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="2" t="s">
         <v>1067</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>1401</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>1598</v>
+      <c r="E57" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>1578</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="2" t="s">
         <v>1068</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>1402</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>1599</v>
+      <c r="E58" s="2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>1663</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="2" t="s">
         <v>1069</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>1403</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>1600</v>
+      <c r="E59" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>1580</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="2" t="s">
         <v>1070</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>1404</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>1601</v>
+      <c r="E60" s="2" t="s">
+        <v>1488</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>1683</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="2" t="s">
         <v>1071</v>
       </c>
-      <c r="E61" s="3" t="s">
-        <v>1405</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>1602</v>
+      <c r="E61" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>1617</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="2" t="s">
         <v>1072</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>1406</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>1603</v>
+      <c r="E62" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>1564</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="2" t="s">
         <v>1073</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>1407</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>1604</v>
+      <c r="E63" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>1588</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="2" t="s">
         <v>1074</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>1408</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>1605</v>
+      <c r="E64" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>1556</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="2" t="s">
         <v>1075</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>1409</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>1606</v>
+      <c r="E65" s="2" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>1684</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="2" t="s">
         <v>1076</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>1410</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>1607</v>
+      <c r="E66" s="2" t="s">
+        <v>1485</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>1680</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="2" t="s">
         <v>1077</v>
       </c>
-      <c r="E67" s="3" t="s">
-        <v>1411</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>1608</v>
+      <c r="E67" s="2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>1562</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="2" t="s">
         <v>1078</v>
       </c>
-      <c r="E68" s="3" t="s">
-        <v>1412</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>1609</v>
+      <c r="E68" s="2" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>1676</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="2" t="s">
         <v>1079</v>
       </c>
-      <c r="E69" s="3" t="s">
-        <v>1413</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>1610</v>
+      <c r="E69" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>1630</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="2" t="s">
         <v>1080</v>
       </c>
-      <c r="E70" s="3" t="s">
-        <v>1414</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>1611</v>
+      <c r="E70" s="2" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>1677</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="2" t="s">
         <v>1081</v>
       </c>
-      <c r="E71" s="3" t="s">
-        <v>1415</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>1612</v>
+      <c r="E71" s="2" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>1545</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="2" t="s">
         <v>1082</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>1416</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>1613</v>
+      <c r="E72" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>1551</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="2" t="s">
         <v>1083</v>
       </c>
-      <c r="E73" s="3" t="s">
-        <v>1417</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>1614</v>
+      <c r="E73" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>1611</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="2" t="s">
         <v>1084</v>
       </c>
-      <c r="E74" s="3" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>1615</v>
+      <c r="E74" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>1613</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="2" t="s">
         <v>1085</v>
       </c>
-      <c r="E75" s="3" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>1616</v>
+      <c r="E75" s="2" t="s">
+        <v>1505</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>1700</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="2" t="s">
         <v>1086</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>1420</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>1617</v>
+      <c r="E76" s="2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>1582</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="2" t="s">
         <v>1087</v>
       </c>
-      <c r="E77" s="3" t="s">
-        <v>1421</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>1618</v>
+      <c r="E77" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>1662</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="2" t="s">
         <v>1088</v>
       </c>
-      <c r="E78" s="3" t="s">
-        <v>1422</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>1619</v>
+      <c r="E78" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>1548</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="2" t="s">
         <v>1089</v>
       </c>
-      <c r="E79" s="3" t="s">
-        <v>1423</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>1620</v>
+      <c r="E79" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>1644</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="2" t="s">
         <v>1090</v>
       </c>
-      <c r="E80" s="3" t="s">
-        <v>1424</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>1621</v>
+      <c r="E80" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>1563</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="2" t="s">
         <v>1091</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>1425</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>1622</v>
+      <c r="E81" s="2" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>1634</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="2" t="s">
         <v>1092</v>
       </c>
-      <c r="E82" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>1623</v>
+      <c r="E82" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>1572</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="2" t="s">
         <v>1093</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>1427</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>1624</v>
+      <c r="E83" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>1546</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="2" t="s">
         <v>1094</v>
       </c>
-      <c r="E84" s="3" t="s">
-        <v>1428</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>1625</v>
+      <c r="E84" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>1623</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="2" t="s">
         <v>1095</v>
       </c>
-      <c r="E85" s="3" t="s">
-        <v>1429</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>1626</v>
+      <c r="E85" s="2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>1573</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="2" t="s">
         <v>1096</v>
       </c>
-      <c r="E86" s="3" t="s">
-        <v>1430</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>1627</v>
+      <c r="E86" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>1693</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="2" t="s">
         <v>1097</v>
       </c>
-      <c r="E87" s="3" t="s">
-        <v>1431</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>1628</v>
+      <c r="E87" s="2" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>1668</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="2" t="s">
         <v>1098</v>
       </c>
-      <c r="E88" s="3" t="s">
-        <v>1432</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>1629</v>
+      <c r="E88" s="2" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>1708</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="2" t="s">
         <v>1099</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>1433</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>1630</v>
+      <c r="E89" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>1694</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="2" t="s">
         <v>1100</v>
       </c>
-      <c r="E90" s="3" t="s">
-        <v>1434</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>1631</v>
+      <c r="E90" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>1612</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="2" t="s">
         <v>1101</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>1435</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>1632</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E91" s="2" t="s">
+        <v>1474</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="2" t="s">
         <v>1102</v>
       </c>
-      <c r="E92" s="3" t="s">
-        <v>1436</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>1633</v>
+      <c r="E92" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>1584</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="2" t="s">
         <v>1103</v>
       </c>
-      <c r="E93" s="3" t="s">
-        <v>1437</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>1634</v>
+      <c r="E93" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>1626</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="2" t="s">
         <v>1104</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>1438</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>1635</v>
+      <c r="E94" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>1552</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="2" t="s">
         <v>1105</v>
       </c>
-      <c r="E95" s="3" t="s">
-        <v>1439</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>1636</v>
+      <c r="E95" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>1595</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="2" t="s">
         <v>1106</v>
       </c>
-      <c r="E96" s="3" t="s">
-        <v>1440</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>1637</v>
+      <c r="E96" s="2" t="s">
+        <v>1471</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>1666</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="2" t="s">
         <v>1107</v>
       </c>
-      <c r="E97" s="3" t="s">
-        <v>1441</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>1638</v>
+      <c r="E97" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>1628</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="2" t="s">
         <v>1108</v>
       </c>
-      <c r="E98" s="3" t="s">
-        <v>1442</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>1639</v>
+      <c r="E98" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>1560</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="2" t="s">
         <v>1109</v>
       </c>
-      <c r="E99" s="3" t="s">
-        <v>1443</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>1640</v>
+      <c r="E99" s="2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>1678</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="2" t="s">
         <v>1110</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>1444</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>1641</v>
+      <c r="E100" s="2" t="s">
+        <v>1475</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>1670</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="2" t="s">
         <v>1111</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>1445</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>1642</v>
+      <c r="E101" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>1583</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="2" t="s">
         <v>1112</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>1446</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>1643</v>
+      <c r="E102" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>1681</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D103" s="2" t="s">
         <v>1113</v>
       </c>
-      <c r="E103" s="3" t="s">
-        <v>1447</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>1644</v>
+      <c r="E103" s="2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>1712</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D104" s="2" t="s">
         <v>1114</v>
       </c>
-      <c r="E104" s="3" t="s">
-        <v>1448</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>1645</v>
+      <c r="E104" s="2" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>1726</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D105" s="2" t="s">
         <v>1115</v>
       </c>
-      <c r="E105" s="3" t="s">
-        <v>1449</v>
-      </c>
-      <c r="F105" s="5" t="s">
-        <v>1646</v>
+      <c r="E105" s="2" t="s">
+        <v>1509</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>1704</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D106" s="2" t="s">
         <v>1116</v>
       </c>
-      <c r="E106" s="3" t="s">
-        <v>1450</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>1647</v>
+      <c r="E106" s="2" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>1727</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D107" s="2" t="s">
         <v>1117</v>
       </c>
-      <c r="E107" s="3" t="s">
-        <v>1451</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>1648</v>
+      <c r="E107" s="2" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>1728</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D108" s="2" t="s">
         <v>1118</v>
       </c>
-      <c r="E108" s="3" t="s">
-        <v>1452</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>1649</v>
+      <c r="E108" s="2" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>1716</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D109" s="2" t="s">
         <v>1119</v>
       </c>
-      <c r="E109" s="3" t="s">
-        <v>1453</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>1650</v>
+      <c r="E109" s="2" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>1729</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D110" s="2" t="s">
         <v>1120</v>
       </c>
-      <c r="E110" s="3" t="s">
-        <v>1454</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>1651</v>
+      <c r="E110" s="2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>1586</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D111" s="2" t="s">
         <v>1121</v>
       </c>
-      <c r="E111" s="3" t="s">
-        <v>1455</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>1652</v>
+      <c r="E111" s="2" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>1642</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="D112" s="2" t="s">
         <v>1122</v>
       </c>
-      <c r="E112" s="3" t="s">
-        <v>1456</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>1653</v>
+      <c r="E112" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>1581</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="D113" s="2" t="s">
         <v>1123</v>
       </c>
-      <c r="E113" s="3" t="s">
-        <v>1457</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>1654</v>
+      <c r="E113" s="2" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>1592</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D114" s="2" t="s">
         <v>1124</v>
       </c>
-      <c r="E114" s="3" t="s">
-        <v>1458</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>1655</v>
+      <c r="E114" s="2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>1565</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D115" s="2" t="s">
         <v>1125</v>
       </c>
-      <c r="E115" s="3" t="s">
-        <v>1459</v>
-      </c>
-      <c r="F115" s="5" t="s">
-        <v>1656</v>
+      <c r="E115" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>1688</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D116" s="2" t="s">
         <v>1126</v>
       </c>
-      <c r="E116" s="3" t="s">
-        <v>1460</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>1657</v>
+      <c r="E116" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>1730</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C117" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="D117" s="2" t="s">
         <v>1127</v>
       </c>
-      <c r="E117" s="3" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>1658</v>
+      <c r="E117" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>1585</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D118" s="2" t="s">
         <v>1128</v>
       </c>
-      <c r="E118" s="3" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>1659</v>
+      <c r="E118" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>1543</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D119" s="2" t="s">
         <v>1129</v>
       </c>
-      <c r="E119" s="3" t="s">
-        <v>1463</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>1660</v>
+      <c r="E119" s="2" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>1655</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D120" s="2" t="s">
         <v>1130</v>
       </c>
-      <c r="E120" s="3" t="s">
-        <v>1464</v>
-      </c>
-      <c r="F120" s="5" t="s">
-        <v>1661</v>
+      <c r="E120" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>1625</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D121" s="2" t="s">
         <v>1131</v>
       </c>
-      <c r="E121" s="3" t="s">
-        <v>1465</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>1662</v>
+      <c r="E121" s="2" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>1596</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D122" s="2" t="s">
         <v>1132</v>
       </c>
-      <c r="E122" s="3" t="s">
-        <v>1466</v>
-      </c>
-      <c r="F122" s="5" t="s">
-        <v>1663</v>
+      <c r="E122" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>1702</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="D123" s="2" t="s">
         <v>1133</v>
       </c>
-      <c r="E123" s="3" t="s">
-        <v>1467</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>1664</v>
+      <c r="E123" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>1568</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D124" s="2" t="s">
         <v>1134</v>
       </c>
-      <c r="E124" s="3" t="s">
-        <v>1468</v>
-      </c>
-      <c r="F124" s="5" t="s">
-        <v>1665</v>
+      <c r="E124" s="2" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>1671</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="D125" s="2" t="s">
         <v>1135</v>
       </c>
-      <c r="E125" s="3" t="s">
-        <v>1469</v>
-      </c>
-      <c r="F125" s="5" t="s">
-        <v>1666</v>
+      <c r="E125" s="2" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>1647</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="D126" s="2" t="s">
         <v>1136</v>
       </c>
-      <c r="E126" s="3" t="s">
-        <v>1470</v>
-      </c>
-      <c r="F126" s="5" t="s">
-        <v>1667</v>
+      <c r="E126" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>1646</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="D127" s="3" t="s">
+      <c r="D127" s="2" t="s">
         <v>1137</v>
       </c>
-      <c r="E127" s="3" t="s">
-        <v>1471</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>1668</v>
+      <c r="E127" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>1554</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="D128" s="2" t="s">
         <v>1138</v>
       </c>
-      <c r="E128" s="3" t="s">
-        <v>1472</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>1669</v>
+      <c r="E128" s="2" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>1544</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="D129" s="3" t="s">
+      <c r="D129" s="2" t="s">
         <v>1139</v>
       </c>
-      <c r="E129" s="3" t="s">
-        <v>1473</v>
-      </c>
-      <c r="F129" s="5" t="s">
-        <v>1670</v>
+      <c r="E129" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>1607</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="2" t="s">
         <v>804</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="D130" s="2" t="s">
         <v>1140</v>
       </c>
-      <c r="E130" s="3" t="s">
-        <v>1474</v>
-      </c>
-      <c r="F130" s="5" t="s">
-        <v>1671</v>
+      <c r="E130" s="2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>1591</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="D131" s="2" t="s">
         <v>1141</v>
       </c>
-      <c r="E131" s="3" t="s">
-        <v>1475</v>
-      </c>
-      <c r="F131" s="5" t="s">
-        <v>1672</v>
+      <c r="E131" s="2" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>1711</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="D132" s="2" t="s">
         <v>1142</v>
       </c>
-      <c r="E132" s="3" t="s">
-        <v>1476</v>
-      </c>
-      <c r="F132" s="5" t="s">
-        <v>1673</v>
+      <c r="E132" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>1731</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C133" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="D133" s="2" t="s">
         <v>1143</v>
       </c>
-      <c r="E133" s="3" t="s">
-        <v>1477</v>
-      </c>
-      <c r="F133" s="5" t="s">
-        <v>1674</v>
+      <c r="E133" s="2" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>1719</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="D134" s="3" t="s">
+      <c r="D134" s="2" t="s">
         <v>1144</v>
       </c>
-      <c r="E134" s="3" t="s">
-        <v>1478</v>
-      </c>
-      <c r="F134" s="5" t="s">
-        <v>1675</v>
+      <c r="E134" s="2" t="s">
+        <v>1542</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>1732</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C135" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="D135" s="3" t="s">
+      <c r="D135" s="2" t="s">
         <v>1145</v>
       </c>
-      <c r="E135" s="3" t="s">
-        <v>1479</v>
-      </c>
-      <c r="F135" s="5" t="s">
-        <v>1676</v>
+      <c r="E135" s="2" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>1649</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="D136" s="2" t="s">
         <v>1146</v>
       </c>
-      <c r="E136" s="3" t="s">
-        <v>1480</v>
-      </c>
-      <c r="F136" s="5" t="s">
-        <v>1677</v>
+      <c r="E136" s="2" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>1674</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C137" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="D137" s="3" t="s">
+      <c r="D137" s="2" t="s">
         <v>1147</v>
       </c>
-      <c r="E137" s="3" t="s">
-        <v>1481</v>
-      </c>
-      <c r="F137" s="5" t="s">
-        <v>1678</v>
+      <c r="E137" s="2" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>1645</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C138" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="D138" s="3" t="s">
+      <c r="D138" s="2" t="s">
         <v>1148</v>
       </c>
-      <c r="E138" s="3" t="s">
-        <v>1482</v>
-      </c>
-      <c r="F138" s="5" t="s">
-        <v>1679</v>
+      <c r="E138" s="2" t="s">
+        <v>1442</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>1637</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C139" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="D139" s="3" t="s">
+      <c r="D139" s="2" t="s">
         <v>1149</v>
       </c>
-      <c r="E139" s="3" t="s">
-        <v>1483</v>
-      </c>
-      <c r="F139" s="5" t="s">
-        <v>1680</v>
+      <c r="E139" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>1682</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C140" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="D140" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E140" s="3" t="s">
-        <v>1484</v>
-      </c>
-      <c r="F140" s="5" t="s">
-        <v>1681</v>
+      <c r="E140" s="2" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>1636</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C141" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="D141" s="3" t="s">
+      <c r="D141" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="E141" s="3" t="s">
-        <v>1485</v>
-      </c>
-      <c r="F141" s="5" t="s">
-        <v>1682</v>
+      <c r="E141" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>1686</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C142" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="D142" s="3" t="s">
+      <c r="D142" s="2" t="s">
         <v>1152</v>
       </c>
-      <c r="E142" s="3" t="s">
-        <v>1486</v>
-      </c>
-      <c r="F142" s="5" t="s">
-        <v>1683</v>
+      <c r="E142" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>1687</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="C143" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="D143" s="3" t="s">
+      <c r="D143" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E143" s="3" t="s">
-        <v>1487</v>
-      </c>
-      <c r="F143" s="5" t="s">
-        <v>1684</v>
+      <c r="E143" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>1659</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C144" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="D144" s="3" t="s">
+      <c r="D144" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E144" s="3" t="s">
-        <v>1488</v>
-      </c>
-      <c r="F144" s="5" t="s">
-        <v>1685</v>
+      <c r="E144" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>1603</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C145" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="D145" s="3" t="s">
+      <c r="D145" s="2" t="s">
         <v>1155</v>
       </c>
-      <c r="E145" s="3" t="s">
-        <v>1489</v>
-      </c>
-      <c r="F145" s="5" t="s">
-        <v>1686</v>
+      <c r="E145" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>1601</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C146" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="D146" s="3" t="s">
+      <c r="D146" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E146" s="3" t="s">
-        <v>1490</v>
-      </c>
-      <c r="F146" s="5" t="s">
-        <v>1687</v>
+      <c r="E146" s="2" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>1650</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C147" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="D147" s="3" t="s">
+      <c r="D147" s="2" t="s">
         <v>1157</v>
       </c>
-      <c r="E147" s="3" t="s">
-        <v>1491</v>
-      </c>
-      <c r="F147" s="5" t="s">
-        <v>1688</v>
+      <c r="E147" s="2" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>1640</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C148" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="D148" s="3" t="s">
+      <c r="D148" s="2" t="s">
         <v>1158</v>
       </c>
-      <c r="E148" s="3" t="s">
-        <v>1492</v>
-      </c>
-      <c r="F148" s="5" t="s">
-        <v>1689</v>
+      <c r="E148" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>1664</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C149" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="D149" s="3" t="s">
+      <c r="D149" s="2" t="s">
         <v>1159</v>
       </c>
-      <c r="E149" s="3" t="s">
-        <v>1493</v>
-      </c>
-      <c r="F149" s="5" t="s">
-        <v>1690</v>
+      <c r="E149" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>1632</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C150" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="D150" s="3" t="s">
+      <c r="D150" s="2" t="s">
         <v>1160</v>
       </c>
-      <c r="E150" s="3" t="s">
-        <v>1494</v>
-      </c>
-      <c r="F150" s="5" t="s">
-        <v>1691</v>
+      <c r="E150" s="2" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>1654</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="C151" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="D151" s="3" t="s">
+      <c r="D151" s="2" t="s">
         <v>1161</v>
       </c>
-      <c r="E151" s="3" t="s">
-        <v>1495</v>
-      </c>
-      <c r="F151" s="5" t="s">
-        <v>1692</v>
+      <c r="E151" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>1549</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C152" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="D152" s="3" t="s">
+      <c r="D152" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="E152" s="3" t="s">
-        <v>1496</v>
-      </c>
-      <c r="F152" s="5" t="s">
-        <v>1693</v>
+      <c r="E152" s="2" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>1706</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C153" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="D153" s="3" t="s">
+      <c r="D153" s="2" t="s">
         <v>1163</v>
       </c>
-      <c r="E153" s="3" t="s">
-        <v>1497</v>
-      </c>
-      <c r="F153" s="5" t="s">
-        <v>1694</v>
+      <c r="E153" s="2" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>1599</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="C154" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="D154" s="3" t="s">
+      <c r="D154" s="2" t="s">
         <v>1164</v>
       </c>
-      <c r="E154" s="3" t="s">
-        <v>1498</v>
-      </c>
-      <c r="F154" s="5" t="s">
-        <v>1695</v>
+      <c r="E154" s="2" t="s">
+        <v>1506</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>1701</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="C155" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="D155" s="3" t="s">
+      <c r="D155" s="2" t="s">
         <v>1165</v>
       </c>
-      <c r="E155" s="3" t="s">
-        <v>1499</v>
-      </c>
-      <c r="F155" s="5" t="s">
-        <v>1696</v>
+      <c r="E155" s="2" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>1689</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C156" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="D156" s="3" t="s">
+      <c r="D156" s="2" t="s">
         <v>1166</v>
       </c>
-      <c r="E156" s="3" t="s">
-        <v>1500</v>
-      </c>
-      <c r="F156" s="5" t="s">
-        <v>1697</v>
+      <c r="E156" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>1633</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="C157" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="D157" s="3" t="s">
+      <c r="D157" s="2" t="s">
         <v>1167</v>
       </c>
-      <c r="E157" s="3" t="s">
-        <v>1501</v>
-      </c>
-      <c r="F157" s="5" t="s">
-        <v>1698</v>
+      <c r="E157" s="2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>1606</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="C158" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="D158" s="3" t="s">
+      <c r="D158" s="2" t="s">
         <v>1168</v>
       </c>
-      <c r="E158" s="3" t="s">
-        <v>1502</v>
-      </c>
-      <c r="F158" s="5" t="s">
-        <v>1699</v>
+      <c r="E158" s="2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>1667</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="C159" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="D159" s="3" t="s">
+      <c r="D159" s="2" t="s">
         <v>1169</v>
       </c>
-      <c r="E159" s="3" t="s">
-        <v>1503</v>
-      </c>
-      <c r="F159" s="5" t="s">
-        <v>1700</v>
+      <c r="E159" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>1609</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B160" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="C160" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="D160" s="3" t="s">
+      <c r="D160" s="2" t="s">
         <v>1170</v>
       </c>
-      <c r="E160" s="3" t="s">
-        <v>1504</v>
-      </c>
-      <c r="F160" s="5" t="s">
-        <v>1701</v>
+      <c r="E160" s="2" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>1733</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B161" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="C161" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="D161" s="3" t="s">
+      <c r="D161" s="2" t="s">
         <v>1171</v>
       </c>
-      <c r="E161" s="3" t="s">
-        <v>1505</v>
-      </c>
-      <c r="F161" s="5" t="s">
-        <v>1702</v>
+      <c r="E161" s="2" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>1734</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C162" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="D162" s="3" t="s">
+      <c r="D162" s="2" t="s">
         <v>1172</v>
       </c>
-      <c r="E162" s="3" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F162" s="5" t="s">
-        <v>1703</v>
+      <c r="E162" s="2" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>1641</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B163" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C163" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="D163" s="3" t="s">
+      <c r="D163" s="2" t="s">
         <v>1173</v>
       </c>
-      <c r="E163" s="3" t="s">
-        <v>1507</v>
-      </c>
-      <c r="F163" s="5" t="s">
-        <v>1704</v>
+      <c r="E163" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>1631</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B164" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="C164" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="D164" s="3" t="s">
+      <c r="D164" s="2" t="s">
         <v>1174</v>
       </c>
-      <c r="E164" s="3" t="s">
-        <v>1508</v>
-      </c>
-      <c r="F164" s="5" t="s">
-        <v>1705</v>
+      <c r="E164" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>1569</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B165" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="C165" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="D165" s="3" t="s">
+      <c r="D165" s="2" t="s">
         <v>1175</v>
       </c>
-      <c r="E165" s="3" t="s">
-        <v>1509</v>
-      </c>
-      <c r="F165" s="5" t="s">
-        <v>1706</v>
+      <c r="E165" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>1594</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B166" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="C166" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="D166" s="3" t="s">
+      <c r="D166" s="2" t="s">
         <v>1176</v>
       </c>
-      <c r="E166" s="3" t="s">
-        <v>1510</v>
-      </c>
-      <c r="F166" s="5" t="s">
-        <v>1707</v>
+      <c r="E166" s="2" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>1638</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B167" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="C167" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="D167" s="3" t="s">
+      <c r="D167" s="2" t="s">
         <v>1177</v>
       </c>
-      <c r="E167" s="3" t="s">
-        <v>1511</v>
-      </c>
-      <c r="F167" s="5" t="s">
-        <v>1708</v>
+      <c r="E167" s="2" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>1698</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B168" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="C168" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="D168" s="3" t="s">
+      <c r="D168" s="2" t="s">
         <v>1178</v>
       </c>
-      <c r="E168" s="3" t="s">
-        <v>1512</v>
-      </c>
-      <c r="F168" s="5" t="s">
-        <v>1709</v>
+      <c r="E168" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>1567</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="B169" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="C169" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="D169" s="3" t="s">
+      <c r="D169" s="2" t="s">
         <v>1179</v>
       </c>
-      <c r="E169" s="3" t="s">
-        <v>1513</v>
-      </c>
-      <c r="F169" s="5" t="s">
-        <v>1710</v>
+      <c r="E169" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>1629</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="B170" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="C170" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="D170" s="3" t="s">
+      <c r="D170" s="2" t="s">
         <v>1180</v>
       </c>
-      <c r="E170" s="3" t="s">
-        <v>1514</v>
-      </c>
-      <c r="F170" s="5" t="s">
-        <v>1711</v>
+      <c r="E170" s="2" t="s">
+        <v>1453</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>1648</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="B171" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="C171" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="D171" s="3" t="s">
+      <c r="D171" s="2" t="s">
         <v>1181</v>
       </c>
-      <c r="E171" s="3" t="s">
-        <v>1519</v>
-      </c>
-      <c r="F171" s="5" t="s">
-        <v>1712</v>
+      <c r="E171" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>1555</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="B172" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="C172" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="D172" s="3" t="s">
+      <c r="D172" s="2" t="s">
         <v>1182</v>
       </c>
-      <c r="E172" s="3" t="s">
-        <v>1520</v>
-      </c>
-      <c r="F172" s="5" t="s">
-        <v>1713</v>
+      <c r="E172" s="2" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>1598</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="B173" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="C173" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="D173" s="3" t="s">
+      <c r="D173" s="2" t="s">
         <v>1183</v>
       </c>
-      <c r="E173" s="3" t="s">
-        <v>1521</v>
-      </c>
-      <c r="F173" s="5" t="s">
-        <v>1610</v>
+      <c r="E173" s="2" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>1561</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B174" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="C174" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="D174" s="3" t="s">
+      <c r="D174" s="2" t="s">
         <v>1184</v>
       </c>
-      <c r="E174" s="3" t="s">
-        <v>1522</v>
-      </c>
-      <c r="F174" s="5" t="s">
-        <v>1714</v>
+      <c r="E174" s="2" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>1705</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B175" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="C175" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="D175" s="3" t="s">
+      <c r="D175" s="2" t="s">
         <v>1185</v>
       </c>
-      <c r="E175" s="3" t="s">
-        <v>1523</v>
-      </c>
-      <c r="F175" s="5" t="s">
-        <v>1715</v>
+      <c r="E175" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>1574</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B176" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="C176" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="D176" s="3" t="s">
+      <c r="D176" s="2" t="s">
         <v>1186</v>
       </c>
-      <c r="E176" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="F176" s="5" t="s">
-        <v>1716</v>
+      <c r="E176" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>1627</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B177" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="C177" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="D177" s="3" t="s">
+      <c r="D177" s="2" t="s">
         <v>1187</v>
       </c>
-      <c r="E177" s="3" t="s">
-        <v>1525</v>
-      </c>
-      <c r="F177" s="5" t="s">
-        <v>1714</v>
+      <c r="E177" s="2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>1685</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="B178" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="C178" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="D178" s="3" t="s">
+      <c r="D178" s="2" t="s">
         <v>1188</v>
       </c>
-      <c r="E178" s="3" t="s">
-        <v>1526</v>
-      </c>
-      <c r="F178" s="5" t="s">
-        <v>1717</v>
+      <c r="E178" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>1575</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="B179" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="C179" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="D179" s="3" t="s">
+      <c r="D179" s="2" t="s">
         <v>1189</v>
       </c>
-      <c r="E179" s="3" t="s">
-        <v>1527</v>
-      </c>
-      <c r="F179" s="5" t="s">
-        <v>1718</v>
+      <c r="E179" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B180" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="C180" s="3" t="s">
+      <c r="C180" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="D180" s="3" t="s">
+      <c r="D180" s="2" t="s">
         <v>1190</v>
       </c>
-      <c r="E180" s="3" t="s">
-        <v>1528</v>
-      </c>
-      <c r="F180" s="5" t="s">
-        <v>1713</v>
+      <c r="E180" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>1620</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B181" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="C181" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="D181" s="3" t="s">
+      <c r="D181" s="2" t="s">
         <v>1191</v>
       </c>
-      <c r="E181" s="3" t="s">
-        <v>1529</v>
-      </c>
-      <c r="F181" s="5" t="s">
-        <v>1719</v>
+      <c r="E181" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>1579</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B182" s="3" t="s">
+      <c r="B182" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="C182" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="D182" s="3" t="s">
+      <c r="D182" s="2" t="s">
         <v>1192</v>
       </c>
-      <c r="E182" s="3" t="s">
-        <v>1530</v>
-      </c>
-      <c r="F182" s="5" t="s">
-        <v>1706</v>
+      <c r="E182" s="2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>1602</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="B183" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="C183" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="D183" s="3" t="s">
+      <c r="D183" s="2" t="s">
         <v>1193</v>
       </c>
-      <c r="E183" s="3" t="s">
-        <v>1531</v>
-      </c>
-      <c r="F183" s="5" t="s">
-        <v>1716</v>
+      <c r="E183" s="2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>1735</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="B184" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="C184" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="D184" s="3" t="s">
+      <c r="D184" s="2" t="s">
         <v>1194</v>
       </c>
-      <c r="E184" s="3" t="s">
-        <v>1532</v>
-      </c>
-      <c r="F184" s="5" t="s">
-        <v>1720</v>
+      <c r="E184" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>1558</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B185" s="3" t="s">
+      <c r="B185" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="C185" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="D185" s="3" t="s">
+      <c r="D185" s="2" t="s">
         <v>1195</v>
       </c>
-      <c r="E185" s="3" t="s">
-        <v>1533</v>
-      </c>
-      <c r="F185" s="5" t="s">
-        <v>1721</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E185" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="B186" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="C186" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="D186" s="3" t="s">
+      <c r="D186" s="2" t="s">
         <v>1196</v>
       </c>
-      <c r="E186" s="3" t="s">
-        <v>1534</v>
-      </c>
-      <c r="F186" s="5" t="s">
-        <v>1717</v>
+      <c r="E186" s="2" t="s">
+        <v>1448</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>1643</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B187" s="3" t="s">
+      <c r="B187" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="C187" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="D187" s="3" t="s">
+      <c r="D187" s="2" t="s">
         <v>1197</v>
       </c>
-      <c r="E187" s="3" t="s">
-        <v>1535</v>
-      </c>
-      <c r="F187" s="5" t="s">
-        <v>1715</v>
+      <c r="E187" s="2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>1608</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B188" s="3" t="s">
+      <c r="B188" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="C188" s="3" t="s">
+      <c r="C188" s="2" t="s">
         <v>862</v>
       </c>
-      <c r="D188" s="3" t="s">
+      <c r="D188" s="2" t="s">
         <v>1198</v>
       </c>
-      <c r="E188" s="3" t="s">
-        <v>1536</v>
-      </c>
-      <c r="F188" s="5" t="s">
-        <v>1719</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E188" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B189" s="3" t="s">
+      <c r="B189" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="C189" s="3" t="s">
+      <c r="C189" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="D189" s="3" t="s">
+      <c r="D189" s="2" t="s">
         <v>1199</v>
       </c>
-      <c r="E189" s="3" t="s">
-        <v>1537</v>
-      </c>
-      <c r="F189" s="5" t="s">
-        <v>1718</v>
+      <c r="E189" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>1570</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B190" s="3" t="s">
+      <c r="B190" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="C190" s="3" t="s">
+      <c r="C190" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="D190" s="3" t="s">
+      <c r="D190" s="2" t="s">
         <v>1200</v>
       </c>
-      <c r="E190" s="3" t="s">
-        <v>1538</v>
-      </c>
-      <c r="F190" s="5" t="s">
-        <v>1712</v>
+      <c r="E190" s="2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>1550</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B191" s="3" t="s">
+      <c r="B191" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="C191" s="3" t="s">
+      <c r="C191" s="2" t="s">
         <v>865</v>
       </c>
-      <c r="D191" s="3" t="s">
+      <c r="D191" s="2" t="s">
         <v>1201</v>
       </c>
-      <c r="E191" s="3" t="s">
-        <v>1539</v>
-      </c>
-      <c r="F191" s="5" t="s">
-        <v>1706</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E191" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B192" s="3" t="s">
+      <c r="B192" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="C192" s="3" t="s">
+      <c r="C192" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="D192" s="3" t="s">
+      <c r="D192" s="2" t="s">
         <v>1202</v>
       </c>
-      <c r="E192" s="3" t="s">
-        <v>1540</v>
-      </c>
-      <c r="F192" s="5" t="s">
-        <v>1610</v>
+      <c r="E192" s="2" t="s">
+        <v>1458</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>1653</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="B193" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="C193" s="3" t="s">
+      <c r="C193" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="D193" s="3" t="s">
+      <c r="D193" s="2" t="s">
         <v>1203</v>
       </c>
-      <c r="E193" s="3" t="s">
-        <v>1541</v>
-      </c>
-      <c r="F193" s="5" t="s">
-        <v>1720</v>
+      <c r="E193" s="2" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>1696</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B194" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="C194" s="3" t="s">
+      <c r="C194" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="D194" s="3" t="s">
+      <c r="D194" s="2" t="s">
         <v>1204</v>
       </c>
-      <c r="E194" s="3" t="s">
-        <v>1542</v>
-      </c>
-      <c r="F194" s="5" t="s">
-        <v>1721</v>
+      <c r="E194" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>1639</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B195" s="3" t="s">
+      <c r="B195" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="C195" s="3" t="s">
+      <c r="C195" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="D195" s="3" t="s">
+      <c r="D195" s="2" t="s">
         <v>1205</v>
       </c>
-      <c r="E195" s="3"/>
-      <c r="F195" s="4"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B196" s="3" t="s">
+      <c r="B196" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="C196" s="3" t="s">
+      <c r="C196" s="2" t="s">
         <v>870</v>
       </c>
-      <c r="D196" s="3" t="s">
+      <c r="D196" s="2" t="s">
         <v>1206</v>
       </c>
-      <c r="E196" s="3"/>
-      <c r="F196" s="4"/>
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="B197" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="C197" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="D197" s="3" t="s">
+      <c r="D197" s="2" t="s">
         <v>1207</v>
       </c>
-      <c r="E197" s="3"/>
-      <c r="F197" s="4"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="B198" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="C198" s="3" t="s">
+      <c r="C198" s="2" t="s">
         <v>872</v>
       </c>
-      <c r="D198" s="3" t="s">
+      <c r="D198" s="2" t="s">
         <v>1208</v>
       </c>
-      <c r="E198" s="3"/>
-      <c r="F198" s="4"/>
+      <c r="E198" s="2"/>
+      <c r="F198" s="2"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B199" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="C199" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="D199" s="3" t="s">
+      <c r="D199" s="2" t="s">
         <v>1209</v>
       </c>
-      <c r="E199" s="3"/>
-      <c r="F199" s="4"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B200" s="3" t="s">
+      <c r="B200" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="C200" s="3" t="s">
+      <c r="C200" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="D200" s="3" t="s">
+      <c r="D200" s="2" t="s">
         <v>1210</v>
       </c>
-      <c r="E200" s="3"/>
-      <c r="F200" s="4"/>
+      <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B201" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="C201" s="3" t="s">
+      <c r="C201" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="D201" s="3" t="s">
+      <c r="D201" s="2" t="s">
         <v>1211</v>
       </c>
-      <c r="E201" s="3"/>
-      <c r="F201" s="4"/>
+      <c r="E201" s="2"/>
+      <c r="F201" s="2"/>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="B202" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="C202" s="3" t="s">
+      <c r="C202" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="D202" s="3" t="s">
+      <c r="D202" s="2" t="s">
         <v>1212</v>
       </c>
-      <c r="E202" s="3"/>
-      <c r="F202" s="4"/>
+      <c r="E202" s="2"/>
+      <c r="F202" s="2"/>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="B203" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="C203" s="3" t="s">
+      <c r="C203" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="D203" s="3" t="s">
+      <c r="D203" s="2" t="s">
         <v>1213</v>
       </c>
-      <c r="E203" s="3"/>
-      <c r="F203" s="4"/>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B204" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="C204" s="3" t="s">
+      <c r="C204" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="D204" s="3" t="s">
+      <c r="D204" s="2" t="s">
         <v>1214</v>
       </c>
-      <c r="E204" s="3"/>
-      <c r="F204" s="4"/>
+      <c r="E204" s="2"/>
+      <c r="F204" s="2"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B205" s="3" t="s">
+      <c r="B205" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="C205" s="3" t="s">
+      <c r="C205" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="D205" s="3" t="s">
+      <c r="D205" s="2" t="s">
         <v>1215</v>
       </c>
-      <c r="E205" s="3"/>
-      <c r="F205" s="4"/>
+      <c r="E205" s="2"/>
+      <c r="F205" s="2"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B206" s="3" t="s">
+      <c r="B206" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="C206" s="3" t="s">
+      <c r="C206" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="D206" s="3" t="s">
+      <c r="D206" s="2" t="s">
         <v>1216</v>
       </c>
-      <c r="E206" s="3"/>
-      <c r="F206" s="4"/>
+      <c r="E206" s="2"/>
+      <c r="F206" s="2"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B207" s="3" t="s">
+      <c r="B207" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="C207" s="3" t="s">
+      <c r="C207" s="2" t="s">
         <v>881</v>
       </c>
-      <c r="D207" s="3" t="s">
+      <c r="D207" s="2" t="s">
         <v>1217</v>
       </c>
-      <c r="E207" s="3"/>
-      <c r="F207" s="4"/>
+      <c r="E207" s="2"/>
+      <c r="F207" s="2"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B208" s="3" t="s">
+      <c r="B208" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="C208" s="3" t="s">
+      <c r="C208" s="2" t="s">
         <v>882</v>
       </c>
-      <c r="D208" s="3" t="s">
+      <c r="D208" s="2" t="s">
         <v>1218</v>
       </c>
-      <c r="E208" s="3"/>
-      <c r="F208" s="4"/>
+      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B209" s="3" t="s">
+      <c r="B209" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="C209" s="3" t="s">
+      <c r="C209" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="D209" s="3" t="s">
+      <c r="D209" s="2" t="s">
         <v>1219</v>
       </c>
-      <c r="E209" s="3"/>
-      <c r="F209" s="4"/>
+      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B210" s="3" t="s">
+      <c r="B210" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="C210" s="3" t="s">
+      <c r="C210" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="D210" s="3" t="s">
+      <c r="D210" s="2" t="s">
         <v>1220</v>
       </c>
-      <c r="E210" s="3"/>
-      <c r="F210" s="4"/>
+      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B211" s="3" t="s">
+      <c r="B211" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="C211" s="3" t="s">
+      <c r="C211" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="D211" s="3" t="s">
+      <c r="D211" s="2" t="s">
         <v>1221</v>
       </c>
-      <c r="E211" s="3"/>
-      <c r="F211" s="4"/>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B212" s="3" t="s">
+      <c r="B212" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="C212" s="3" t="s">
+      <c r="C212" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="D212" s="3" t="s">
+      <c r="D212" s="2" t="s">
         <v>1222</v>
       </c>
-      <c r="E212" s="3"/>
-      <c r="F212" s="4"/>
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B213" s="3" t="s">
+      <c r="B213" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="C213" s="3" t="s">
+      <c r="C213" s="2" t="s">
         <v>887</v>
       </c>
-      <c r="D213" s="3" t="s">
+      <c r="D213" s="2" t="s">
         <v>1223</v>
       </c>
-      <c r="E213" s="3"/>
-      <c r="F213" s="4"/>
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B214" s="3" t="s">
+      <c r="B214" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="C214" s="3" t="s">
+      <c r="C214" s="2" t="s">
         <v>888</v>
       </c>
-      <c r="D214" s="3" t="s">
+      <c r="D214" s="2" t="s">
         <v>1224</v>
       </c>
-      <c r="E214" s="3"/>
-      <c r="F214" s="4"/>
+      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B215" s="3" t="s">
+      <c r="B215" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="C215" s="3" t="s">
+      <c r="C215" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="D215" s="3" t="s">
+      <c r="D215" s="2" t="s">
         <v>1225</v>
       </c>
-      <c r="E215" s="3"/>
-      <c r="F215" s="4"/>
+      <c r="E215" s="2"/>
+      <c r="F215" s="2"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B216" s="3" t="s">
+      <c r="B216" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="C216" s="3" t="s">
+      <c r="C216" s="2" t="s">
         <v>890</v>
       </c>
-      <c r="D216" s="3" t="s">
+      <c r="D216" s="2" t="s">
         <v>1226</v>
       </c>
-      <c r="E216" s="3"/>
-      <c r="F216" s="4"/>
+      <c r="E216" s="2"/>
+      <c r="F216" s="2"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B217" s="3" t="s">
+      <c r="B217" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="C217" s="3" t="s">
+      <c r="C217" s="2" t="s">
         <v>891</v>
       </c>
-      <c r="D217" s="3" t="s">
+      <c r="D217" s="2" t="s">
         <v>1227</v>
       </c>
-      <c r="E217" s="3"/>
-      <c r="F217" s="4"/>
+      <c r="E217" s="2"/>
+      <c r="F217" s="2"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B218" s="3" t="s">
+      <c r="B218" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="C218" s="3" t="s">
+      <c r="C218" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="D218" s="3" t="s">
+      <c r="D218" s="2" t="s">
         <v>1228</v>
       </c>
-      <c r="E218" s="3"/>
-      <c r="F218" s="4"/>
+      <c r="E218" s="2"/>
+      <c r="F218" s="2"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B219" s="3" t="s">
+      <c r="B219" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="C219" s="3" t="s">
+      <c r="C219" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="D219" s="3" t="s">
+      <c r="D219" s="2" t="s">
         <v>1229</v>
       </c>
-      <c r="E219" s="3"/>
-      <c r="F219" s="4"/>
+      <c r="E219" s="2"/>
+      <c r="F219" s="2"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B220" s="3" t="s">
+      <c r="B220" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="C220" s="3" t="s">
+      <c r="C220" s="2" t="s">
         <v>894</v>
       </c>
-      <c r="D220" s="3" t="s">
+      <c r="D220" s="2" t="s">
         <v>1230</v>
       </c>
-      <c r="E220" s="3"/>
-      <c r="F220" s="4"/>
+      <c r="E220" s="2"/>
+      <c r="F220" s="2"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B221" s="3" t="s">
+      <c r="B221" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="C221" s="3" t="s">
+      <c r="C221" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="D221" s="3" t="s">
+      <c r="D221" s="2" t="s">
         <v>1231</v>
       </c>
-      <c r="E221" s="3"/>
-      <c r="F221" s="4"/>
+      <c r="E221" s="2"/>
+      <c r="F221" s="2"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B222" s="3" t="s">
+      <c r="B222" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="C222" s="3" t="s">
+      <c r="C222" s="2" t="s">
         <v>896</v>
       </c>
-      <c r="D222" s="3" t="s">
+      <c r="D222" s="2" t="s">
         <v>1232</v>
       </c>
-      <c r="E222" s="3"/>
-      <c r="F222" s="4"/>
+      <c r="E222" s="2"/>
+      <c r="F222" s="2"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B223" s="3" t="s">
+      <c r="B223" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="C223" s="3" t="s">
+      <c r="C223" s="2" t="s">
         <v>897</v>
       </c>
-      <c r="D223" s="3" t="s">
+      <c r="D223" s="2" t="s">
         <v>1233</v>
       </c>
-      <c r="E223" s="3"/>
-      <c r="F223" s="4"/>
+      <c r="E223" s="2"/>
+      <c r="F223" s="2"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B224" s="3" t="s">
+      <c r="B224" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="C224" s="3" t="s">
+      <c r="C224" s="2" t="s">
         <v>898</v>
       </c>
-      <c r="D224" s="3" t="s">
+      <c r="D224" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E224" s="3"/>
-      <c r="F224" s="4"/>
+      <c r="E224" s="2"/>
+      <c r="F224" s="2"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B225" s="3" t="s">
+      <c r="B225" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="C225" s="3" t="s">
+      <c r="C225" s="2" t="s">
         <v>899</v>
       </c>
-      <c r="D225" s="3" t="s">
+      <c r="D225" s="2" t="s">
         <v>1235</v>
       </c>
-      <c r="E225" s="3"/>
-      <c r="F225" s="4"/>
+      <c r="E225" s="2"/>
+      <c r="F225" s="2"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B226" s="3" t="s">
+      <c r="B226" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="C226" s="3" t="s">
+      <c r="C226" s="2" t="s">
         <v>900</v>
       </c>
-      <c r="D226" s="3" t="s">
+      <c r="D226" s="2" t="s">
         <v>1236</v>
       </c>
-      <c r="E226" s="3"/>
-      <c r="F226" s="4"/>
+      <c r="E226" s="2"/>
+      <c r="F226" s="2"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B227" s="3" t="s">
+      <c r="B227" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="C227" s="3" t="s">
+      <c r="C227" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="D227" s="3" t="s">
+      <c r="D227" s="2" t="s">
         <v>1237</v>
       </c>
-      <c r="E227" s="3"/>
-      <c r="F227" s="4"/>
+      <c r="E227" s="2"/>
+      <c r="F227" s="2"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B228" s="3" t="s">
+      <c r="B228" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="C228" s="3" t="s">
+      <c r="C228" s="2" t="s">
         <v>902</v>
       </c>
-      <c r="D228" s="3" t="s">
+      <c r="D228" s="2" t="s">
         <v>1238</v>
       </c>
-      <c r="E228" s="3"/>
-      <c r="F228" s="4"/>
+      <c r="E228" s="2"/>
+      <c r="F228" s="2"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B229" s="3" t="s">
+      <c r="B229" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="C229" s="3" t="s">
+      <c r="C229" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="D229" s="3" t="s">
+      <c r="D229" s="2" t="s">
         <v>1239</v>
       </c>
-      <c r="E229" s="3"/>
-      <c r="F229" s="4"/>
+      <c r="E229" s="2"/>
+      <c r="F229" s="2"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B230" s="3" t="s">
+      <c r="B230" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="C230" s="3" t="s">
+      <c r="C230" s="2" t="s">
         <v>904</v>
       </c>
-      <c r="D230" s="3" t="s">
+      <c r="D230" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="E230" s="3"/>
-      <c r="F230" s="4"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="2"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B231" s="3" t="s">
+      <c r="B231" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C231" s="3" t="s">
+      <c r="C231" s="2" t="s">
         <v>905</v>
       </c>
-      <c r="D231" s="3" t="s">
+      <c r="D231" s="2" t="s">
         <v>1241</v>
       </c>
-      <c r="E231" s="3"/>
-      <c r="F231" s="4"/>
+      <c r="E231" s="2"/>
+      <c r="F231" s="2"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B232" s="3" t="s">
+      <c r="B232" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="C232" s="3" t="s">
+      <c r="C232" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="D232" s="3" t="s">
+      <c r="D232" s="2" t="s">
         <v>1242</v>
       </c>
-      <c r="E232" s="3"/>
-      <c r="F232" s="4"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B233" s="3" t="s">
+      <c r="B233" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="C233" s="3" t="s">
+      <c r="C233" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="D233" s="3" t="s">
+      <c r="D233" s="2" t="s">
         <v>1243</v>
       </c>
-      <c r="E233" s="3"/>
-      <c r="F233" s="4"/>
+      <c r="E233" s="2"/>
+      <c r="F233" s="2"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B234" s="3" t="s">
+      <c r="B234" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="C234" s="3" t="s">
+      <c r="C234" s="2" t="s">
         <v>908</v>
       </c>
-      <c r="D234" s="3" t="s">
+      <c r="D234" s="2" t="s">
         <v>1244</v>
       </c>
-      <c r="E234" s="3"/>
-      <c r="F234" s="4"/>
+      <c r="E234" s="2"/>
+      <c r="F234" s="2"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B235" s="3" t="s">
+      <c r="B235" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="C235" s="3" t="s">
+      <c r="C235" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="D235" s="3" t="s">
+      <c r="D235" s="2" t="s">
         <v>1245</v>
       </c>
-      <c r="E235" s="3"/>
-      <c r="F235" s="4"/>
+      <c r="E235" s="2"/>
+      <c r="F235" s="2"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B236" s="3" t="s">
+      <c r="B236" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="C236" s="3" t="s">
+      <c r="C236" s="2" t="s">
         <v>910</v>
       </c>
-      <c r="D236" s="3" t="s">
+      <c r="D236" s="2" t="s">
         <v>1246</v>
       </c>
-      <c r="E236" s="3"/>
-      <c r="F236" s="4"/>
+      <c r="E236" s="2"/>
+      <c r="F236" s="2"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B237" s="3" t="s">
+      <c r="B237" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="C237" s="3" t="s">
+      <c r="C237" s="2" t="s">
         <v>911</v>
       </c>
-      <c r="D237" s="3" t="s">
+      <c r="D237" s="2" t="s">
         <v>1247</v>
       </c>
-      <c r="E237" s="3"/>
-      <c r="F237" s="4"/>
+      <c r="E237" s="2"/>
+      <c r="F237" s="2"/>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B238" s="3" t="s">
+      <c r="B238" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="C238" s="3" t="s">
+      <c r="C238" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="D238" s="3" t="s">
+      <c r="D238" s="2" t="s">
         <v>1248</v>
       </c>
-      <c r="E238" s="3"/>
-      <c r="F238" s="4"/>
+      <c r="E238" s="2"/>
+      <c r="F238" s="2"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B239" s="3" t="s">
+      <c r="B239" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="C239" s="3" t="s">
+      <c r="C239" s="2" t="s">
         <v>913</v>
       </c>
-      <c r="D239" s="3" t="s">
+      <c r="D239" s="2" t="s">
         <v>1249</v>
       </c>
-      <c r="E239" s="3"/>
-      <c r="F239" s="4"/>
+      <c r="E239" s="2"/>
+      <c r="F239" s="2"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B240" s="3" t="s">
+      <c r="B240" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="C240" s="3" t="s">
+      <c r="C240" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="D240" s="3" t="s">
+      <c r="D240" s="2" t="s">
         <v>1250</v>
       </c>
-      <c r="E240" s="3"/>
-      <c r="F240" s="4"/>
+      <c r="E240" s="2"/>
+      <c r="F240" s="2"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B241" s="3" t="s">
+      <c r="B241" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="C241" s="3" t="s">
+      <c r="C241" s="2" t="s">
         <v>915</v>
       </c>
-      <c r="D241" s="3" t="s">
+      <c r="D241" s="2" t="s">
         <v>1251</v>
       </c>
-      <c r="E241" s="3"/>
-      <c r="F241" s="4"/>
+      <c r="E241" s="2"/>
+      <c r="F241" s="2"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B242" s="3" t="s">
+      <c r="B242" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="C242" s="3" t="s">
+      <c r="C242" s="2" t="s">
         <v>916</v>
       </c>
-      <c r="D242" s="3" t="s">
+      <c r="D242" s="2" t="s">
         <v>1252</v>
       </c>
-      <c r="E242" s="3"/>
-      <c r="F242" s="4"/>
+      <c r="E242" s="2"/>
+      <c r="F242" s="2"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B243" s="3" t="s">
+      <c r="B243" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="C243" s="3" t="s">
+      <c r="C243" s="2" t="s">
         <v>917</v>
       </c>
-      <c r="D243" s="3" t="s">
+      <c r="D243" s="2" t="s">
         <v>1253</v>
       </c>
-      <c r="E243" s="3"/>
-      <c r="F243" s="4"/>
+      <c r="E243" s="2"/>
+      <c r="F243" s="2"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B244" s="3" t="s">
+      <c r="B244" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="C244" s="3" t="s">
+      <c r="C244" s="2" t="s">
         <v>918</v>
       </c>
-      <c r="D244" s="3" t="s">
+      <c r="D244" s="2" t="s">
         <v>1254</v>
       </c>
-      <c r="E244" s="3"/>
-      <c r="F244" s="4"/>
+      <c r="E244" s="2"/>
+      <c r="F244" s="2"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B245" s="3" t="s">
+      <c r="B245" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="C245" s="3" t="s">
+      <c r="C245" s="2" t="s">
         <v>919</v>
       </c>
-      <c r="D245" s="3" t="s">
+      <c r="D245" s="2" t="s">
         <v>1255</v>
       </c>
-      <c r="E245" s="3"/>
-      <c r="F245" s="4"/>
+      <c r="E245" s="2"/>
+      <c r="F245" s="2"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B246" s="3" t="s">
+      <c r="B246" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="C246" s="3" t="s">
+      <c r="C246" s="2" t="s">
         <v>920</v>
       </c>
-      <c r="D246" s="3" t="s">
+      <c r="D246" s="2" t="s">
         <v>1256</v>
       </c>
-      <c r="E246" s="3"/>
-      <c r="F246" s="4"/>
+      <c r="E246" s="2"/>
+      <c r="F246" s="2"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B247" s="3" t="s">
+      <c r="B247" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="C247" s="3" t="s">
+      <c r="C247" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="D247" s="3" t="s">
+      <c r="D247" s="2" t="s">
         <v>1257</v>
       </c>
-      <c r="E247" s="3"/>
-      <c r="F247" s="4"/>
+      <c r="E247" s="2"/>
+      <c r="F247" s="2"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B248" s="3" t="s">
+      <c r="B248" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="C248" s="3" t="s">
+      <c r="C248" s="2" t="s">
         <v>922</v>
       </c>
-      <c r="D248" s="3" t="s">
+      <c r="D248" s="2" t="s">
         <v>1258</v>
       </c>
-      <c r="E248" s="3"/>
-      <c r="F248" s="4"/>
+      <c r="E248" s="2"/>
+      <c r="F248" s="2"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B249" s="3" t="s">
+      <c r="B249" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="C249" s="3" t="s">
+      <c r="C249" s="2" t="s">
         <v>923</v>
       </c>
-      <c r="D249" s="3" t="s">
+      <c r="D249" s="2" t="s">
         <v>1259</v>
       </c>
-      <c r="E249" s="3"/>
-      <c r="F249" s="4"/>
+      <c r="E249" s="2"/>
+      <c r="F249" s="2"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B250" s="3" t="s">
+      <c r="B250" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="C250" s="3" t="s">
+      <c r="C250" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="D250" s="3" t="s">
+      <c r="D250" s="2" t="s">
         <v>1260</v>
       </c>
-      <c r="E250" s="3"/>
-      <c r="F250" s="4"/>
+      <c r="E250" s="2"/>
+      <c r="F250" s="2"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B251" s="3" t="s">
+      <c r="B251" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="C251" s="3" t="s">
+      <c r="C251" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="D251" s="3" t="s">
+      <c r="D251" s="2" t="s">
         <v>1261</v>
       </c>
-      <c r="E251" s="3"/>
-      <c r="F251" s="4"/>
+      <c r="E251" s="2"/>
+      <c r="F251" s="2"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B252" s="3" t="s">
+      <c r="B252" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="C252" s="3" t="s">
+      <c r="C252" s="2" t="s">
         <v>926</v>
       </c>
-      <c r="D252" s="3" t="s">
+      <c r="D252" s="2" t="s">
         <v>1262</v>
       </c>
-      <c r="E252" s="3"/>
-      <c r="F252" s="4"/>
+      <c r="E252" s="2"/>
+      <c r="F252" s="2"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B253" s="3" t="s">
+      <c r="B253" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="C253" s="3" t="s">
+      <c r="C253" s="2" t="s">
         <v>927</v>
       </c>
-      <c r="D253" s="3" t="s">
+      <c r="D253" s="2" t="s">
         <v>1263</v>
       </c>
-      <c r="E253" s="3"/>
-      <c r="F253" s="4"/>
+      <c r="E253" s="2"/>
+      <c r="F253" s="2"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B254" s="3" t="s">
+      <c r="B254" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="C254" s="3" t="s">
+      <c r="C254" s="2" t="s">
         <v>928</v>
       </c>
-      <c r="D254" s="3" t="s">
+      <c r="D254" s="2" t="s">
         <v>1264</v>
       </c>
-      <c r="E254" s="3"/>
-      <c r="F254" s="4"/>
+      <c r="E254" s="2"/>
+      <c r="F254" s="2"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B255" s="3" t="s">
+      <c r="B255" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="C255" s="3" t="s">
+      <c r="C255" s="2" t="s">
         <v>929</v>
       </c>
-      <c r="D255" s="3" t="s">
+      <c r="D255" s="2" t="s">
         <v>1265</v>
       </c>
-      <c r="E255" s="3"/>
-      <c r="F255" s="4"/>
+      <c r="E255" s="2"/>
+      <c r="F255" s="2"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B256" s="3" t="s">
+      <c r="B256" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="C256" s="3" t="s">
+      <c r="C256" s="2" t="s">
         <v>930</v>
       </c>
-      <c r="D256" s="3" t="s">
+      <c r="D256" s="2" t="s">
         <v>1266</v>
       </c>
-      <c r="E256" s="3"/>
-      <c r="F256" s="4"/>
+      <c r="E256" s="2"/>
+      <c r="F256" s="2"/>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B257" s="3" t="s">
+      <c r="B257" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="C257" s="3" t="s">
+      <c r="C257" s="2" t="s">
         <v>931</v>
       </c>
-      <c r="D257" s="3" t="s">
+      <c r="D257" s="2" t="s">
         <v>1267</v>
       </c>
-      <c r="E257" s="3"/>
-      <c r="F257" s="4"/>
+      <c r="E257" s="2"/>
+      <c r="F257" s="2"/>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B258" s="3" t="s">
+      <c r="B258" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="C258" s="3" t="s">
+      <c r="C258" s="2" t="s">
         <v>932</v>
       </c>
-      <c r="D258" s="3" t="s">
+      <c r="D258" s="2" t="s">
         <v>1268</v>
       </c>
-      <c r="E258" s="3"/>
-      <c r="F258" s="4"/>
+      <c r="E258" s="2"/>
+      <c r="F258" s="2"/>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B259" s="3" t="s">
+      <c r="B259" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="C259" s="3" t="s">
+      <c r="C259" s="2" t="s">
         <v>933</v>
       </c>
-      <c r="D259" s="3" t="s">
+      <c r="D259" s="2" t="s">
         <v>1269</v>
       </c>
-      <c r="E259" s="3"/>
-      <c r="F259" s="4"/>
+      <c r="E259" s="2"/>
+      <c r="F259" s="2"/>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B260" s="3" t="s">
+      <c r="B260" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="C260" s="3" t="s">
+      <c r="C260" s="2" t="s">
         <v>934</v>
       </c>
-      <c r="D260" s="3" t="s">
+      <c r="D260" s="2" t="s">
         <v>1270</v>
       </c>
-      <c r="E260" s="3"/>
-      <c r="F260" s="4"/>
+      <c r="E260" s="2"/>
+      <c r="F260" s="2"/>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B261" s="3" t="s">
+      <c r="B261" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="C261" s="3" t="s">
+      <c r="C261" s="2" t="s">
         <v>935</v>
       </c>
-      <c r="D261" s="3" t="s">
+      <c r="D261" s="2" t="s">
         <v>1271</v>
       </c>
-      <c r="E261" s="3"/>
-      <c r="F261" s="4"/>
+      <c r="E261" s="2"/>
+      <c r="F261" s="2"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B262" s="3" t="s">
+      <c r="B262" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="C262" s="3" t="s">
+      <c r="C262" s="2" t="s">
         <v>936</v>
       </c>
-      <c r="D262" s="3" t="s">
+      <c r="D262" s="2" t="s">
         <v>1272</v>
       </c>
-      <c r="E262" s="3"/>
-      <c r="F262" s="4"/>
+      <c r="E262" s="2"/>
+      <c r="F262" s="2"/>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B263" s="3" t="s">
+      <c r="B263" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="C263" s="3" t="s">
+      <c r="C263" s="2" t="s">
         <v>937</v>
       </c>
-      <c r="D263" s="3" t="s">
+      <c r="D263" s="2" t="s">
         <v>1273</v>
       </c>
-      <c r="E263" s="3"/>
-      <c r="F263" s="4"/>
+      <c r="E263" s="2"/>
+      <c r="F263" s="2"/>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B264" s="3" t="s">
+      <c r="B264" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="C264" s="3" t="s">
+      <c r="C264" s="2" t="s">
         <v>938</v>
       </c>
-      <c r="D264" s="3" t="s">
+      <c r="D264" s="2" t="s">
         <v>1274</v>
       </c>
-      <c r="E264" s="3"/>
-      <c r="F264" s="4"/>
+      <c r="E264" s="2"/>
+      <c r="F264" s="2"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B265" s="3" t="s">
+      <c r="B265" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="C265" s="3" t="s">
+      <c r="C265" s="2" t="s">
         <v>939</v>
       </c>
-      <c r="D265" s="3" t="s">
+      <c r="D265" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="E265" s="3"/>
-      <c r="F265" s="4"/>
+      <c r="E265" s="2"/>
+      <c r="F265" s="2"/>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B266" s="3" t="s">
+      <c r="B266" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="C266" s="3" t="s">
+      <c r="C266" s="2" t="s">
         <v>940</v>
       </c>
-      <c r="D266" s="3" t="s">
+      <c r="D266" s="2" t="s">
         <v>1276</v>
       </c>
-      <c r="E266" s="3"/>
-      <c r="F266" s="4"/>
+      <c r="E266" s="2"/>
+      <c r="F266" s="2"/>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B267" s="3" t="s">
+      <c r="B267" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="C267" s="3" t="s">
+      <c r="C267" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="D267" s="3" t="s">
+      <c r="D267" s="2" t="s">
         <v>1277</v>
       </c>
-      <c r="E267" s="3"/>
-      <c r="F267" s="4"/>
+      <c r="E267" s="2"/>
+      <c r="F267" s="2"/>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B268" s="3" t="s">
+      <c r="B268" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="C268" s="3" t="s">
+      <c r="C268" s="2" t="s">
         <v>942</v>
       </c>
-      <c r="D268" s="3" t="s">
+      <c r="D268" s="2" t="s">
         <v>1278</v>
       </c>
-      <c r="E268" s="3"/>
-      <c r="F268" s="4"/>
+      <c r="E268" s="2"/>
+      <c r="F268" s="2"/>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B269" s="3" t="s">
+      <c r="B269" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="C269" s="3" t="s">
+      <c r="C269" s="2" t="s">
         <v>943</v>
       </c>
-      <c r="D269" s="3" t="s">
+      <c r="D269" s="2" t="s">
         <v>1279</v>
       </c>
-      <c r="E269" s="3"/>
-      <c r="F269" s="4"/>
+      <c r="E269" s="2"/>
+      <c r="F269" s="2"/>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B270" s="3" t="s">
+      <c r="B270" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="C270" s="3" t="s">
+      <c r="C270" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="D270" s="3" t="s">
+      <c r="D270" s="2" t="s">
         <v>1280</v>
       </c>
-      <c r="E270" s="3"/>
-      <c r="F270" s="4"/>
+      <c r="E270" s="2"/>
+      <c r="F270" s="2"/>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B271" s="3" t="s">
+      <c r="B271" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="C271" s="3" t="s">
+      <c r="C271" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="D271" s="3" t="s">
+      <c r="D271" s="2" t="s">
         <v>1281</v>
       </c>
-      <c r="E271" s="3"/>
-      <c r="F271" s="4"/>
+      <c r="E271" s="2"/>
+      <c r="F271" s="2"/>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B272" s="3" t="s">
+      <c r="B272" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="C272" s="3" t="s">
+      <c r="C272" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="D272" s="3" t="s">
+      <c r="D272" s="2" t="s">
         <v>1282</v>
       </c>
-      <c r="E272" s="3"/>
-      <c r="F272" s="4"/>
+      <c r="E272" s="2"/>
+      <c r="F272" s="2"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B273" s="3" t="s">
+      <c r="B273" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="C273" s="3" t="s">
+      <c r="C273" s="2" t="s">
         <v>947</v>
       </c>
-      <c r="D273" s="3" t="s">
+      <c r="D273" s="2" t="s">
         <v>1283</v>
       </c>
-      <c r="E273" s="3"/>
-      <c r="F273" s="4"/>
+      <c r="E273" s="2"/>
+      <c r="F273" s="2"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B274" s="3" t="s">
+      <c r="B274" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="C274" s="3" t="s">
+      <c r="C274" s="2" t="s">
         <v>948</v>
       </c>
-      <c r="D274" s="3" t="s">
+      <c r="D274" s="2" t="s">
         <v>1284</v>
       </c>
-      <c r="E274" s="3"/>
-      <c r="F274" s="4"/>
+      <c r="E274" s="2"/>
+      <c r="F274" s="2"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B275" s="3" t="s">
+      <c r="B275" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="C275" s="3" t="s">
+      <c r="C275" s="2" t="s">
         <v>949</v>
       </c>
-      <c r="D275" s="3" t="s">
+      <c r="D275" s="2" t="s">
         <v>1285</v>
       </c>
-      <c r="E275" s="3"/>
-      <c r="F275" s="4"/>
+      <c r="E275" s="2"/>
+      <c r="F275" s="2"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B276" s="3" t="s">
+      <c r="B276" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="C276" s="3" t="s">
+      <c r="C276" s="2" t="s">
         <v>950</v>
       </c>
-      <c r="D276" s="3" t="s">
+      <c r="D276" s="2" t="s">
         <v>1286</v>
       </c>
-      <c r="E276" s="3"/>
-      <c r="F276" s="4"/>
+      <c r="E276" s="2"/>
+      <c r="F276" s="2"/>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B277" s="3" t="s">
+      <c r="B277" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="C277" s="3" t="s">
+      <c r="C277" s="2" t="s">
         <v>951</v>
       </c>
-      <c r="D277" s="3" t="s">
+      <c r="D277" s="2" t="s">
         <v>1287</v>
       </c>
-      <c r="E277" s="3"/>
-      <c r="F277" s="4"/>
+      <c r="E277" s="2"/>
+      <c r="F277" s="2"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B278" s="3" t="s">
+      <c r="B278" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="C278" s="3" t="s">
+      <c r="C278" s="2" t="s">
         <v>952</v>
       </c>
-      <c r="D278" s="3" t="s">
+      <c r="D278" s="2" t="s">
         <v>1288</v>
       </c>
-      <c r="E278" s="3"/>
-      <c r="F278" s="4"/>
+      <c r="E278" s="2"/>
+      <c r="F278" s="2"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B279" s="3" t="s">
+      <c r="B279" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="C279" s="3" t="s">
+      <c r="C279" s="2" t="s">
         <v>953</v>
       </c>
-      <c r="D279" s="3" t="s">
+      <c r="D279" s="2" t="s">
         <v>1289</v>
       </c>
-      <c r="E279" s="3"/>
-      <c r="F279" s="4"/>
+      <c r="E279" s="2"/>
+      <c r="F279" s="2"/>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B280" s="3" t="s">
+      <c r="B280" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="C280" s="3" t="s">
+      <c r="C280" s="2" t="s">
         <v>954</v>
       </c>
-      <c r="D280" s="3" t="s">
+      <c r="D280" s="2" t="s">
         <v>1290</v>
       </c>
-      <c r="E280" s="3"/>
-      <c r="F280" s="4"/>
+      <c r="E280" s="2"/>
+      <c r="F280" s="2"/>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B281" s="3" t="s">
+      <c r="B281" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="C281" s="3" t="s">
+      <c r="C281" s="2" t="s">
         <v>955</v>
       </c>
-      <c r="D281" s="3" t="s">
+      <c r="D281" s="2" t="s">
         <v>1291</v>
       </c>
-      <c r="E281" s="3"/>
-      <c r="F281" s="4"/>
+      <c r="E281" s="2"/>
+      <c r="F281" s="2"/>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B282" s="3" t="s">
+      <c r="B282" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="C282" s="3" t="s">
+      <c r="C282" s="2" t="s">
         <v>956</v>
       </c>
-      <c r="D282" s="3" t="s">
+      <c r="D282" s="2" t="s">
         <v>1292</v>
       </c>
-      <c r="E282" s="3"/>
-      <c r="F282" s="4"/>
+      <c r="E282" s="2"/>
+      <c r="F282" s="2"/>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B283" s="3" t="s">
+      <c r="B283" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="C283" s="3" t="s">
+      <c r="C283" s="2" t="s">
         <v>957</v>
       </c>
-      <c r="D283" s="3" t="s">
+      <c r="D283" s="2" t="s">
         <v>1293</v>
       </c>
-      <c r="E283" s="3"/>
-      <c r="F283" s="4"/>
+      <c r="E283" s="2"/>
+      <c r="F283" s="2"/>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B284" s="3" t="s">
+      <c r="B284" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="C284" s="3" t="s">
+      <c r="C284" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="D284" s="3" t="s">
+      <c r="D284" s="2" t="s">
         <v>1294</v>
       </c>
-      <c r="E284" s="3"/>
-      <c r="F284" s="4"/>
+      <c r="E284" s="2"/>
+      <c r="F284" s="2"/>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B285" s="3" t="s">
+      <c r="B285" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="C285" s="3" t="s">
+      <c r="C285" s="2" t="s">
         <v>959</v>
       </c>
-      <c r="D285" s="3" t="s">
+      <c r="D285" s="2" t="s">
         <v>1295</v>
       </c>
-      <c r="E285" s="3"/>
-      <c r="F285" s="4"/>
+      <c r="E285" s="2"/>
+      <c r="F285" s="2"/>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B286" s="3" t="s">
+      <c r="B286" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="C286" s="3" t="s">
+      <c r="C286" s="2" t="s">
         <v>960</v>
       </c>
-      <c r="D286" s="3" t="s">
+      <c r="D286" s="2" t="s">
         <v>1296</v>
       </c>
-      <c r="E286" s="3"/>
-      <c r="F286" s="4"/>
+      <c r="E286" s="2"/>
+      <c r="F286" s="2"/>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B287" s="3" t="s">
+      <c r="B287" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="C287" s="3" t="s">
+      <c r="C287" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="D287" s="3" t="s">
+      <c r="D287" s="2" t="s">
         <v>1297</v>
       </c>
-      <c r="E287" s="3"/>
-      <c r="F287" s="4"/>
+      <c r="E287" s="2"/>
+      <c r="F287" s="2"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B288" s="3" t="s">
+      <c r="B288" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="C288" s="3" t="s">
+      <c r="C288" s="2" t="s">
         <v>962</v>
       </c>
-      <c r="D288" s="3" t="s">
+      <c r="D288" s="2" t="s">
         <v>1298</v>
       </c>
-      <c r="E288" s="3"/>
-      <c r="F288" s="4"/>
+      <c r="E288" s="2"/>
+      <c r="F288" s="2"/>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B289" s="3" t="s">
+      <c r="B289" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="C289" s="3" t="s">
+      <c r="C289" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D289" s="3" t="s">
+      <c r="D289" s="2" t="s">
         <v>1299</v>
       </c>
-      <c r="E289" s="3"/>
-      <c r="F289" s="4"/>
+      <c r="E289" s="2"/>
+      <c r="F289" s="2"/>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B290" s="3" t="s">
+      <c r="B290" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="C290" s="3" t="s">
+      <c r="C290" s="2" t="s">
         <v>964</v>
       </c>
-      <c r="D290" s="3" t="s">
+      <c r="D290" s="2" t="s">
         <v>1300</v>
       </c>
-      <c r="E290" s="3"/>
-      <c r="F290" s="4"/>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E290" s="2"/>
+      <c r="F290" s="2"/>
+    </row>
+    <row r="291" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B291" s="3" t="s">
+      <c r="B291" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="C291" s="3" t="s">
+      <c r="C291" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="D291" s="3" t="s">
+      <c r="D291" s="2" t="s">
         <v>1301</v>
       </c>
-      <c r="E291" s="3"/>
-      <c r="F291" s="4"/>
+      <c r="E291" s="2"/>
+      <c r="F291" s="2"/>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B292" s="3" t="s">
+      <c r="B292" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="C292" s="3" t="s">
+      <c r="C292" s="2" t="s">
         <v>966</v>
       </c>
-      <c r="D292" s="3" t="s">
+      <c r="D292" s="2" t="s">
         <v>1302</v>
       </c>
-      <c r="E292" s="3"/>
-      <c r="F292" s="4"/>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E292" s="2"/>
+      <c r="F292" s="2"/>
+    </row>
+    <row r="293" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B293" s="3" t="s">
+      <c r="B293" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="C293" s="3" t="s">
+      <c r="C293" s="2" t="s">
         <v>967</v>
       </c>
-      <c r="D293" s="3" t="s">
+      <c r="D293" s="2" t="s">
         <v>1303</v>
       </c>
-      <c r="E293" s="3"/>
-      <c r="F293" s="4"/>
+      <c r="E293" s="2"/>
+      <c r="F293" s="2"/>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B294" s="3" t="s">
+      <c r="B294" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="C294" s="3" t="s">
+      <c r="C294" s="2" t="s">
         <v>968</v>
       </c>
-      <c r="D294" s="3" t="s">
+      <c r="D294" s="2" t="s">
         <v>1304</v>
       </c>
-      <c r="E294" s="3"/>
-      <c r="F294" s="4"/>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E294" s="2"/>
+      <c r="F294" s="2"/>
+    </row>
+    <row r="295" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B295" s="3" t="s">
+      <c r="B295" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="C295" s="3" t="s">
+      <c r="C295" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="D295" s="3" t="s">
+      <c r="D295" s="2" t="s">
         <v>1305</v>
       </c>
-      <c r="E295" s="3"/>
-      <c r="F295" s="4"/>
+      <c r="E295" s="2"/>
+      <c r="F295" s="2"/>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B296" s="3" t="s">
+      <c r="B296" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="C296" s="3" t="s">
+      <c r="C296" s="2" t="s">
         <v>970</v>
       </c>
-      <c r="D296" s="3" t="s">
+      <c r="D296" s="2" t="s">
         <v>1306</v>
       </c>
-      <c r="E296" s="3"/>
-      <c r="F296" s="4"/>
+      <c r="E296" s="2"/>
+      <c r="F296" s="2"/>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B297" s="3" t="s">
+      <c r="B297" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="C297" s="3" t="s">
+      <c r="C297" s="2" t="s">
         <v>971</v>
       </c>
-      <c r="D297" s="3" t="s">
+      <c r="D297" s="2" t="s">
         <v>1307</v>
       </c>
-      <c r="E297" s="3"/>
-      <c r="F297" s="4"/>
+      <c r="E297" s="2"/>
+      <c r="F297" s="2"/>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B298" s="3" t="s">
+      <c r="B298" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="C298" s="3" t="s">
+      <c r="C298" s="2" t="s">
         <v>972</v>
       </c>
-      <c r="D298" s="3" t="s">
+      <c r="D298" s="2" t="s">
         <v>1308</v>
       </c>
-      <c r="E298" s="3"/>
-      <c r="F298" s="4"/>
+      <c r="E298" s="2"/>
+      <c r="F298" s="2"/>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B299" s="3" t="s">
+      <c r="B299" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="C299" s="3" t="s">
+      <c r="C299" s="2" t="s">
         <v>973</v>
       </c>
-      <c r="D299" s="3" t="s">
+      <c r="D299" s="2" t="s">
         <v>1309</v>
       </c>
-      <c r="E299" s="3"/>
-      <c r="F299" s="4"/>
+      <c r="E299" s="2"/>
+      <c r="F299" s="2"/>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B300" s="3" t="s">
+      <c r="B300" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="C300" s="3" t="s">
+      <c r="C300" s="2" t="s">
         <v>974</v>
       </c>
-      <c r="D300" s="3" t="s">
+      <c r="D300" s="2" t="s">
         <v>1310</v>
       </c>
-      <c r="E300" s="3"/>
-      <c r="F300" s="4"/>
+      <c r="E300" s="2"/>
+      <c r="F300" s="2"/>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B301" s="3" t="s">
+      <c r="B301" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="C301" s="3" t="s">
+      <c r="C301" s="2" t="s">
         <v>975</v>
       </c>
-      <c r="D301" s="3" t="s">
+      <c r="D301" s="2" t="s">
         <v>1311</v>
       </c>
-      <c r="E301" s="3"/>
-      <c r="F301" s="4"/>
+      <c r="E301" s="2"/>
+      <c r="F301" s="2"/>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B302" s="3" t="s">
+      <c r="B302" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="C302" s="3" t="s">
+      <c r="C302" s="2" t="s">
         <v>976</v>
       </c>
-      <c r="D302" s="3" t="s">
+      <c r="D302" s="2" t="s">
         <v>1312</v>
       </c>
-      <c r="E302" s="3"/>
-      <c r="F302" s="4"/>
+      <c r="E302" s="2"/>
+      <c r="F302" s="2"/>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B303" s="3" t="s">
+      <c r="B303" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="C303" s="3" t="s">
+      <c r="C303" s="2" t="s">
         <v>977</v>
       </c>
-      <c r="D303" s="3" t="s">
+      <c r="D303" s="2" t="s">
         <v>1313</v>
       </c>
-      <c r="E303" s="3"/>
-      <c r="F303" s="4"/>
+      <c r="E303" s="2"/>
+      <c r="F303" s="2"/>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B304" s="3" t="s">
+      <c r="B304" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="C304" s="3" t="s">
+      <c r="C304" s="2" t="s">
         <v>978</v>
       </c>
-      <c r="D304" s="3" t="s">
+      <c r="D304" s="2" t="s">
         <v>1314</v>
       </c>
-      <c r="E304" s="3"/>
-      <c r="F304" s="4"/>
+      <c r="E304" s="2"/>
+      <c r="F304" s="2"/>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B305" s="3" t="s">
+      <c r="B305" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="C305" s="3" t="s">
+      <c r="C305" s="2" t="s">
         <v>979</v>
       </c>
-      <c r="D305" s="3" t="s">
+      <c r="D305" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="E305" s="3"/>
-      <c r="F305" s="4"/>
+      <c r="E305" s="2"/>
+      <c r="F305" s="2"/>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B306" s="3" t="s">
+      <c r="B306" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="C306" s="3" t="s">
+      <c r="C306" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="D306" s="3" t="s">
+      <c r="D306" s="2" t="s">
         <v>1316</v>
       </c>
-      <c r="E306" s="3"/>
-      <c r="F306" s="4"/>
+      <c r="E306" s="2"/>
+      <c r="F306" s="2"/>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B307" s="3" t="s">
+      <c r="B307" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="C307" s="3" t="s">
+      <c r="C307" s="2" t="s">
         <v>981</v>
       </c>
-      <c r="D307" s="3" t="s">
+      <c r="D307" s="2" t="s">
         <v>1317</v>
       </c>
-      <c r="E307" s="3"/>
-      <c r="F307" s="4"/>
+      <c r="E307" s="2"/>
+      <c r="F307" s="2"/>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B308" s="3" t="s">
+      <c r="B308" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="C308" s="3" t="s">
+      <c r="C308" s="2" t="s">
         <v>982</v>
       </c>
-      <c r="D308" s="3" t="s">
+      <c r="D308" s="2" t="s">
         <v>1318</v>
       </c>
-      <c r="E308" s="3"/>
-      <c r="F308" s="4"/>
+      <c r="E308" s="2"/>
+      <c r="F308" s="2"/>
     </row>
     <row r="309" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B309" s="3" t="s">
+      <c r="B309" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="C309" s="3" t="s">
+      <c r="C309" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="D309" s="3" t="s">
+      <c r="D309" s="2" t="s">
         <v>1319</v>
       </c>
-      <c r="E309" s="3"/>
-      <c r="F309" s="4"/>
+      <c r="E309" s="2"/>
+      <c r="F309" s="2"/>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B310" s="3" t="s">
+      <c r="B310" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="C310" s="3" t="s">
+      <c r="C310" s="2" t="s">
         <v>984</v>
       </c>
-      <c r="D310" s="3" t="s">
+      <c r="D310" s="2" t="s">
         <v>1320</v>
       </c>
-      <c r="E310" s="3"/>
-      <c r="F310" s="4"/>
+      <c r="E310" s="2"/>
+      <c r="F310" s="2"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B311" s="3" t="s">
+      <c r="B311" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="C311" s="3" t="s">
+      <c r="C311" s="2" t="s">
         <v>985</v>
       </c>
-      <c r="D311" s="3" t="s">
+      <c r="D311" s="2" t="s">
         <v>1321</v>
       </c>
-      <c r="E311" s="3"/>
-      <c r="F311" s="4"/>
+      <c r="E311" s="2"/>
+      <c r="F311" s="2"/>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B312" s="3" t="s">
+      <c r="B312" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="C312" s="3" t="s">
+      <c r="C312" s="2" t="s">
         <v>986</v>
       </c>
-      <c r="D312" s="3" t="s">
+      <c r="D312" s="2" t="s">
         <v>1322</v>
       </c>
-      <c r="E312" s="3"/>
-      <c r="F312" s="4"/>
+      <c r="E312" s="2"/>
+      <c r="F312" s="2"/>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B313" s="3" t="s">
+      <c r="B313" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="C313" s="3" t="s">
+      <c r="C313" s="2" t="s">
         <v>987</v>
       </c>
-      <c r="D313" s="3" t="s">
+      <c r="D313" s="2" t="s">
         <v>1323</v>
       </c>
-      <c r="E313" s="3"/>
-      <c r="F313" s="4"/>
+      <c r="E313" s="2"/>
+      <c r="F313" s="2"/>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B314" s="3" t="s">
+      <c r="B314" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="C314" s="3" t="s">
+      <c r="C314" s="2" t="s">
         <v>988</v>
       </c>
-      <c r="D314" s="3" t="s">
+      <c r="D314" s="2" t="s">
         <v>1324</v>
       </c>
-      <c r="E314" s="3"/>
-      <c r="F314" s="4"/>
+      <c r="E314" s="2"/>
+      <c r="F314" s="2"/>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B315" s="3" t="s">
+      <c r="B315" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="C315" s="3" t="s">
+      <c r="C315" s="2" t="s">
         <v>989</v>
       </c>
-      <c r="D315" s="3" t="s">
+      <c r="D315" s="2" t="s">
         <v>1325</v>
       </c>
-      <c r="E315" s="3"/>
-      <c r="F315" s="4"/>
+      <c r="E315" s="2"/>
+      <c r="F315" s="2"/>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B316" s="3" t="s">
+      <c r="B316" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="C316" s="3" t="s">
+      <c r="C316" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="D316" s="3" t="s">
+      <c r="D316" s="2" t="s">
         <v>1326</v>
       </c>
-      <c r="E316" s="3"/>
-      <c r="F316" s="4"/>
+      <c r="E316" s="2"/>
+      <c r="F316" s="2"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B317" s="3" t="s">
+      <c r="B317" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="C317" s="3" t="s">
+      <c r="C317" s="2" t="s">
         <v>991</v>
       </c>
-      <c r="D317" s="3" t="s">
+      <c r="D317" s="2" t="s">
         <v>1327</v>
       </c>
-      <c r="E317" s="3"/>
-      <c r="F317" s="4"/>
+      <c r="E317" s="2"/>
+      <c r="F317" s="2"/>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B318" s="3" t="s">
+      <c r="B318" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="C318" s="3" t="s">
+      <c r="C318" s="2" t="s">
         <v>992</v>
       </c>
-      <c r="D318" s="3" t="s">
+      <c r="D318" s="2" t="s">
         <v>1328</v>
       </c>
-      <c r="E318" s="3"/>
-      <c r="F318" s="4"/>
+      <c r="E318" s="2"/>
+      <c r="F318" s="2"/>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B319" s="3" t="s">
+      <c r="B319" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="C319" s="3" t="s">
+      <c r="C319" s="2" t="s">
         <v>993</v>
       </c>
-      <c r="D319" s="3" t="s">
+      <c r="D319" s="2" t="s">
         <v>1329</v>
       </c>
-      <c r="E319" s="3"/>
-      <c r="F319" s="4"/>
+      <c r="E319" s="2"/>
+      <c r="F319" s="2"/>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B320" s="3" t="s">
+      <c r="B320" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="C320" s="3" t="s">
+      <c r="C320" s="2" t="s">
         <v>994</v>
       </c>
-      <c r="D320" s="3" t="s">
+      <c r="D320" s="2" t="s">
         <v>1330</v>
       </c>
-      <c r="E320" s="3"/>
-      <c r="F320" s="4"/>
+      <c r="E320" s="2"/>
+      <c r="F320" s="2"/>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B321" s="3" t="s">
+      <c r="B321" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="C321" s="3" t="s">
+      <c r="C321" s="2" t="s">
         <v>995</v>
       </c>
-      <c r="D321" s="3" t="s">
+      <c r="D321" s="2" t="s">
         <v>1331</v>
       </c>
-      <c r="E321" s="3"/>
-      <c r="F321" s="4"/>
+      <c r="E321" s="2"/>
+      <c r="F321" s="2"/>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B322" s="3" t="s">
+      <c r="B322" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="C322" s="3" t="s">
+      <c r="C322" s="2" t="s">
         <v>996</v>
       </c>
-      <c r="D322" s="3" t="s">
+      <c r="D322" s="2" t="s">
         <v>1332</v>
       </c>
-      <c r="E322" s="3"/>
-      <c r="F322" s="4"/>
+      <c r="E322" s="2"/>
+      <c r="F322" s="2"/>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B323" s="3" t="s">
+      <c r="B323" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="C323" s="3" t="s">
+      <c r="C323" s="2" t="s">
         <v>997</v>
       </c>
-      <c r="D323" s="3" t="s">
+      <c r="D323" s="2" t="s">
         <v>1333</v>
       </c>
-      <c r="E323" s="3"/>
-      <c r="F323" s="4"/>
+      <c r="E323" s="2"/>
+      <c r="F323" s="2"/>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B324" s="3" t="s">
+      <c r="B324" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="C324" s="3" t="s">
+      <c r="C324" s="2" t="s">
         <v>998</v>
       </c>
-      <c r="D324" s="3" t="s">
+      <c r="D324" s="2" t="s">
         <v>1334</v>
       </c>
-      <c r="E324" s="3"/>
-      <c r="F324" s="4"/>
+      <c r="E324" s="2"/>
+      <c r="F324" s="2"/>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B325" s="3" t="s">
+      <c r="B325" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="C325" s="3" t="s">
+      <c r="C325" s="2" t="s">
         <v>999</v>
       </c>
-      <c r="D325" s="3" t="s">
+      <c r="D325" s="2" t="s">
         <v>1335</v>
       </c>
-      <c r="E325" s="3"/>
-      <c r="F325" s="4"/>
+      <c r="E325" s="2"/>
+      <c r="F325" s="2"/>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B326" s="3" t="s">
+      <c r="B326" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="C326" s="3" t="s">
+      <c r="C326" s="2" t="s">
         <v>1000</v>
       </c>
-      <c r="D326" s="3" t="s">
+      <c r="D326" s="2" t="s">
         <v>1336</v>
       </c>
-      <c r="E326" s="3"/>
-      <c r="F326" s="4"/>
+      <c r="E326" s="2"/>
+      <c r="F326" s="2"/>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B327" s="3" t="s">
+      <c r="B327" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="C327" s="3" t="s">
+      <c r="C327" s="2" t="s">
         <v>1001</v>
       </c>
-      <c r="D327" s="3" t="s">
+      <c r="D327" s="2" t="s">
         <v>1337</v>
       </c>
-      <c r="E327" s="3"/>
-      <c r="F327" s="4"/>
+      <c r="E327" s="2"/>
+      <c r="F327" s="2"/>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B328" s="3" t="s">
+      <c r="B328" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="C328" s="3" t="s">
+      <c r="C328" s="2" t="s">
         <v>1002</v>
       </c>
-      <c r="D328" s="3" t="s">
+      <c r="D328" s="2" t="s">
         <v>1338</v>
       </c>
-      <c r="E328" s="3"/>
-      <c r="F328" s="4"/>
+      <c r="E328" s="2"/>
+      <c r="F328" s="2"/>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B329" s="3" t="s">
+      <c r="B329" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="C329" s="3" t="s">
+      <c r="C329" s="2" t="s">
         <v>1003</v>
       </c>
-      <c r="D329" s="3" t="s">
+      <c r="D329" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="E329" s="3"/>
-      <c r="F329" s="4"/>
+      <c r="E329" s="2"/>
+      <c r="F329" s="2"/>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B330" s="3" t="s">
+      <c r="B330" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="C330" s="3" t="s">
+      <c r="C330" s="2" t="s">
         <v>1004</v>
       </c>
-      <c r="D330" s="3" t="s">
+      <c r="D330" s="2" t="s">
         <v>1340</v>
       </c>
-      <c r="E330" s="3"/>
-      <c r="F330" s="4"/>
+      <c r="E330" s="2"/>
+      <c r="F330" s="2"/>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B331" s="3" t="s">
+      <c r="B331" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="C331" s="3" t="s">
+      <c r="C331" s="2" t="s">
         <v>1005</v>
       </c>
-      <c r="D331" s="3" t="s">
+      <c r="D331" s="2" t="s">
         <v>1341</v>
       </c>
-      <c r="E331" s="3"/>
-      <c r="F331" s="4"/>
+      <c r="E331" s="2"/>
+      <c r="F331" s="2"/>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B332" s="3" t="s">
+      <c r="B332" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="C332" s="3" t="s">
+      <c r="C332" s="2" t="s">
         <v>1006</v>
       </c>
-      <c r="D332" s="3" t="s">
+      <c r="D332" s="2" t="s">
         <v>1342</v>
       </c>
-      <c r="E332" s="3"/>
-      <c r="F332" s="4"/>
+      <c r="E332" s="2"/>
+      <c r="F332" s="2"/>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B333" s="3" t="s">
+      <c r="B333" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="C333" s="3" t="s">
+      <c r="C333" s="2" t="s">
         <v>1007</v>
       </c>
-      <c r="D333" s="3" t="s">
+      <c r="D333" s="2" t="s">
         <v>1343</v>
       </c>
-      <c r="E333" s="3"/>
-      <c r="F333" s="4"/>
+      <c r="E333" s="2"/>
+      <c r="F333" s="2"/>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B334" s="3" t="s">
+      <c r="B334" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="C334" s="3" t="s">
+      <c r="C334" s="2" t="s">
         <v>1008</v>
       </c>
-      <c r="D334" s="3" t="s">
+      <c r="D334" s="2" t="s">
         <v>1344</v>
       </c>
-      <c r="E334" s="3"/>
-      <c r="F334" s="4"/>
+      <c r="E334" s="2"/>
+      <c r="F334" s="2"/>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B335" s="3" t="s">
+      <c r="B335" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="C335" s="3" t="s">
+      <c r="C335" s="2" t="s">
         <v>1009</v>
       </c>
-      <c r="D335" s="3" t="s">
+      <c r="D335" s="2" t="s">
         <v>1345</v>
       </c>
-      <c r="E335" s="3"/>
-      <c r="F335" s="4"/>
+      <c r="E335" s="2"/>
+      <c r="F335" s="2"/>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B336" s="3" t="s">
+      <c r="B336" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="C336" s="3" t="s">
+      <c r="C336" s="2" t="s">
         <v>1010</v>
       </c>
-      <c r="D336" s="3" t="s">
+      <c r="D336" s="2" t="s">
         <v>1346</v>
       </c>
-      <c r="E336" s="3"/>
-      <c r="F336" s="4"/>
+      <c r="E336" s="2"/>
+      <c r="F336" s="2"/>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B337" s="3" t="s">
+      <c r="B337" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="C337" s="3" t="s">
+      <c r="C337" s="2" t="s">
         <v>1011</v>
       </c>
-      <c r="D337" s="3" t="s">
+      <c r="D337" s="2" t="s">
         <v>1347</v>
       </c>
-      <c r="E337" s="3"/>
-      <c r="F337" s="4"/>
+      <c r="E337" s="2"/>
+      <c r="F337" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:E170">
-    <sortCondition ref="E2:E170"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:F337">
+    <sortCondition ref="F2:F337"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/File Naming.xlsx
+++ b/File Naming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\curly\Desktop\Apple Genotyping\Experiments\Renaming Sample Labels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4164DE-3DFB-4A5E-B9B7-62409AED889C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDB1EE2-BEC4-4A50-9694-8E0CA74029BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{3491D669-C83C-4979-B15B-06B44BE9C919}"/>
   </bookViews>
@@ -4667,168 +4667,45 @@
     <t>BBQ1654_P17_(Axiom_JKI50kMd)_P17.CEL</t>
   </si>
   <si>
-    <t>Merton Russet.CEL</t>
-  </si>
-  <si>
     <t>Oriole.CEL</t>
   </si>
   <si>
     <t>Gewerzluikenapfel.CEL</t>
   </si>
   <si>
-    <t>Hajkovo Muskatove.CEL</t>
-  </si>
-  <si>
     <t>Abas.CEL</t>
   </si>
   <si>
-    <t>Golden Russet.CEL</t>
-  </si>
-  <si>
     <t>Rosemund.CEL</t>
   </si>
   <si>
     <t>Winston.CEL</t>
   </si>
   <si>
-    <t>Glockenapfel eckter.CEL</t>
-  </si>
-  <si>
-    <t>Kingston Black.CEL</t>
-  </si>
-  <si>
-    <t>Cambridge Pippin.CEL</t>
-  </si>
-  <si>
-    <t>Northern Spy.CEL</t>
-  </si>
-  <si>
-    <t>Springrove Codlin.CEL</t>
-  </si>
-  <si>
-    <t>French Crab.CEL</t>
-  </si>
-  <si>
-    <t>Besterfielder Renette.CEL</t>
-  </si>
-  <si>
-    <t>Uster Gloria.CEL</t>
-  </si>
-  <si>
-    <t>Altainder Plannkuchenapfel.CEL</t>
-  </si>
-  <si>
     <t>Lobo.CEL</t>
   </si>
   <si>
-    <t>Stayman's Winesap.CEL</t>
-  </si>
-  <si>
-    <t>Geeveston Fanny.CEL</t>
-  </si>
-  <si>
-    <t>Green Square.CEL</t>
-  </si>
-  <si>
-    <t>Fleuritard Rouge.CEL</t>
-  </si>
-  <si>
-    <t>Malus kaido.CEL</t>
-  </si>
-  <si>
     <t>Dietrecht.CEL</t>
   </si>
   <si>
     <t>Spivey.CEL</t>
   </si>
   <si>
-    <t>Nancy's Favourite.CEL</t>
-  </si>
-  <si>
-    <t>Shorland Queen.CEL</t>
-  </si>
-  <si>
-    <t>Wilmont Russet.CEL</t>
-  </si>
-  <si>
-    <t>Warner's King.CEL</t>
-  </si>
-  <si>
-    <t>Grimes Golden.CEL</t>
-  </si>
-  <si>
     <t>Hetlina.CEL</t>
   </si>
   <si>
     <t>Sunglo.CEL</t>
   </si>
   <si>
-    <t>The Doctor.CEL</t>
-  </si>
-  <si>
     <t>Catshead.CEL</t>
   </si>
   <si>
     <t>Astrachan.CEL</t>
   </si>
   <si>
-    <t>Egremont Russet.CEL</t>
-  </si>
-  <si>
-    <t>Tydeman’s Late Orange.CEL</t>
-  </si>
-  <si>
-    <t>Ellison's Orange.CEL</t>
-  </si>
-  <si>
-    <t>Malus boccata gracilis.CEL</t>
-  </si>
-  <si>
-    <t>Golden Noble.CEL</t>
-  </si>
-  <si>
-    <t>Lord Lambourne .CEL</t>
-  </si>
-  <si>
-    <t>Kentish Fillbasket.CEL</t>
-  </si>
-  <si>
     <t>Melrose.CEL</t>
   </si>
   <si>
-    <t>Maggie Grieve.CEL</t>
-  </si>
-  <si>
-    <t>Calville Blanc d'Hiver.CEL</t>
-  </si>
-  <si>
-    <t>Flower of Kent.CEL</t>
-  </si>
-  <si>
-    <t>William Crump.CEL</t>
-  </si>
-  <si>
-    <t>Belle de Boskoop.CEL</t>
-  </si>
-  <si>
-    <t>Peasgood Nonsuch.CEL</t>
-  </si>
-  <si>
-    <t>Malus floribunda.CEL</t>
-  </si>
-  <si>
-    <t>Bramley's Seedling.CEL</t>
-  </si>
-  <si>
-    <t>Sintax Alkmene.CEL</t>
-  </si>
-  <si>
-    <t>Lady Hamilton Sth..CEL</t>
-  </si>
-  <si>
-    <t>Mother in Law.CEL</t>
-  </si>
-  <si>
     <t>Democrat.CEL</t>
   </si>
   <si>
@@ -4838,48 +4715,18 @@
     <t>Rymer.CEL</t>
   </si>
   <si>
-    <t>Camoesa De Llobregat.CEL</t>
-  </si>
-  <si>
-    <t>Ribston Pippin.CEL</t>
-  </si>
-  <si>
-    <t>Tydeman's Early Worcester.CEL</t>
-  </si>
-  <si>
-    <t>Rhode Island Greening.CEL</t>
-  </si>
-  <si>
     <t>Brighton.CEL</t>
   </si>
   <si>
     <t>Cloden.CEL</t>
   </si>
   <si>
-    <t>Scarlett Pearmain.CEL</t>
-  </si>
-  <si>
     <t>Paneske.CEL</t>
   </si>
   <si>
-    <t>William Anderson.CEL</t>
-  </si>
-  <si>
     <t>Sciros.CEL</t>
   </si>
   <si>
-    <t>Alma Pippin.CEL</t>
-  </si>
-  <si>
-    <t>Gloria Mundy.CEL</t>
-  </si>
-  <si>
-    <t>Jupp's Russet.CEL</t>
-  </si>
-  <si>
-    <t>Gold Strike.CEL</t>
-  </si>
-  <si>
     <t>Discovery.CEL</t>
   </si>
   <si>
@@ -4892,33 +4739,12 @@
     <t>Fairbelle.CEL</t>
   </si>
   <si>
-    <t>Winter Banana.CEL</t>
-  </si>
-  <si>
-    <t>Brabantse Bellefleur.CEL</t>
-  </si>
-  <si>
-    <t>Twenty Ounce.CEL</t>
-  </si>
-  <si>
     <t>Ballarat.CEL</t>
   </si>
   <si>
-    <t>Beautiful Arcade.CEL</t>
-  </si>
-  <si>
     <t>Hawthornden.CEL</t>
   </si>
   <si>
-    <t>Blenhiem Orange.CEL</t>
-  </si>
-  <si>
-    <t>Monty's Surprise.CEL</t>
-  </si>
-  <si>
-    <t>Kidd's Orange.CEL</t>
-  </si>
-  <si>
     <t>Sunset.CEL</t>
   </si>
   <si>
@@ -4928,60 +4754,18 @@
     <t>Splendour.CEL</t>
   </si>
   <si>
-    <t>Gene Pitney.CEL</t>
-  </si>
-  <si>
-    <t>Sheppard Perfection.CEL</t>
-  </si>
-  <si>
-    <t>Rome Beauty.CEL</t>
-  </si>
-  <si>
-    <t>Scarlet Nonpareil.CEL</t>
-  </si>
-  <si>
     <t>Grenadier.CEL</t>
   </si>
   <si>
-    <t>Tower of Glamis.CEL</t>
-  </si>
-  <si>
-    <t>Red Astrachan.CEL</t>
-  </si>
-  <si>
-    <t>Rall's Janet.CEL</t>
-  </si>
-  <si>
-    <t>Sir Prize.CEL</t>
-  </si>
-  <si>
-    <t>Yellow Bellflower.CEL</t>
-  </si>
-  <si>
-    <t>Roja de Valle Benejama.CEL</t>
-  </si>
-  <si>
     <t>Shamrock.CEL</t>
   </si>
   <si>
-    <t>Malus aldenhanmi.CEL</t>
-  </si>
-  <si>
     <t>Washington.CEL</t>
   </si>
   <si>
-    <t>Granny Smith.CEL</t>
-  </si>
-  <si>
-    <t>Queen Mary.CEL</t>
-  </si>
-  <si>
     <t>Nonpareil.CEL</t>
   </si>
   <si>
-    <t>Nonetit Bastard.CEL</t>
-  </si>
-  <si>
     <t>Springdale.CEL</t>
   </si>
   <si>
@@ -4991,42 +4775,9 @@
     <t>Richared.CEL</t>
   </si>
   <si>
-    <t>Beauty of Kent.CEL</t>
-  </si>
-  <si>
     <t>Close.CEL</t>
   </si>
   <si>
-    <t>Woolbrook Pippin.CEL</t>
-  </si>
-  <si>
-    <t>Rosa du Perche.CEL</t>
-  </si>
-  <si>
-    <t>Monroes Favourite.CEL</t>
-  </si>
-  <si>
-    <t>Cornish Aromatic.CEL</t>
-  </si>
-  <si>
-    <t>Albany Beauty.CEL</t>
-  </si>
-  <si>
-    <t>C'Huero Ru Bien.CEL</t>
-  </si>
-  <si>
-    <t>Reinette du Canada.CEL</t>
-  </si>
-  <si>
-    <t>Black Twig.CEL</t>
-  </si>
-  <si>
-    <t>Belle Bonne.CEL</t>
-  </si>
-  <si>
-    <t>Golden Pippin.CEL</t>
-  </si>
-  <si>
     <t>Eklinville.CEL</t>
   </si>
   <si>
@@ -5036,129 +4787,51 @@
     <t>Cortland.CEL</t>
   </si>
   <si>
-    <t>Laxton's Superb.CEL</t>
-  </si>
-  <si>
-    <t>Scarlett Pimpernel.CEL</t>
-  </si>
-  <si>
-    <t>Jack Humm.CEL</t>
-  </si>
-  <si>
-    <t>Karmajin de Sonnaville.CEL</t>
-  </si>
-  <si>
-    <t>Lord Derby.CEL</t>
-  </si>
-  <si>
-    <t>Newtown Pippin.CEL</t>
-  </si>
-  <si>
-    <t>Bordes (cider).CEL</t>
-  </si>
-  <si>
     <t>Alice.CEL</t>
   </si>
   <si>
     <t>Priscilla.CEL</t>
   </si>
   <si>
-    <t>Bisquet (cider).CEL</t>
-  </si>
-  <si>
-    <t>Geheimrat Breuhahn.CEL</t>
-  </si>
-  <si>
-    <t>George Neale.CEL</t>
-  </si>
-  <si>
     <t>Lodi.CEL</t>
   </si>
   <si>
-    <t>Allen's Everlasting.CEL</t>
-  </si>
-  <si>
     <t>Fuji.CEL</t>
   </si>
   <si>
-    <t>Lord Wolseley .CEL</t>
-  </si>
-  <si>
     <t>Raritan.CEL</t>
   </si>
   <si>
-    <t>Esopus Spitzenburg.CEL</t>
-  </si>
-  <si>
     <t>Freyberg.CEL</t>
   </si>
   <si>
-    <t>Sweet Alford.CEL</t>
-  </si>
-  <si>
-    <t>Red Baron.CEL</t>
-  </si>
-  <si>
-    <t>Red Dougherty.CEL</t>
-  </si>
-  <si>
-    <t>Malus micromalus.CEL</t>
-  </si>
-  <si>
     <t>Salome.CEL</t>
   </si>
   <si>
     <t>Bonza.CEL</t>
   </si>
   <si>
-    <t>Black Prince.CEL</t>
-  </si>
-  <si>
     <t>Charlotte.CEL</t>
   </si>
   <si>
-    <t>Irish Peach.CEL</t>
-  </si>
-  <si>
     <t>Jonathan.CEL</t>
   </si>
   <si>
     <t>Chieftan.CEL</t>
   </si>
   <si>
-    <t>Worcester Pearmain.CEL</t>
-  </si>
-  <si>
     <t>Bismark.CEL</t>
   </si>
   <si>
     <t>Spartan.CEL</t>
   </si>
   <si>
-    <t>Bozena Nemcova.CEL</t>
-  </si>
-  <si>
-    <t>Golden Harvest.CEL</t>
-  </si>
-  <si>
-    <t>Saint Magdalen.CEL</t>
-  </si>
-  <si>
     <t>Mother.CEL</t>
   </si>
   <si>
     <t>Charden.CEL</t>
   </si>
   <si>
-    <t>M. robusta 5.CEL</t>
-  </si>
-  <si>
-    <t>Stemphered Pippin.CEL</t>
-  </si>
-  <si>
-    <t>Royal Gala.CEL</t>
-  </si>
-  <si>
     <t>Alkmene.CEL</t>
   </si>
   <si>
@@ -5174,9 +4847,6 @@
     <t>PremA129.CEL</t>
   </si>
   <si>
-    <t>M. baccata jackii.CEL</t>
-  </si>
-  <si>
     <t>A209R08T022.CEL</t>
   </si>
   <si>
@@ -5198,6 +4868,339 @@
     <t>PremA153.CEL</t>
   </si>
   <si>
+    <t>Woolbrook_Pippin.CEL</t>
+  </si>
+  <si>
+    <t>Worcester_Pearmain.CEL</t>
+  </si>
+  <si>
+    <t>Yellow_Bellflower.CEL</t>
+  </si>
+  <si>
+    <t>Albany_Beauty.CEL</t>
+  </si>
+  <si>
+    <t>Allen's_Everlasting.CEL</t>
+  </si>
+  <si>
+    <t>Alma_Pippin.CEL</t>
+  </si>
+  <si>
+    <t>Altainder_Plannkuchenapfel.CEL</t>
+  </si>
+  <si>
+    <t>Beautiful_Arcade.CEL</t>
+  </si>
+  <si>
+    <t>Beauty_of_Kent.CEL</t>
+  </si>
+  <si>
+    <t>Belle_Bonne.CEL</t>
+  </si>
+  <si>
+    <t>Belle_de_Boskoop.CEL</t>
+  </si>
+  <si>
+    <t>Besterfielder_Renette.CEL</t>
+  </si>
+  <si>
+    <t>Bisquet_(cider).CEL</t>
+  </si>
+  <si>
+    <t>Black_Prince.CEL</t>
+  </si>
+  <si>
+    <t>Black_Twig.CEL</t>
+  </si>
+  <si>
+    <t>Blenhiem_Orange.CEL</t>
+  </si>
+  <si>
+    <t>Bordes_(cider).CEL</t>
+  </si>
+  <si>
+    <t>Bozena_Nemcova.CEL</t>
+  </si>
+  <si>
+    <t>Brabantse_Bellefleur.CEL</t>
+  </si>
+  <si>
+    <t>Bramley's_Seedling.CEL</t>
+  </si>
+  <si>
+    <t>Calville_Blanc_d'Hiver.CEL</t>
+  </si>
+  <si>
+    <t>Cambridge_Pippin.CEL</t>
+  </si>
+  <si>
+    <t>Camoesa_De_Llobregat.CEL</t>
+  </si>
+  <si>
+    <t>C'Huero_Ru_Bien.CEL</t>
+  </si>
+  <si>
+    <t>Cornish_Aromatic.CEL</t>
+  </si>
+  <si>
+    <t>Egremont_Russet.CEL</t>
+  </si>
+  <si>
+    <t>Ellison's_Orange.CEL</t>
+  </si>
+  <si>
+    <t>Esopus_Spitzenburg.CEL</t>
+  </si>
+  <si>
+    <t>Fleuritard_Rouge.CEL</t>
+  </si>
+  <si>
+    <t>Flower_of_Kent.CEL</t>
+  </si>
+  <si>
+    <t>French_Crab.CEL</t>
+  </si>
+  <si>
+    <t>Geeveston_Fanny.CEL</t>
+  </si>
+  <si>
+    <t>Geheimrat_Breuhahn.CEL</t>
+  </si>
+  <si>
+    <t>Gene_Pitney.CEL</t>
+  </si>
+  <si>
+    <t>George_Neale.CEL</t>
+  </si>
+  <si>
+    <t>Glockenapfel_eckter.CEL</t>
+  </si>
+  <si>
+    <t>Gloria_Mundy.CEL</t>
+  </si>
+  <si>
+    <t>Gold_Strike.CEL</t>
+  </si>
+  <si>
+    <t>Golden_Harvest.CEL</t>
+  </si>
+  <si>
+    <t>Golden_Noble.CEL</t>
+  </si>
+  <si>
+    <t>Golden_Pippin.CEL</t>
+  </si>
+  <si>
+    <t>Golden_Russet.CEL</t>
+  </si>
+  <si>
+    <t>Granny_Smith.CEL</t>
+  </si>
+  <si>
+    <t>Green_Square.CEL</t>
+  </si>
+  <si>
+    <t>Grimes_Golden.CEL</t>
+  </si>
+  <si>
+    <t>Hajkovo_Muskatove.CEL</t>
+  </si>
+  <si>
+    <t>Irish_Peach.CEL</t>
+  </si>
+  <si>
+    <t>Jack_Humm.CEL</t>
+  </si>
+  <si>
+    <t>Jupp's_Russet.CEL</t>
+  </si>
+  <si>
+    <t>Karmajin_de_Sonnaville.CEL</t>
+  </si>
+  <si>
+    <t>Kentish_Fillbasket.CEL</t>
+  </si>
+  <si>
+    <t>Kidd's_Orange.CEL</t>
+  </si>
+  <si>
+    <t>Kingston_Black.CEL</t>
+  </si>
+  <si>
+    <t>Lady_Hamilton_Sth..CEL</t>
+  </si>
+  <si>
+    <t>Laxton's_Superb.CEL</t>
+  </si>
+  <si>
+    <t>Lord_Derby.CEL</t>
+  </si>
+  <si>
+    <t>Lord_Lambourne_.CEL</t>
+  </si>
+  <si>
+    <t>Lord_Wolseley_.CEL</t>
+  </si>
+  <si>
+    <t>M._baccata_jackii.CEL</t>
+  </si>
+  <si>
+    <t>M._robusta_5.CEL</t>
+  </si>
+  <si>
+    <t>Maggie_Grieve.CEL</t>
+  </si>
+  <si>
+    <t>Malus_aldenhanmi.CEL</t>
+  </si>
+  <si>
+    <t>Malus_boccata_gracilis.CEL</t>
+  </si>
+  <si>
+    <t>Malus_floribunda.CEL</t>
+  </si>
+  <si>
+    <t>Malus_kaido.CEL</t>
+  </si>
+  <si>
+    <t>Malus_micromalus.CEL</t>
+  </si>
+  <si>
+    <t>Malus_pumila_Niedzwetzkyana.CEL</t>
+  </si>
+  <si>
+    <t>Merton_Russet.CEL</t>
+  </si>
+  <si>
+    <t>Monroes_Favourite.CEL</t>
+  </si>
+  <si>
+    <t>Monty's_Surprise.CEL</t>
+  </si>
+  <si>
+    <t>Mother_in_Law.CEL</t>
+  </si>
+  <si>
+    <t>Nancy's_Favourite.CEL</t>
+  </si>
+  <si>
+    <t>Newtown_Pippin.CEL</t>
+  </si>
+  <si>
+    <t>Nonetit_Bastard.CEL</t>
+  </si>
+  <si>
+    <t>Northern_Spy.CEL</t>
+  </si>
+  <si>
+    <t>Peasgood_Nonsuch.CEL</t>
+  </si>
+  <si>
+    <t>Queen_Mary.CEL</t>
+  </si>
+  <si>
+    <t>Rall's_Janet.CEL</t>
+  </si>
+  <si>
+    <t>Red_Astrachan.CEL</t>
+  </si>
+  <si>
+    <t>Red_Baron.CEL</t>
+  </si>
+  <si>
+    <t>Red_Dougherty.CEL</t>
+  </si>
+  <si>
+    <t>Reinette_du_Canada.CEL</t>
+  </si>
+  <si>
+    <t>Rhode_Island_Greening.CEL</t>
+  </si>
+  <si>
+    <t>Ribston_Pippin.CEL</t>
+  </si>
+  <si>
+    <t>Roja_de_Valle_Benejama.CEL</t>
+  </si>
+  <si>
+    <t>Rome_Beauty.CEL</t>
+  </si>
+  <si>
+    <t>Rosa_du_Perche.CEL</t>
+  </si>
+  <si>
+    <t>Royal_Gala.CEL</t>
+  </si>
+  <si>
+    <t>Saint_Magdalen.CEL</t>
+  </si>
+  <si>
+    <t>Scarlet_Nonpareil.CEL</t>
+  </si>
+  <si>
+    <t>Scarlett_Pearmain.CEL</t>
+  </si>
+  <si>
+    <t>Scarlett_Pimpernel.CEL</t>
+  </si>
+  <si>
+    <t>Sheppard_Perfection.CEL</t>
+  </si>
+  <si>
+    <t>Shorland_Queen.CEL</t>
+  </si>
+  <si>
+    <t>Sintax_Alkmene.CEL</t>
+  </si>
+  <si>
+    <t>Sir_Prize.CEL</t>
+  </si>
+  <si>
+    <t>Springrove_Codlin.CEL</t>
+  </si>
+  <si>
+    <t>Stayman's_Winesap.CEL</t>
+  </si>
+  <si>
+    <t>Stemphered_Pippin.CEL</t>
+  </si>
+  <si>
+    <t>Sweet_Alford.CEL</t>
+  </si>
+  <si>
+    <t>The_Doctor.CEL</t>
+  </si>
+  <si>
+    <t>Tower_of_Glamis.CEL</t>
+  </si>
+  <si>
+    <t>Twenty_Ounce.CEL</t>
+  </si>
+  <si>
+    <t>Tydeman’s_Late_Orange.CEL</t>
+  </si>
+  <si>
+    <t>Tydeman's_Early_Worcester.CEL</t>
+  </si>
+  <si>
+    <t>Uster_Gloria.CEL</t>
+  </si>
+  <si>
+    <t>Warner's_King.CEL</t>
+  </si>
+  <si>
+    <t>William_Anderson.CEL</t>
+  </si>
+  <si>
+    <t>William_Crump.CEL</t>
+  </si>
+  <si>
+    <t>Wilmont_Russet.CEL</t>
+  </si>
+  <si>
+    <t>Winter_Banana.CEL</t>
+  </si>
+  <si>
     <t>A101R08T016_rep.CEL</t>
   </si>
   <si>
@@ -5216,34 +5219,31 @@
     <t>A569R10T144_rep.CEL</t>
   </si>
   <si>
-    <t>M. baccata jackii_rep.CEL</t>
-  </si>
-  <si>
-    <t>M. robusta 5_rep.CEL</t>
-  </si>
-  <si>
-    <t>M. robusta 5_rep2.CEL</t>
+    <t>M._baccata_jackii_rep.CEL</t>
+  </si>
+  <si>
+    <t>Tydeman's_Late_Orange_rep.CEL</t>
+  </si>
+  <si>
+    <t>Sciros_rep.CEL</t>
+  </si>
+  <si>
+    <t>PremA153_rep.CEL</t>
+  </si>
+  <si>
+    <t>PremA129_rep.CEL</t>
   </si>
   <si>
     <t>M9_rep.CEL</t>
   </si>
   <si>
-    <t>Malus pumila Niedzwetzkyana.CEL</t>
-  </si>
-  <si>
-    <t>PremA129_rep.CEL</t>
-  </si>
-  <si>
-    <t>PremA153_rep.CEL</t>
-  </si>
-  <si>
-    <t>Sciros_rep.CEL</t>
+    <t>M._robusta_5_rep.CEL</t>
   </si>
   <si>
     <t>Sciros_rep2.CEL</t>
   </si>
   <si>
-    <t>Tydeman's Late Orange_rep.CEL</t>
+    <t>M._robusta_5_rep2.CEL</t>
   </si>
 </sst>
 </file>
@@ -5669,9 +5669,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F337"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H192" sqref="H192"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5721,7 +5721,7 @@
         <v>1524</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>1714</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -5741,7 +5741,7 @@
         <v>1531</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -5761,7 +5761,7 @@
         <v>1523</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>1713</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -5781,7 +5781,7 @@
         <v>1535</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -5801,7 +5801,7 @@
         <v>1532</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>1718</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -5821,7 +5821,7 @@
         <v>1541</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -5841,7 +5841,7 @@
         <v>1519</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>1710</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -5861,7 +5861,7 @@
         <v>1538</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -5881,7 +5881,7 @@
         <v>1529</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>1717</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -5901,7 +5901,7 @@
         <v>1536</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -5921,7 +5921,7 @@
         <v>1526</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>1715</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5941,7 +5941,7 @@
         <v>1534</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -5961,7 +5961,7 @@
         <v>1350</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -5981,7 +5981,7 @@
         <v>1420</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>1616</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -6001,7 +6001,7 @@
         <v>1514</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>1709</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -6021,7 +6021,7 @@
         <v>1462</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>1657</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -6041,7 +6041,7 @@
         <v>1478</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>1673</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -6061,7 +6061,7 @@
         <v>1512</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>1707</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -6081,7 +6081,7 @@
         <v>1484</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>1679</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -6101,7 +6101,7 @@
         <v>1414</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>1610</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -6121,7 +6121,7 @@
         <v>1362</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>1559</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -6141,7 +6141,7 @@
         <v>1380</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>1577</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -6161,7 +6161,7 @@
         <v>1425</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>1621</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -6181,7 +6181,7 @@
         <v>1426</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>1622</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -6201,7 +6201,7 @@
         <v>1456</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>1651</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -6221,7 +6221,7 @@
         <v>1466</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>1661</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
@@ -6241,7 +6241,7 @@
         <v>1394</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>1590</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -6261,7 +6261,7 @@
         <v>1360</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>1557</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -6281,7 +6281,7 @@
         <v>1502</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>1697</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -6301,7 +6301,7 @@
         <v>1480</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>1675</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -6321,7 +6321,7 @@
         <v>1496</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>1691</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -6341,7 +6341,7 @@
         <v>1465</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>1660</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -6361,7 +6361,7 @@
         <v>1419</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>1615</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -6381,7 +6381,7 @@
         <v>1428</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -6401,7 +6401,7 @@
         <v>1495</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>1690</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -6421,7 +6421,7 @@
         <v>1477</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>1672</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
@@ -6441,7 +6441,7 @@
         <v>1504</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>1699</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -6461,7 +6461,7 @@
         <v>1423</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>1619</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -6481,7 +6481,7 @@
         <v>1397</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>1593</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -6501,7 +6501,7 @@
         <v>1408</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>1604</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -6521,7 +6521,7 @@
         <v>1391</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>1587</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -6541,7 +6541,7 @@
         <v>1356</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>1553</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -6561,7 +6561,7 @@
         <v>1404</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>1600</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -6581,7 +6581,7 @@
         <v>1379</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>1576</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -6601,7 +6601,7 @@
         <v>1508</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>1703</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
@@ -6621,7 +6621,7 @@
         <v>1497</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>1692</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -6641,7 +6641,7 @@
         <v>1500</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>1695</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -6661,7 +6661,7 @@
         <v>1463</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>1658</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -6681,7 +6681,7 @@
         <v>1409</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>1605</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -6701,7 +6701,7 @@
         <v>1457</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>1652</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -6721,7 +6721,7 @@
         <v>1461</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>1656</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -6741,7 +6741,7 @@
         <v>1470</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>1665</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -6761,7 +6761,7 @@
         <v>1401</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>1597</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -6781,7 +6781,7 @@
         <v>1369</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>1566</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -6801,7 +6801,7 @@
         <v>1418</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>1614</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -6821,7 +6821,7 @@
         <v>1381</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>1578</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -6841,7 +6841,7 @@
         <v>1468</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>1663</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -6861,7 +6861,7 @@
         <v>1384</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>1580</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -6881,7 +6881,7 @@
         <v>1488</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>1683</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -6901,7 +6901,7 @@
         <v>1421</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>1617</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -6921,7 +6921,7 @@
         <v>1367</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>1564</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -6941,7 +6941,7 @@
         <v>1392</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>1588</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -6961,7 +6961,7 @@
         <v>1359</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>1556</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -6981,7 +6981,7 @@
         <v>1489</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>1684</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -7001,7 +7001,7 @@
         <v>1485</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>1680</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -7021,7 +7021,7 @@
         <v>1365</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>1562</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -7041,7 +7041,7 @@
         <v>1481</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>1676</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
@@ -7061,7 +7061,7 @@
         <v>1435</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>1630</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -7081,7 +7081,7 @@
         <v>1482</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>1677</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -7101,7 +7101,7 @@
         <v>1517</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
@@ -7121,7 +7121,7 @@
         <v>1354</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>1551</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -7141,7 +7141,7 @@
         <v>1415</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>1611</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -7161,7 +7161,7 @@
         <v>1417</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>1613</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -7181,7 +7181,7 @@
         <v>1505</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>1700</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -7201,7 +7201,7 @@
         <v>1386</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>1582</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
@@ -7221,7 +7221,7 @@
         <v>1467</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>1662</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -7241,7 +7241,7 @@
         <v>1351</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>1548</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -7261,7 +7261,7 @@
         <v>1449</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>1644</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
@@ -7281,7 +7281,7 @@
         <v>1366</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>1563</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
@@ -7301,7 +7301,7 @@
         <v>1439</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>1634</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -7321,7 +7321,7 @@
         <v>1375</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>1572</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
@@ -7341,7 +7341,7 @@
         <v>1518</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>1546</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -7361,7 +7361,7 @@
         <v>1427</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>1623</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -7381,7 +7381,7 @@
         <v>1376</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>1573</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
@@ -7401,7 +7401,7 @@
         <v>1498</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>1693</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -7421,7 +7421,7 @@
         <v>1473</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>1668</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -7441,7 +7441,7 @@
         <v>1513</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>1708</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
@@ -7461,7 +7461,7 @@
         <v>1499</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>1694</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -7481,7 +7481,7 @@
         <v>1416</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>1612</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -7501,7 +7501,7 @@
         <v>1474</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>1669</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
@@ -7521,7 +7521,7 @@
         <v>1388</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>1584</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -7541,7 +7541,7 @@
         <v>1430</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>1626</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -7561,7 +7561,7 @@
         <v>1355</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>1552</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -7581,7 +7581,7 @@
         <v>1399</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>1595</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -7601,7 +7601,7 @@
         <v>1471</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
@@ -7621,7 +7621,7 @@
         <v>1432</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>1628</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -7641,7 +7641,7 @@
         <v>1363</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>1560</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -7661,7 +7661,7 @@
         <v>1483</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>1678</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -7681,7 +7681,7 @@
         <v>1475</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>1670</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -7701,7 +7701,7 @@
         <v>1387</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>1583</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -7721,7 +7721,7 @@
         <v>1486</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>1681</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -7741,7 +7741,7 @@
         <v>1522</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>1712</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -7761,7 +7761,7 @@
         <v>1525</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -7781,7 +7781,7 @@
         <v>1509</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>1704</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -7801,7 +7801,7 @@
         <v>1530</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>1727</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -7821,7 +7821,7 @@
         <v>1539</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>1728</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -7841,7 +7841,7 @@
         <v>1527</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>1716</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -7861,7 +7861,7 @@
         <v>1537</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>1729</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -7881,7 +7881,7 @@
         <v>1390</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>1586</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -7901,7 +7901,7 @@
         <v>1447</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>1642</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -7921,7 +7921,7 @@
         <v>1385</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>1581</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -7941,7 +7941,7 @@
         <v>1396</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>1592</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -7961,7 +7961,7 @@
         <v>1368</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>1565</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -7981,7 +7981,7 @@
         <v>1493</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>1688</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -8001,7 +8001,7 @@
         <v>1434</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>1730</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -8021,7 +8021,7 @@
         <v>1389</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>1585</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -8041,7 +8041,7 @@
         <v>1515</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>1543</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -8061,7 +8061,7 @@
         <v>1460</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>1655</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -8081,7 +8081,7 @@
         <v>1429</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>1625</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -8101,7 +8101,7 @@
         <v>1400</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>1596</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -8121,7 +8121,7 @@
         <v>1507</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>1702</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -8141,7 +8141,7 @@
         <v>1371</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>1568</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -8161,7 +8161,7 @@
         <v>1476</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>1671</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -8181,7 +8181,7 @@
         <v>1452</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>1647</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -8201,7 +8201,7 @@
         <v>1451</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>1646</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -8221,7 +8221,7 @@
         <v>1357</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>1554</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -8241,7 +8241,7 @@
         <v>1516</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -8261,7 +8261,7 @@
         <v>1411</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>1607</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -8281,7 +8281,7 @@
         <v>1395</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>1591</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -8301,7 +8301,7 @@
         <v>1520</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>1711</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -8341,7 +8341,7 @@
         <v>1533</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>1719</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -8361,7 +8361,7 @@
         <v>1542</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -8381,7 +8381,7 @@
         <v>1454</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>1649</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -8401,7 +8401,7 @@
         <v>1479</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>1674</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -8421,7 +8421,7 @@
         <v>1450</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>1645</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -8441,7 +8441,7 @@
         <v>1442</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>1637</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -8461,7 +8461,7 @@
         <v>1487</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>1682</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -8481,7 +8481,7 @@
         <v>1441</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>1636</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -8501,7 +8501,7 @@
         <v>1491</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>1686</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -8521,7 +8521,7 @@
         <v>1492</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>1687</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -8541,7 +8541,7 @@
         <v>1464</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>1659</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -8561,7 +8561,7 @@
         <v>1407</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>1603</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -8581,7 +8581,7 @@
         <v>1405</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>1601</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -8601,7 +8601,7 @@
         <v>1455</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>1650</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -8621,7 +8621,7 @@
         <v>1445</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>1640</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -8641,7 +8641,7 @@
         <v>1469</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>1664</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -8661,7 +8661,7 @@
         <v>1437</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>1632</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -8681,7 +8681,7 @@
         <v>1459</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>1654</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -8701,7 +8701,7 @@
         <v>1352</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -8721,7 +8721,7 @@
         <v>1511</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>1706</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -8741,7 +8741,7 @@
         <v>1403</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>1599</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -8761,7 +8761,7 @@
         <v>1506</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -8781,7 +8781,7 @@
         <v>1494</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>1689</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -8801,7 +8801,7 @@
         <v>1438</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>1633</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -8821,7 +8821,7 @@
         <v>1410</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>1606</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -8841,7 +8841,7 @@
         <v>1472</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>1667</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
@@ -8861,7 +8861,7 @@
         <v>1413</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>1609</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
@@ -8881,7 +8881,7 @@
         <v>1521</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -8921,7 +8921,7 @@
         <v>1446</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>1641</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -8941,7 +8941,7 @@
         <v>1436</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>1631</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -8961,7 +8961,7 @@
         <v>1372</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>1569</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -8981,7 +8981,7 @@
         <v>1398</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>1594</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -9001,7 +9001,7 @@
         <v>1443</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>1638</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -9021,7 +9021,7 @@
         <v>1503</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>1698</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -9041,7 +9041,7 @@
         <v>1370</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>1567</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -9061,7 +9061,7 @@
         <v>1433</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>1629</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -9081,7 +9081,7 @@
         <v>1453</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>1648</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -9101,7 +9101,7 @@
         <v>1358</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>1555</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -9121,7 +9121,7 @@
         <v>1402</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>1598</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -9141,7 +9141,7 @@
         <v>1364</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>1561</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
@@ -9161,7 +9161,7 @@
         <v>1510</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>1705</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -9181,7 +9181,7 @@
         <v>1377</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>1574</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -9201,7 +9201,7 @@
         <v>1431</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>1627</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -9221,7 +9221,7 @@
         <v>1490</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>1685</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -9241,7 +9241,7 @@
         <v>1378</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>1575</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -9261,7 +9261,7 @@
         <v>1440</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>1635</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -9281,7 +9281,7 @@
         <v>1424</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>1620</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -9301,7 +9301,7 @@
         <v>1382</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>1579</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -9321,7 +9321,7 @@
         <v>1406</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>1602</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -9341,7 +9341,7 @@
         <v>1383</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>1735</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -9361,7 +9361,7 @@
         <v>1361</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>1558</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -9381,7 +9381,7 @@
         <v>1374</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>1571</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
@@ -9401,7 +9401,7 @@
         <v>1448</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>1643</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -9421,7 +9421,7 @@
         <v>1412</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>1608</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
@@ -9441,7 +9441,7 @@
         <v>1393</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>1589</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
@@ -9461,7 +9461,7 @@
         <v>1373</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>1570</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
@@ -9481,7 +9481,7 @@
         <v>1353</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
@@ -9501,7 +9501,7 @@
         <v>1422</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>1618</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
@@ -9521,7 +9521,7 @@
         <v>1458</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>1653</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
@@ -9541,7 +9541,7 @@
         <v>1501</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>1696</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
@@ -9561,7 +9561,7 @@
         <v>1444</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>1639</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">

--- a/File Naming.xlsx
+++ b/File Naming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\curly\Desktop\Apple Genotyping\Experiments\Renaming Sample Labels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDB1EE2-BEC4-4A50-9694-8E0CA74029BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F80AEC8-C1D7-4153-AF7B-A27C6A4E68DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{3491D669-C83C-4979-B15B-06B44BE9C919}"/>
   </bookViews>
@@ -5177,9 +5177,6 @@
     <t>Twenty_Ounce.CEL</t>
   </si>
   <si>
-    <t>Tydeman’s_Late_Orange.CEL</t>
-  </si>
-  <si>
     <t>Tydeman's_Early_Worcester.CEL</t>
   </si>
   <si>
@@ -5244,6 +5241,9 @@
   </si>
   <si>
     <t>M._robusta_5_rep2.CEL</t>
+  </si>
+  <si>
+    <t>Tydeman's_Late_Orange.CEL</t>
   </si>
 </sst>
 </file>
@@ -5670,8 +5670,8 @@
   <dimension ref="A1:F337"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F181" sqref="F181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5741,7 +5741,7 @@
         <v>1531</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -5781,7 +5781,7 @@
         <v>1535</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -5821,7 +5821,7 @@
         <v>1541</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -5861,7 +5861,7 @@
         <v>1538</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -5901,7 +5901,7 @@
         <v>1536</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -5941,7 +5941,7 @@
         <v>1534</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -7761,7 +7761,7 @@
         <v>1525</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -7801,7 +7801,7 @@
         <v>1530</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -7821,7 +7821,7 @@
         <v>1539</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -7861,7 +7861,7 @@
         <v>1537</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -8321,7 +8321,7 @@
         <v>1528</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -8361,7 +8361,7 @@
         <v>1542</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -8881,7 +8881,7 @@
         <v>1521</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -8901,7 +8901,7 @@
         <v>1540</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -9301,7 +9301,7 @@
         <v>1382</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>1713</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -9321,7 +9321,7 @@
         <v>1406</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -9341,7 +9341,7 @@
         <v>1383</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -9361,7 +9361,7 @@
         <v>1361</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -9381,7 +9381,7 @@
         <v>1374</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
@@ -9421,7 +9421,7 @@
         <v>1412</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
@@ -9441,7 +9441,7 @@
         <v>1393</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
@@ -9461,7 +9461,7 @@
         <v>1373</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
@@ -9501,7 +9501,7 @@
         <v>1422</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">

--- a/File Naming.xlsx
+++ b/File Naming.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\curly\Desktop\Apple Genotyping\Experiments\Renaming Sample Labels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\curly\Desktop\Apple Genotyping\Methods\Renaming Sample Labels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E96E0A-53D9-4CB3-AB03-E87405F8754D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C7067B-57B6-4709-8455-466557CC75CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{3491D669-C83C-4979-B15B-06B44BE9C919}"/>
+    <workbookView xWindow="-23040" yWindow="4440" windowWidth="23040" windowHeight="12120" xr2:uid="{3491D669-C83C-4979-B15B-06B44BE9C919}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -5003,9 +5003,6 @@
     <t>Jupp's_Russet.CEL</t>
   </si>
   <si>
-    <t>Karmajin_de_Sonnaville.CEL</t>
-  </si>
-  <si>
     <t>Kentish_Fillbasket.CEL</t>
   </si>
   <si>
@@ -5768,12 +5765,6 @@
     <t>Jupp's_Russet.nexus.cnv.txt</t>
   </si>
   <si>
-    <t>Karmajin_de_Sonnaville.txt</t>
-  </si>
-  <si>
-    <t>Karmajin_de_Sonnaville.nexus.cnv.txt</t>
-  </si>
-  <si>
     <t>Kentish_Fillbasket.txt</t>
   </si>
   <si>
@@ -6396,6 +6387,15 @@
   </si>
   <si>
     <t>Gen_New</t>
+  </si>
+  <si>
+    <t>Karmijn_de_Sonnaville.CEL</t>
+  </si>
+  <si>
+    <t>Karmijn_de_Sonnaville.txt</t>
+  </si>
+  <si>
+    <t>Karmijn_de_Sonnaville.nexus.cnv.txt</t>
   </si>
 </sst>
 </file>
@@ -6824,8 +6824,8 @@
   <dimension ref="A1:F530"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <pane ySplit="1" topLeftCell="A410" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D427" sqref="D427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6839,10 +6839,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>2119</v>
+        <v>2116</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>672</v>
@@ -11757,10 +11757,10 @@
         <v>1600</v>
       </c>
       <c r="C338" s="2" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D338" s="2" t="s">
         <v>1732</v>
-      </c>
-      <c r="D338" s="2" t="s">
-        <v>1733</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
@@ -11768,13 +11768,13 @@
         <v>1527</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C339" s="2" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D339" s="2" t="s">
         <v>1734</v>
-      </c>
-      <c r="D339" s="2" t="s">
-        <v>1735</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
@@ -11785,10 +11785,10 @@
         <v>1599</v>
       </c>
       <c r="C340" s="2" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D340" s="2" t="s">
         <v>1736</v>
-      </c>
-      <c r="D340" s="2" t="s">
-        <v>1737</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
@@ -11796,13 +11796,13 @@
         <v>1531</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="C341" s="2" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D341" s="2" t="s">
         <v>1738</v>
-      </c>
-      <c r="D341" s="2" t="s">
-        <v>1739</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
@@ -11813,10 +11813,10 @@
         <v>1604</v>
       </c>
       <c r="C342" s="2" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D342" s="2" t="s">
         <v>1740</v>
-      </c>
-      <c r="D342" s="2" t="s">
-        <v>1741</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
@@ -11824,13 +11824,13 @@
         <v>1537</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="C343" s="2" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D343" s="2" t="s">
         <v>1742</v>
-      </c>
-      <c r="D343" s="2" t="s">
-        <v>1743</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
@@ -11841,10 +11841,10 @@
         <v>1597</v>
       </c>
       <c r="C344" s="2" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D344" s="2" t="s">
         <v>1744</v>
-      </c>
-      <c r="D344" s="2" t="s">
-        <v>1745</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
@@ -11852,13 +11852,13 @@
         <v>1534</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="C345" s="2" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D345" s="2" t="s">
         <v>1746</v>
-      </c>
-      <c r="D345" s="2" t="s">
-        <v>1747</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
@@ -11869,10 +11869,10 @@
         <v>1603</v>
       </c>
       <c r="C346" s="2" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D346" s="2" t="s">
         <v>1748</v>
-      </c>
-      <c r="D346" s="2" t="s">
-        <v>1749</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
@@ -11880,13 +11880,13 @@
         <v>1532</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="C347" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D347" s="2" t="s">
         <v>1750</v>
-      </c>
-      <c r="D347" s="2" t="s">
-        <v>1751</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
@@ -11897,10 +11897,10 @@
         <v>1601</v>
       </c>
       <c r="C348" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D348" s="2" t="s">
         <v>1752</v>
-      </c>
-      <c r="D348" s="2" t="s">
-        <v>1753</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
@@ -11908,13 +11908,13 @@
         <v>1530</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="C349" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D349" s="2" t="s">
         <v>1754</v>
-      </c>
-      <c r="D349" s="2" t="s">
-        <v>1755</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
@@ -11925,10 +11925,10 @@
         <v>1541</v>
       </c>
       <c r="C350" s="2" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D350" s="2" t="s">
         <v>1756</v>
-      </c>
-      <c r="D350" s="2" t="s">
-        <v>1757</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
@@ -11939,10 +11939,10 @@
         <v>1561</v>
       </c>
       <c r="C351" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D351" s="2" t="s">
         <v>1758</v>
-      </c>
-      <c r="D351" s="2" t="s">
-        <v>1759</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
@@ -11953,10 +11953,10 @@
         <v>1596</v>
       </c>
       <c r="C352" s="2" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D352" s="2" t="s">
         <v>1760</v>
-      </c>
-      <c r="D352" s="2" t="s">
-        <v>1761</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
@@ -11967,10 +11967,10 @@
         <v>1609</v>
       </c>
       <c r="C353" s="2" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D353" s="2" t="s">
         <v>1762</v>
-      </c>
-      <c r="D353" s="2" t="s">
-        <v>1763</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
@@ -11981,10 +11981,10 @@
         <v>1579</v>
       </c>
       <c r="C354" s="2" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D354" s="2" t="s">
         <v>1764</v>
-      </c>
-      <c r="D354" s="2" t="s">
-        <v>1765</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
@@ -11995,10 +11995,10 @@
         <v>1594</v>
       </c>
       <c r="C355" s="2" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D355" s="2" t="s">
         <v>1766</v>
-      </c>
-      <c r="D355" s="2" t="s">
-        <v>1767</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
@@ -12009,10 +12009,10 @@
         <v>1610</v>
       </c>
       <c r="C356" s="2" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D356" s="2" t="s">
         <v>1768</v>
-      </c>
-      <c r="D356" s="2" t="s">
-        <v>1769</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
@@ -12023,10 +12023,10 @@
         <v>1611</v>
       </c>
       <c r="C357" s="2" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D357" s="2" t="s">
         <v>1770</v>
-      </c>
-      <c r="D357" s="2" t="s">
-        <v>1771</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
@@ -12037,10 +12037,10 @@
         <v>1612</v>
       </c>
       <c r="C358" s="2" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D358" s="2" t="s">
         <v>1772</v>
-      </c>
-      <c r="D358" s="2" t="s">
-        <v>1773</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
@@ -12051,10 +12051,10 @@
         <v>1550</v>
       </c>
       <c r="C359" s="2" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D359" s="2" t="s">
         <v>1774</v>
-      </c>
-      <c r="D359" s="2" t="s">
-        <v>1775</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
@@ -12065,10 +12065,10 @@
         <v>1563</v>
       </c>
       <c r="C360" s="2" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D360" s="2" t="s">
         <v>1776</v>
-      </c>
-      <c r="D360" s="2" t="s">
-        <v>1777</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
@@ -12079,10 +12079,10 @@
         <v>1613</v>
       </c>
       <c r="C361" s="2" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D361" s="2" t="s">
         <v>1778</v>
-      </c>
-      <c r="D361" s="2" t="s">
-        <v>1779</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
@@ -12093,10 +12093,10 @@
         <v>1614</v>
       </c>
       <c r="C362" s="2" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D362" s="2" t="s">
         <v>1780</v>
-      </c>
-      <c r="D362" s="2" t="s">
-        <v>1781</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
@@ -12107,10 +12107,10 @@
         <v>1615</v>
       </c>
       <c r="C363" s="2" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D363" s="2" t="s">
         <v>1782</v>
-      </c>
-      <c r="D363" s="2" t="s">
-        <v>1783</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
@@ -12121,10 +12121,10 @@
         <v>1616</v>
       </c>
       <c r="C364" s="2" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D364" s="2" t="s">
         <v>1784</v>
-      </c>
-      <c r="D364" s="2" t="s">
-        <v>1785</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
@@ -12135,10 +12135,10 @@
         <v>1617</v>
       </c>
       <c r="C365" s="2" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D365" s="2" t="s">
         <v>1786</v>
-      </c>
-      <c r="D365" s="2" t="s">
-        <v>1787</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
@@ -12149,10 +12149,10 @@
         <v>1590</v>
       </c>
       <c r="C366" s="2" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D366" s="2" t="s">
         <v>1788</v>
-      </c>
-      <c r="D366" s="2" t="s">
-        <v>1789</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
@@ -12163,10 +12163,10 @@
         <v>1618</v>
       </c>
       <c r="C367" s="2" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D367" s="2" t="s">
         <v>1790</v>
-      </c>
-      <c r="D367" s="2" t="s">
-        <v>1791</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
@@ -12177,10 +12177,10 @@
         <v>1619</v>
       </c>
       <c r="C368" s="2" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D368" s="2" t="s">
         <v>1792</v>
-      </c>
-      <c r="D368" s="2" t="s">
-        <v>1793</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
@@ -12191,10 +12191,10 @@
         <v>1620</v>
       </c>
       <c r="C369" s="2" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D369" s="2" t="s">
         <v>1794</v>
-      </c>
-      <c r="D369" s="2" t="s">
-        <v>1795</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
@@ -12205,10 +12205,10 @@
         <v>1560</v>
       </c>
       <c r="C370" s="2" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D370" s="2" t="s">
         <v>1796</v>
-      </c>
-      <c r="D370" s="2" t="s">
-        <v>1797</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
@@ -12219,10 +12219,10 @@
         <v>1621</v>
       </c>
       <c r="C371" s="2" t="s">
+        <v>1797</v>
+      </c>
+      <c r="D371" s="2" t="s">
         <v>1798</v>
-      </c>
-      <c r="D371" s="2" t="s">
-        <v>1799</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
@@ -12233,10 +12233,10 @@
         <v>1586</v>
       </c>
       <c r="C372" s="2" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D372" s="2" t="s">
         <v>1800</v>
-      </c>
-      <c r="D372" s="2" t="s">
-        <v>1801</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
@@ -12247,10 +12247,10 @@
         <v>1622</v>
       </c>
       <c r="C373" s="2" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D373" s="2" t="s">
         <v>1802</v>
-      </c>
-      <c r="D373" s="2" t="s">
-        <v>1803</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
@@ -12261,10 +12261,10 @@
         <v>1623</v>
       </c>
       <c r="C374" s="2" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D374" s="2" t="s">
         <v>1804</v>
-      </c>
-      <c r="D374" s="2" t="s">
-        <v>1805</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
@@ -12275,10 +12275,10 @@
         <v>1624</v>
       </c>
       <c r="C375" s="2" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D375" s="2" t="s">
         <v>1806</v>
-      </c>
-      <c r="D375" s="2" t="s">
-        <v>1807</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
@@ -12289,10 +12289,10 @@
         <v>1625</v>
       </c>
       <c r="C376" s="2" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D376" s="2" t="s">
         <v>1808</v>
-      </c>
-      <c r="D376" s="2" t="s">
-        <v>1809</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
@@ -12303,10 +12303,10 @@
         <v>1555</v>
       </c>
       <c r="C377" s="2" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D377" s="2" t="s">
         <v>1810</v>
-      </c>
-      <c r="D377" s="2" t="s">
-        <v>1811</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
@@ -12317,10 +12317,10 @@
         <v>1626</v>
       </c>
       <c r="C378" s="2" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D378" s="2" t="s">
         <v>1812</v>
-      </c>
-      <c r="D378" s="2" t="s">
-        <v>1813</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
@@ -12331,10 +12331,10 @@
         <v>1627</v>
       </c>
       <c r="C379" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D379" s="2" t="s">
         <v>1814</v>
-      </c>
-      <c r="D379" s="2" t="s">
-        <v>1815</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
@@ -12345,10 +12345,10 @@
         <v>1628</v>
       </c>
       <c r="C380" s="2" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D380" s="2" t="s">
         <v>1816</v>
-      </c>
-      <c r="D380" s="2" t="s">
-        <v>1817</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
@@ -12359,10 +12359,10 @@
         <v>1549</v>
       </c>
       <c r="C381" s="2" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D381" s="2" t="s">
         <v>1818</v>
-      </c>
-      <c r="D381" s="2" t="s">
-        <v>1819</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
@@ -12373,10 +12373,10 @@
         <v>1593</v>
       </c>
       <c r="C382" s="2" t="s">
+        <v>1819</v>
+      </c>
+      <c r="D382" s="2" t="s">
         <v>1820</v>
-      </c>
-      <c r="D382" s="2" t="s">
-        <v>1821</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
@@ -12387,10 +12387,10 @@
         <v>1587</v>
       </c>
       <c r="C383" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D383" s="2" t="s">
         <v>1822</v>
-      </c>
-      <c r="D383" s="2" t="s">
-        <v>1823</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
@@ -12401,10 +12401,10 @@
         <v>1589</v>
       </c>
       <c r="C384" s="2" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D384" s="2" t="s">
         <v>1824</v>
-      </c>
-      <c r="D384" s="2" t="s">
-        <v>1825</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
@@ -12415,10 +12415,10 @@
         <v>1629</v>
       </c>
       <c r="C385" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D385" s="2" t="s">
         <v>1826</v>
-      </c>
-      <c r="D385" s="2" t="s">
-        <v>1827</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
@@ -12429,10 +12429,10 @@
         <v>1556</v>
       </c>
       <c r="C386" s="2" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D386" s="2" t="s">
         <v>1828</v>
-      </c>
-      <c r="D386" s="2" t="s">
-        <v>1829</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
@@ -12443,10 +12443,10 @@
         <v>1575</v>
       </c>
       <c r="C387" s="2" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D387" s="2" t="s">
         <v>1830</v>
-      </c>
-      <c r="D387" s="2" t="s">
-        <v>1831</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
@@ -12457,10 +12457,10 @@
         <v>1630</v>
       </c>
       <c r="C388" s="2" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D388" s="2" t="s">
         <v>1832</v>
-      </c>
-      <c r="D388" s="2" t="s">
-        <v>1833</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
@@ -12471,10 +12471,10 @@
         <v>1578</v>
       </c>
       <c r="C389" s="2" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D389" s="2" t="s">
         <v>1834</v>
-      </c>
-      <c r="D389" s="2" t="s">
-        <v>1835</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
@@ -12485,10 +12485,10 @@
         <v>1552</v>
       </c>
       <c r="C390" s="2" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D390" s="2" t="s">
         <v>1836</v>
-      </c>
-      <c r="D390" s="2" t="s">
-        <v>1837</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
@@ -12499,10 +12499,10 @@
         <v>1545</v>
       </c>
       <c r="C391" s="2" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D391" s="2" t="s">
         <v>1838</v>
-      </c>
-      <c r="D391" s="2" t="s">
-        <v>1839</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
@@ -12513,10 +12513,10 @@
         <v>1559</v>
       </c>
       <c r="C392" s="2" t="s">
+        <v>1839</v>
+      </c>
+      <c r="D392" s="2" t="s">
         <v>1840</v>
-      </c>
-      <c r="D392" s="2" t="s">
-        <v>1841</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
@@ -12527,10 +12527,10 @@
         <v>1631</v>
       </c>
       <c r="C393" s="2" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D393" s="2" t="s">
         <v>1842</v>
-      </c>
-      <c r="D393" s="2" t="s">
-        <v>1843</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
@@ -12541,10 +12541,10 @@
         <v>1576</v>
       </c>
       <c r="C394" s="2" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D394" s="2" t="s">
         <v>1844</v>
-      </c>
-      <c r="D394" s="2" t="s">
-        <v>1845</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
@@ -12555,10 +12555,10 @@
         <v>1632</v>
       </c>
       <c r="C395" s="2" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D395" s="2" t="s">
         <v>1846</v>
-      </c>
-      <c r="D395" s="2" t="s">
-        <v>1847</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
@@ -12569,10 +12569,10 @@
         <v>1633</v>
       </c>
       <c r="C396" s="2" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D396" s="2" t="s">
         <v>1848</v>
-      </c>
-      <c r="D396" s="2" t="s">
-        <v>1849</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
@@ -12583,10 +12583,10 @@
         <v>1562</v>
       </c>
       <c r="C397" s="2" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D397" s="2" t="s">
         <v>1850</v>
-      </c>
-      <c r="D397" s="2" t="s">
-        <v>1851</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
@@ -12597,10 +12597,10 @@
         <v>1634</v>
       </c>
       <c r="C398" s="2" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D398" s="2" t="s">
         <v>1852</v>
-      </c>
-      <c r="D398" s="2" t="s">
-        <v>1853</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
@@ -12611,10 +12611,10 @@
         <v>1635</v>
       </c>
       <c r="C399" s="2" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D399" s="2" t="s">
         <v>1854</v>
-      </c>
-      <c r="D399" s="2" t="s">
-        <v>1855</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
@@ -12625,10 +12625,10 @@
         <v>1636</v>
       </c>
       <c r="C400" s="2" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D400" s="2" t="s">
         <v>1856</v>
-      </c>
-      <c r="D400" s="2" t="s">
-        <v>1857</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
@@ -12639,10 +12639,10 @@
         <v>1584</v>
       </c>
       <c r="C401" s="2" t="s">
+        <v>1857</v>
+      </c>
+      <c r="D401" s="2" t="s">
         <v>1858</v>
-      </c>
-      <c r="D401" s="2" t="s">
-        <v>1859</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
@@ -12653,10 +12653,10 @@
         <v>1582</v>
       </c>
       <c r="C402" s="2" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D402" s="2" t="s">
         <v>1860</v>
-      </c>
-      <c r="D402" s="2" t="s">
-        <v>1861</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
@@ -12667,10 +12667,10 @@
         <v>1637</v>
       </c>
       <c r="C403" s="2" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D403" s="2" t="s">
         <v>1862</v>
-      </c>
-      <c r="D403" s="2" t="s">
-        <v>1863</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
@@ -12681,10 +12681,10 @@
         <v>1638</v>
       </c>
       <c r="C404" s="2" t="s">
+        <v>1863</v>
+      </c>
+      <c r="D404" s="2" t="s">
         <v>1864</v>
-      </c>
-      <c r="D404" s="2" t="s">
-        <v>1865</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
@@ -12695,10 +12695,10 @@
         <v>1639</v>
       </c>
       <c r="C405" s="2" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D405" s="2" t="s">
         <v>1866</v>
-      </c>
-      <c r="D405" s="2" t="s">
-        <v>1867</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
@@ -12709,10 +12709,10 @@
         <v>1640</v>
       </c>
       <c r="C406" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D406" s="2" t="s">
         <v>1868</v>
-      </c>
-      <c r="D406" s="2" t="s">
-        <v>1869</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
@@ -12723,10 +12723,10 @@
         <v>1540</v>
       </c>
       <c r="C407" s="2" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D407" s="2" t="s">
         <v>1870</v>
-      </c>
-      <c r="D407" s="2" t="s">
-        <v>1871</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
@@ -12737,10 +12737,10 @@
         <v>1641</v>
       </c>
       <c r="C408" s="2" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D408" s="2" t="s">
         <v>1872</v>
-      </c>
-      <c r="D408" s="2" t="s">
-        <v>1873</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
@@ -12751,10 +12751,10 @@
         <v>1642</v>
       </c>
       <c r="C409" s="2" t="s">
+        <v>1873</v>
+      </c>
+      <c r="D409" s="2" t="s">
         <v>1874</v>
-      </c>
-      <c r="D409" s="2" t="s">
-        <v>1875</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
@@ -12765,10 +12765,10 @@
         <v>1643</v>
       </c>
       <c r="C410" s="2" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D410" s="2" t="s">
         <v>1876</v>
-      </c>
-      <c r="D410" s="2" t="s">
-        <v>1877</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
@@ -12779,10 +12779,10 @@
         <v>1644</v>
       </c>
       <c r="C411" s="2" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D411" s="2" t="s">
         <v>1878</v>
-      </c>
-      <c r="D411" s="2" t="s">
-        <v>1879</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
@@ -12793,10 +12793,10 @@
         <v>1645</v>
       </c>
       <c r="C412" s="2" t="s">
+        <v>1879</v>
+      </c>
+      <c r="D412" s="2" t="s">
         <v>1880</v>
-      </c>
-      <c r="D412" s="2" t="s">
-        <v>1881</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
@@ -12807,10 +12807,10 @@
         <v>1646</v>
       </c>
       <c r="C413" s="2" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D413" s="2" t="s">
         <v>1882</v>
-      </c>
-      <c r="D413" s="2" t="s">
-        <v>1883</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
@@ -12821,10 +12821,10 @@
         <v>1647</v>
       </c>
       <c r="C414" s="2" t="s">
+        <v>1883</v>
+      </c>
+      <c r="D414" s="2" t="s">
         <v>1884</v>
-      </c>
-      <c r="D414" s="2" t="s">
-        <v>1885</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
@@ -12835,10 +12835,10 @@
         <v>1648</v>
       </c>
       <c r="C415" s="2" t="s">
+        <v>1885</v>
+      </c>
+      <c r="D415" s="2" t="s">
         <v>1886</v>
-      </c>
-      <c r="D415" s="2" t="s">
-        <v>1887</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
@@ -12849,10 +12849,10 @@
         <v>1649</v>
       </c>
       <c r="C416" s="2" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D416" s="2" t="s">
         <v>1888</v>
-      </c>
-      <c r="D416" s="2" t="s">
-        <v>1889</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
@@ -12863,10 +12863,10 @@
         <v>1568</v>
       </c>
       <c r="C417" s="2" t="s">
+        <v>1889</v>
+      </c>
+      <c r="D417" s="2" t="s">
         <v>1890</v>
-      </c>
-      <c r="D417" s="2" t="s">
-        <v>1891</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
@@ -12877,10 +12877,10 @@
         <v>1650</v>
       </c>
       <c r="C418" s="2" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D418" s="2" t="s">
         <v>1892</v>
-      </c>
-      <c r="D418" s="2" t="s">
-        <v>1893</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
@@ -12891,10 +12891,10 @@
         <v>1651</v>
       </c>
       <c r="C419" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="D419" s="2" t="s">
         <v>1894</v>
-      </c>
-      <c r="D419" s="2" t="s">
-        <v>1895</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
@@ -12905,10 +12905,10 @@
         <v>1564</v>
       </c>
       <c r="C420" s="2" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D420" s="2" t="s">
         <v>1896</v>
-      </c>
-      <c r="D420" s="2" t="s">
-        <v>1897</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
@@ -12919,10 +12919,10 @@
         <v>1547</v>
       </c>
       <c r="C421" s="2" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D421" s="2" t="s">
         <v>1898</v>
-      </c>
-      <c r="D421" s="2" t="s">
-        <v>1899</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
@@ -12933,10 +12933,10 @@
         <v>1652</v>
       </c>
       <c r="C422" s="2" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D422" s="2" t="s">
         <v>1900</v>
-      </c>
-      <c r="D422" s="2" t="s">
-        <v>1901</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
@@ -12947,10 +12947,10 @@
         <v>1653</v>
       </c>
       <c r="C423" s="2" t="s">
+        <v>1901</v>
+      </c>
+      <c r="D423" s="2" t="s">
         <v>1902</v>
-      </c>
-      <c r="D423" s="2" t="s">
-        <v>1903</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
@@ -12961,10 +12961,10 @@
         <v>1595</v>
       </c>
       <c r="C424" s="2" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D424" s="2" t="s">
         <v>1904</v>
-      </c>
-      <c r="D424" s="2" t="s">
-        <v>1905</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
@@ -12975,10 +12975,10 @@
         <v>1588</v>
       </c>
       <c r="C425" s="2" t="s">
+        <v>1905</v>
+      </c>
+      <c r="D425" s="2" t="s">
         <v>1906</v>
-      </c>
-      <c r="D425" s="2" t="s">
-        <v>1907</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
@@ -12989,10 +12989,10 @@
         <v>1654</v>
       </c>
       <c r="C426" s="2" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D426" s="2" t="s">
         <v>1908</v>
-      </c>
-      <c r="D426" s="2" t="s">
-        <v>1909</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
@@ -13000,13 +13000,13 @@
         <v>1470</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>1655</v>
+        <v>2117</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>1910</v>
+        <v>2118</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>1911</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
@@ -13014,13 +13014,13 @@
         <v>1384</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>1912</v>
+        <v>1909</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>1913</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
@@ -13028,13 +13028,13 @@
         <v>1426</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>1914</v>
+        <v>1911</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>1915</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
@@ -13042,13 +13042,13 @@
         <v>1351</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>1916</v>
+        <v>1913</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
@@ -13056,13 +13056,13 @@
         <v>1395</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>1918</v>
+        <v>1915</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>1919</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
@@ -13070,13 +13070,13 @@
         <v>1467</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>1920</v>
+        <v>1917</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>1921</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
@@ -13087,10 +13087,10 @@
         <v>1566</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>1922</v>
+        <v>1919</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>1923</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
@@ -13101,10 +13101,10 @@
         <v>1544</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>1924</v>
+        <v>1921</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>1925</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
@@ -13115,10 +13115,10 @@
         <v>1581</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>1926</v>
+        <v>1923</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>1927</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
@@ -13126,13 +13126,13 @@
         <v>1471</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>1928</v>
+        <v>1925</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>1929</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
@@ -13140,13 +13140,13 @@
         <v>1383</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>1930</v>
+        <v>1927</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>1931</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
@@ -13154,13 +13154,13 @@
         <v>1482</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
@@ -13168,13 +13168,13 @@
         <v>1518</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>1934</v>
+        <v>1931</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
@@ -13182,13 +13182,13 @@
         <v>1521</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>1937</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
@@ -13196,13 +13196,13 @@
         <v>1505</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>1938</v>
+        <v>1935</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>1939</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
@@ -13210,13 +13210,13 @@
         <v>1526</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>1940</v>
+        <v>1937</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>1941</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
@@ -13224,13 +13224,13 @@
         <v>1535</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>1942</v>
+        <v>1939</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>1943</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
@@ -13241,10 +13241,10 @@
         <v>1602</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>1944</v>
+        <v>1941</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>1945</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
@@ -13252,13 +13252,13 @@
         <v>1533</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>1946</v>
+        <v>1943</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>1947</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
@@ -13266,13 +13266,13 @@
         <v>1386</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>1948</v>
+        <v>1945</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>1949</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
@@ -13280,13 +13280,13 @@
         <v>1443</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>1950</v>
+        <v>1947</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>1951</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
@@ -13294,13 +13294,13 @@
         <v>1381</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>1952</v>
+        <v>1949</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>1953</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
@@ -13308,13 +13308,13 @@
         <v>1392</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
@@ -13322,13 +13322,13 @@
         <v>1364</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>1956</v>
+        <v>1953</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
@@ -13336,13 +13336,13 @@
         <v>1489</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
@@ -13350,13 +13350,13 @@
         <v>1430</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
@@ -13367,10 +13367,10 @@
         <v>1551</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
@@ -13378,13 +13378,13 @@
         <v>1511</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
@@ -13392,13 +13392,13 @@
         <v>1456</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
@@ -13406,13 +13406,13 @@
         <v>1425</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
@@ -13420,13 +13420,13 @@
         <v>1396</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
@@ -13437,10 +13437,10 @@
         <v>1592</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>1973</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
@@ -13448,13 +13448,13 @@
         <v>1367</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>1975</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
@@ -13462,13 +13462,13 @@
         <v>1472</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>1977</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
@@ -13476,13 +13476,13 @@
         <v>1448</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>1978</v>
+        <v>1975</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>1979</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
@@ -13493,10 +13493,10 @@
         <v>1571</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>1981</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
@@ -13504,13 +13504,13 @@
         <v>1353</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="C463" s="2" t="s">
-        <v>1982</v>
+        <v>1979</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>1983</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
@@ -13521,10 +13521,10 @@
         <v>1539</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>1985</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
@@ -13535,10 +13535,10 @@
         <v>1557</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
@@ -13546,13 +13546,13 @@
         <v>1391</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>1989</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
@@ -13563,10 +13563,10 @@
         <v>1598</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>1990</v>
+        <v>1987</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>1991</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
@@ -13574,13 +13574,13 @@
         <v>1524</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>1992</v>
+        <v>1989</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>1993</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
@@ -13591,10 +13591,10 @@
         <v>1605</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>1995</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
@@ -13602,13 +13602,13 @@
         <v>1538</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>1997</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.3">
@@ -13619,10 +13619,10 @@
         <v>1573</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>1999</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.3">
@@ -13633,10 +13633,10 @@
         <v>1580</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>2001</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
@@ -13644,13 +13644,13 @@
         <v>1446</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>2003</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
@@ -13658,13 +13658,13 @@
         <v>1438</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>2005</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.3">
@@ -13675,10 +13675,10 @@
         <v>1583</v>
       </c>
       <c r="C475" s="2" t="s">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>2007</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
@@ -13686,13 +13686,13 @@
         <v>1437</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.3">
@@ -13700,13 +13700,13 @@
         <v>1487</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>2011</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.3">
@@ -13714,13 +13714,13 @@
         <v>1488</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>2013</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.3">
@@ -13728,13 +13728,13 @@
         <v>1460</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="C479" s="2" t="s">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D479" s="2" t="s">
-        <v>2015</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.3">
@@ -13742,13 +13742,13 @@
         <v>1403</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>2017</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
@@ -13756,13 +13756,13 @@
         <v>1401</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.3">
@@ -13773,10 +13773,10 @@
         <v>1574</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>2021</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.3">
@@ -13784,13 +13784,13 @@
         <v>1441</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>2023</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.3">
@@ -13801,10 +13801,10 @@
         <v>1577</v>
       </c>
       <c r="C484" s="2" t="s">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D484" s="2" t="s">
-        <v>2025</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.3">
@@ -13812,13 +13812,13 @@
         <v>1433</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="C485" s="2" t="s">
-        <v>2026</v>
+        <v>2023</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>2027</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.3">
@@ -13826,13 +13826,13 @@
         <v>1455</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>2029</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
@@ -13843,10 +13843,10 @@
         <v>1542</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>2030</v>
+        <v>2027</v>
       </c>
       <c r="D487" s="2" t="s">
-        <v>2031</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.3">
@@ -13854,13 +13854,13 @@
         <v>1507</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="D488" s="2" t="s">
-        <v>2033</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.3">
@@ -13871,10 +13871,10 @@
         <v>1554</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>2034</v>
+        <v>2031</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>2035</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.3">
@@ -13882,13 +13882,13 @@
         <v>1502</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.3">
@@ -13899,10 +13899,10 @@
         <v>1585</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>2038</v>
+        <v>2035</v>
       </c>
       <c r="D491" s="2" t="s">
-        <v>2039</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.3">
@@ -13910,13 +13910,13 @@
         <v>1434</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>2040</v>
+        <v>2037</v>
       </c>
       <c r="D492" s="2" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.3">
@@ -13924,13 +13924,13 @@
         <v>1406</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>2042</v>
+        <v>2039</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>2043</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.3">
@@ -13938,13 +13938,13 @@
         <v>1468</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>2045</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.3">
@@ -13955,10 +13955,10 @@
         <v>1558</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>2046</v>
+        <v>2043</v>
       </c>
       <c r="D495" s="2" t="s">
-        <v>2047</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.3">
@@ -13966,13 +13966,13 @@
         <v>1517</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>2048</v>
+        <v>2045</v>
       </c>
       <c r="D496" s="2" t="s">
-        <v>2049</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.3">
@@ -13980,13 +13980,13 @@
         <v>1536</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>2050</v>
+        <v>2047</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>2051</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.3">
@@ -13997,10 +13997,10 @@
         <v>1569</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>2052</v>
+        <v>2049</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>2053</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.3">
@@ -14008,13 +14008,13 @@
         <v>1432</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>2054</v>
+        <v>2051</v>
       </c>
       <c r="D499" s="2" t="s">
-        <v>2055</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.3">
@@ -14022,13 +14022,13 @@
         <v>1368</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>2057</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.3">
@@ -14036,13 +14036,13 @@
         <v>1394</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>2058</v>
+        <v>2055</v>
       </c>
       <c r="D501" s="2" t="s">
-        <v>2059</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.3">
@@ -14050,13 +14050,13 @@
         <v>1439</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>2060</v>
+        <v>2057</v>
       </c>
       <c r="D502" s="2" t="s">
-        <v>2061</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.3">
@@ -14067,10 +14067,10 @@
         <v>1591</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>2062</v>
+        <v>2059</v>
       </c>
       <c r="D503" s="2" t="s">
-        <v>2063</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.3">
@@ -14081,10 +14081,10 @@
         <v>1546</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>2064</v>
+        <v>2061</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>2065</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.3">
@@ -14095,10 +14095,10 @@
         <v>1567</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>2066</v>
+        <v>2063</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.3">
@@ -14109,10 +14109,10 @@
         <v>1572</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>2068</v>
+        <v>2065</v>
       </c>
       <c r="D506" s="2" t="s">
-        <v>2069</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.3">
@@ -14120,13 +14120,13 @@
         <v>1354</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>2070</v>
+        <v>2067</v>
       </c>
       <c r="D507" s="2" t="s">
-        <v>2071</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.3">
@@ -14137,10 +14137,10 @@
         <v>1553</v>
       </c>
       <c r="C508" s="2" t="s">
-        <v>2072</v>
+        <v>2069</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>2073</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.3">
@@ -14148,13 +14148,13 @@
         <v>1360</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="C509" s="2" t="s">
-        <v>2074</v>
+        <v>2071</v>
       </c>
       <c r="D509" s="2" t="s">
-        <v>2075</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.3">
@@ -14162,13 +14162,13 @@
         <v>1506</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>2076</v>
+        <v>2073</v>
       </c>
       <c r="D510" s="2" t="s">
-        <v>2077</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.3">
@@ -14179,10 +14179,10 @@
         <v>1548</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>2078</v>
+        <v>2075</v>
       </c>
       <c r="D511" s="2" t="s">
-        <v>2079</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.3">
@@ -14193,10 +14193,10 @@
         <v>1565</v>
       </c>
       <c r="C512" s="2" t="s">
-        <v>2080</v>
+        <v>2077</v>
       </c>
       <c r="D512" s="2" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.3">
@@ -14204,13 +14204,13 @@
         <v>1486</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="C513" s="2" t="s">
-        <v>2082</v>
+        <v>2079</v>
       </c>
       <c r="D513" s="2" t="s">
-        <v>2083</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.3">
@@ -14218,13 +14218,13 @@
         <v>1374</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="C514" s="2" t="s">
-        <v>2084</v>
+        <v>2081</v>
       </c>
       <c r="D514" s="2" t="s">
-        <v>2085</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.3">
@@ -14232,13 +14232,13 @@
         <v>1436</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="C515" s="2" t="s">
-        <v>2086</v>
+        <v>2083</v>
       </c>
       <c r="D515" s="2" t="s">
-        <v>2087</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.3">
@@ -14246,13 +14246,13 @@
         <v>1420</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="C516" s="2" t="s">
-        <v>2088</v>
+        <v>2085</v>
       </c>
       <c r="D516" s="2" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.3">
@@ -14260,13 +14260,13 @@
         <v>1378</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C517" s="2" t="s">
-        <v>2090</v>
+        <v>2087</v>
       </c>
       <c r="D517" s="2" t="s">
-        <v>2091</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.3">
@@ -14274,13 +14274,13 @@
         <v>1402</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="C518" s="2" t="s">
-        <v>2092</v>
+        <v>2089</v>
       </c>
       <c r="D518" s="2" t="s">
-        <v>2093</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.3">
@@ -14288,13 +14288,13 @@
         <v>1379</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="C519" s="2" t="s">
-        <v>2094</v>
+        <v>2091</v>
       </c>
       <c r="D519" s="2" t="s">
-        <v>2095</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.3">
@@ -14302,13 +14302,13 @@
         <v>1357</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>2096</v>
+        <v>2093</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>2097</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.3">
@@ -14316,13 +14316,13 @@
         <v>1370</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="C521" s="2" t="s">
-        <v>2098</v>
+        <v>2095</v>
       </c>
       <c r="D521" s="2" t="s">
-        <v>2099</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.3">
@@ -14333,10 +14333,10 @@
         <v>1570</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>2100</v>
+        <v>2097</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>2101</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.3">
@@ -14344,13 +14344,13 @@
         <v>1408</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="C523" s="2" t="s">
-        <v>2102</v>
+        <v>2099</v>
       </c>
       <c r="D523" s="2" t="s">
-        <v>2103</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.3">
@@ -14358,13 +14358,13 @@
         <v>1389</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="C524" s="2" t="s">
-        <v>2104</v>
+        <v>2101</v>
       </c>
       <c r="D524" s="2" t="s">
-        <v>2105</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.3">
@@ -14372,13 +14372,13 @@
         <v>1369</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="C525" s="2" t="s">
-        <v>2106</v>
+        <v>2103</v>
       </c>
       <c r="D525" s="2" t="s">
-        <v>2107</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.3">
@@ -14389,10 +14389,10 @@
         <v>1543</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="D526" s="2" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.3">
@@ -14400,13 +14400,13 @@
         <v>1418</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="C527" s="2" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="D527" s="2" t="s">
-        <v>2111</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.3">
@@ -14417,10 +14417,10 @@
         <v>1606</v>
       </c>
       <c r="C528" s="2" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
       <c r="D528" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.3">
@@ -14431,10 +14431,10 @@
         <v>1607</v>
       </c>
       <c r="C529" s="2" t="s">
-        <v>2114</v>
+        <v>2111</v>
       </c>
       <c r="D529" s="2" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.3">
@@ -14445,10 +14445,10 @@
         <v>1608</v>
       </c>
       <c r="C530" s="2" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
       <c r="D530" s="2" t="s">
-        <v>2117</v>
+        <v>2114</v>
       </c>
     </row>
   </sheetData>

--- a/File Naming.xlsx
+++ b/File Naming.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\curly\Desktop\Apple Genotyping\Methods\Renaming Sample Labels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\curly\Desktop\Apple Genotyping\Methods\Renaming File Names\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C7067B-57B6-4709-8455-466557CC75CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53ACB88D-E72A-41D5-AEB4-5356511FC7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23040" yWindow="4440" windowWidth="23040" windowHeight="12120" xr2:uid="{3491D669-C83C-4979-B15B-06B44BE9C919}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{3491D669-C83C-4979-B15B-06B44BE9C919}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -4721,9 +4721,6 @@
     <t>Blakeway.CEL</t>
   </si>
   <si>
-    <t>Adam's Pearmain.CEL</t>
-  </si>
-  <si>
     <t>Fairbelle.CEL</t>
   </si>
   <si>
@@ -5309,12 +5306,6 @@
     <t>Abas.nexus.cnv.txt</t>
   </si>
   <si>
-    <t>Adam's Pearmain.txt</t>
-  </si>
-  <si>
-    <t>Adam's Pearmain.nexus.cnv.txt</t>
-  </si>
-  <si>
     <t>Akane.txt</t>
   </si>
   <si>
@@ -6396,6 +6387,15 @@
   </si>
   <si>
     <t>Karmijn_de_Sonnaville.nexus.cnv.txt</t>
+  </si>
+  <si>
+    <t>Adam's_Pearmain.CEL</t>
+  </si>
+  <si>
+    <t>Adam's_Pearmain.txt</t>
+  </si>
+  <si>
+    <t>Adam's_Pearmain.nexus.cnv.txt</t>
   </si>
 </sst>
 </file>
@@ -6824,8 +6824,8 @@
   <dimension ref="A1:F530"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A410" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D427" sqref="D427"/>
+      <pane ySplit="1" topLeftCell="A344" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D351" sqref="D351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6839,10 +6839,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>672</v>
@@ -11754,13 +11754,13 @@
         <v>1520</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="C338" s="2" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D338" s="2" t="s">
         <v>1731</v>
-      </c>
-      <c r="D338" s="2" t="s">
-        <v>1732</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
@@ -11768,13 +11768,13 @@
         <v>1527</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="C339" s="2" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D339" s="2" t="s">
         <v>1733</v>
-      </c>
-      <c r="D339" s="2" t="s">
-        <v>1734</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
@@ -11782,13 +11782,13 @@
         <v>1519</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="C340" s="2" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D340" s="2" t="s">
         <v>1735</v>
-      </c>
-      <c r="D340" s="2" t="s">
-        <v>1736</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
@@ -11796,13 +11796,13 @@
         <v>1531</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C341" s="2" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D341" s="2" t="s">
         <v>1737</v>
-      </c>
-      <c r="D341" s="2" t="s">
-        <v>1738</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
@@ -11810,13 +11810,13 @@
         <v>1528</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="C342" s="2" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D342" s="2" t="s">
         <v>1739</v>
-      </c>
-      <c r="D342" s="2" t="s">
-        <v>1740</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
@@ -11824,13 +11824,13 @@
         <v>1537</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="C343" s="2" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D343" s="2" t="s">
         <v>1741</v>
-      </c>
-      <c r="D343" s="2" t="s">
-        <v>1742</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
@@ -11838,13 +11838,13 @@
         <v>1515</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="C344" s="2" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D344" s="2" t="s">
         <v>1743</v>
-      </c>
-      <c r="D344" s="2" t="s">
-        <v>1744</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
@@ -11852,13 +11852,13 @@
         <v>1534</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="C345" s="2" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D345" s="2" t="s">
         <v>1745</v>
-      </c>
-      <c r="D345" s="2" t="s">
-        <v>1746</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
@@ -11866,13 +11866,13 @@
         <v>1525</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="C346" s="2" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D346" s="2" t="s">
         <v>1747</v>
-      </c>
-      <c r="D346" s="2" t="s">
-        <v>1748</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
@@ -11880,13 +11880,13 @@
         <v>1532</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="C347" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D347" s="2" t="s">
         <v>1749</v>
-      </c>
-      <c r="D347" s="2" t="s">
-        <v>1750</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
@@ -11894,13 +11894,13 @@
         <v>1522</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="C348" s="2" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D348" s="2" t="s">
         <v>1751</v>
-      </c>
-      <c r="D348" s="2" t="s">
-        <v>1752</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
@@ -11908,13 +11908,13 @@
         <v>1530</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="C349" s="2" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D349" s="2" t="s">
         <v>1753</v>
-      </c>
-      <c r="D349" s="2" t="s">
-        <v>1754</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
@@ -11925,10 +11925,10 @@
         <v>1541</v>
       </c>
       <c r="C350" s="2" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D350" s="2" t="s">
         <v>1755</v>
-      </c>
-      <c r="D350" s="2" t="s">
-        <v>1756</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
@@ -11936,13 +11936,13 @@
         <v>1416</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>1561</v>
+        <v>2117</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>1757</v>
+        <v>2118</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>1758</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
@@ -11950,13 +11950,13 @@
         <v>1510</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
@@ -11964,13 +11964,13 @@
         <v>1458</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
@@ -11978,13 +11978,13 @@
         <v>1474</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
@@ -11992,13 +11992,13 @@
         <v>1508</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
@@ -12006,13 +12006,13 @@
         <v>1480</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
@@ -12020,13 +12020,13 @@
         <v>1410</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
@@ -12034,13 +12034,13 @@
         <v>1358</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
@@ -12051,10 +12051,10 @@
         <v>1550</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
@@ -12062,13 +12062,13 @@
         <v>1421</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
@@ -12076,13 +12076,13 @@
         <v>1422</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
@@ -12090,13 +12090,13 @@
         <v>1452</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>1780</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
@@ -12104,13 +12104,13 @@
         <v>1462</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>1781</v>
+        <v>1778</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>1782</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
@@ -12118,13 +12118,13 @@
         <v>1390</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>1783</v>
+        <v>1780</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>1784</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
@@ -12132,13 +12132,13 @@
         <v>1356</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>1785</v>
+        <v>1782</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>1786</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
@@ -12146,13 +12146,13 @@
         <v>1498</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>1787</v>
+        <v>1784</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>1788</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
@@ -12160,13 +12160,13 @@
         <v>1476</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>1789</v>
+        <v>1786</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>1790</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
@@ -12174,13 +12174,13 @@
         <v>1492</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>1791</v>
+        <v>1788</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
@@ -12188,13 +12188,13 @@
         <v>1461</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>1793</v>
+        <v>1790</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
@@ -12205,10 +12205,10 @@
         <v>1560</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
@@ -12216,13 +12216,13 @@
         <v>1424</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>1797</v>
+        <v>1794</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
@@ -12230,13 +12230,13 @@
         <v>1491</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
@@ -12244,13 +12244,13 @@
         <v>1473</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
@@ -12258,13 +12258,13 @@
         <v>1500</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
@@ -12272,13 +12272,13 @@
         <v>1419</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>1805</v>
+        <v>1802</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>1806</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
@@ -12286,13 +12286,13 @@
         <v>1393</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>1807</v>
+        <v>1804</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
@@ -12303,10 +12303,10 @@
         <v>1555</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>1810</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
@@ -12314,13 +12314,13 @@
         <v>1387</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
@@ -12328,13 +12328,13 @@
         <v>1352</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
@@ -12342,13 +12342,13 @@
         <v>1400</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
@@ -12359,10 +12359,10 @@
         <v>1549</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
@@ -12370,13 +12370,13 @@
         <v>1504</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>1819</v>
+        <v>1816</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>1820</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
@@ -12384,13 +12384,13 @@
         <v>1493</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>1821</v>
+        <v>1818</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>1822</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
@@ -12398,13 +12398,13 @@
         <v>1496</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>1823</v>
+        <v>1820</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>1824</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
@@ -12412,13 +12412,13 @@
         <v>1459</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>1825</v>
+        <v>1822</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>1826</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
@@ -12429,10 +12429,10 @@
         <v>1556</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>1827</v>
+        <v>1824</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>1828</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
@@ -12440,13 +12440,13 @@
         <v>1453</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>1829</v>
+        <v>1826</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>1830</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
@@ -12454,13 +12454,13 @@
         <v>1457</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>1831</v>
+        <v>1828</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>1832</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
@@ -12468,13 +12468,13 @@
         <v>1466</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>1833</v>
+        <v>1830</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>1834</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
@@ -12485,10 +12485,10 @@
         <v>1552</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>1835</v>
+        <v>1832</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>1836</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
@@ -12499,10 +12499,10 @@
         <v>1545</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>1837</v>
+        <v>1834</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>1838</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
@@ -12513,10 +12513,10 @@
         <v>1559</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>1839</v>
+        <v>1836</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>1840</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
@@ -12524,13 +12524,13 @@
         <v>1377</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>1842</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
@@ -12538,13 +12538,13 @@
         <v>1464</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>1843</v>
+        <v>1840</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>1844</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
@@ -12552,13 +12552,13 @@
         <v>1380</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>1846</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
@@ -12566,13 +12566,13 @@
         <v>1484</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>1847</v>
+        <v>1844</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>1848</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
@@ -12580,13 +12580,13 @@
         <v>1417</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>1849</v>
+        <v>1846</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>1850</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
@@ -12594,13 +12594,13 @@
         <v>1363</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>1851</v>
+        <v>1848</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>1852</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
@@ -12608,13 +12608,13 @@
         <v>1388</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>1853</v>
+        <v>1850</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>1854</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
@@ -12622,13 +12622,13 @@
         <v>1355</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>1855</v>
+        <v>1852</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
@@ -12636,13 +12636,13 @@
         <v>1485</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
@@ -12650,13 +12650,13 @@
         <v>1481</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
@@ -12664,13 +12664,13 @@
         <v>1361</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
@@ -12678,13 +12678,13 @@
         <v>1477</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
@@ -12692,13 +12692,13 @@
         <v>1431</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>1866</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
@@ -12706,13 +12706,13 @@
         <v>1478</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>1867</v>
+        <v>1864</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>1868</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
@@ -12723,10 +12723,10 @@
         <v>1540</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>1869</v>
+        <v>1866</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>1870</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
@@ -12734,13 +12734,13 @@
         <v>1350</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>1871</v>
+        <v>1868</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
@@ -12748,13 +12748,13 @@
         <v>1411</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>1873</v>
+        <v>1870</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>1874</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
@@ -12762,13 +12762,13 @@
         <v>1413</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>1875</v>
+        <v>1872</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>1876</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
@@ -12776,13 +12776,13 @@
         <v>1501</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>1877</v>
+        <v>1874</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>1878</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
@@ -12790,13 +12790,13 @@
         <v>1382</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>1879</v>
+        <v>1876</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>1880</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
@@ -12804,13 +12804,13 @@
         <v>1463</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>1881</v>
+        <v>1878</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>1882</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
@@ -12818,13 +12818,13 @@
         <v>1347</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>1883</v>
+        <v>1880</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>1884</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
@@ -12832,13 +12832,13 @@
         <v>1445</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>1885</v>
+        <v>1882</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>1886</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
@@ -12846,13 +12846,13 @@
         <v>1362</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>1887</v>
+        <v>1884</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>1888</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
@@ -12860,13 +12860,13 @@
         <v>1435</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>1890</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
@@ -12874,13 +12874,13 @@
         <v>1371</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>1891</v>
+        <v>1888</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>1892</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
@@ -12888,13 +12888,13 @@
         <v>1514</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>1893</v>
+        <v>1890</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>1894</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
@@ -12902,13 +12902,13 @@
         <v>1423</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>1896</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
@@ -12919,10 +12919,10 @@
         <v>1547</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>1897</v>
+        <v>1894</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>1898</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
@@ -12930,13 +12930,13 @@
         <v>1494</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>1899</v>
+        <v>1896</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>1900</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
@@ -12944,13 +12944,13 @@
         <v>1469</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>1901</v>
+        <v>1898</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>1902</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
@@ -12958,13 +12958,13 @@
         <v>1509</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>1904</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
@@ -12972,13 +12972,13 @@
         <v>1495</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>1905</v>
+        <v>1902</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>1906</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
@@ -12986,13 +12986,13 @@
         <v>1412</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>1908</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
@@ -13000,13 +13000,13 @@
         <v>1470</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>2117</v>
+        <v>2114</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>2119</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
@@ -13014,13 +13014,13 @@
         <v>1384</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>1909</v>
+        <v>1906</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>1910</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
@@ -13028,13 +13028,13 @@
         <v>1426</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>1911</v>
+        <v>1908</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>1912</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
@@ -13042,13 +13042,13 @@
         <v>1351</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>1913</v>
+        <v>1910</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>1914</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
@@ -13056,13 +13056,13 @@
         <v>1395</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>1915</v>
+        <v>1912</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>1916</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
@@ -13070,13 +13070,13 @@
         <v>1467</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>1918</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
@@ -13084,13 +13084,13 @@
         <v>1428</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>1919</v>
+        <v>1916</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>1920</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
@@ -13101,10 +13101,10 @@
         <v>1544</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>1921</v>
+        <v>1918</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>1922</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
@@ -13112,13 +13112,13 @@
         <v>1479</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>1923</v>
+        <v>1920</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>1924</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
@@ -13126,13 +13126,13 @@
         <v>1471</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>1925</v>
+        <v>1922</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>1926</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
@@ -13140,13 +13140,13 @@
         <v>1383</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>1927</v>
+        <v>1924</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>1928</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
@@ -13154,13 +13154,13 @@
         <v>1482</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>1929</v>
+        <v>1926</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>1930</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
@@ -13168,13 +13168,13 @@
         <v>1518</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>1931</v>
+        <v>1928</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
@@ -13182,13 +13182,13 @@
         <v>1521</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>1934</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
@@ -13196,13 +13196,13 @@
         <v>1505</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
@@ -13210,13 +13210,13 @@
         <v>1526</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>1937</v>
+        <v>1934</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>1938</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
@@ -13224,13 +13224,13 @@
         <v>1535</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>1939</v>
+        <v>1936</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>1940</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
@@ -13238,13 +13238,13 @@
         <v>1523</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>1941</v>
+        <v>1938</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>1942</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
@@ -13252,13 +13252,13 @@
         <v>1533</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>1943</v>
+        <v>1940</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>1944</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
@@ -13266,13 +13266,13 @@
         <v>1386</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>1945</v>
+        <v>1942</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>1946</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
@@ -13280,13 +13280,13 @@
         <v>1443</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>1947</v>
+        <v>1944</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>1948</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
@@ -13294,13 +13294,13 @@
         <v>1381</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>1949</v>
+        <v>1946</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>1950</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
@@ -13308,13 +13308,13 @@
         <v>1392</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>1951</v>
+        <v>1948</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>1952</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
@@ -13322,13 +13322,13 @@
         <v>1364</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>1953</v>
+        <v>1950</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
@@ -13336,13 +13336,13 @@
         <v>1489</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>1956</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
@@ -13350,13 +13350,13 @@
         <v>1430</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
@@ -13367,10 +13367,10 @@
         <v>1551</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
@@ -13378,13 +13378,13 @@
         <v>1511</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
@@ -13392,13 +13392,13 @@
         <v>1456</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
@@ -13406,13 +13406,13 @@
         <v>1425</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
@@ -13420,13 +13420,13 @@
         <v>1396</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
@@ -13434,13 +13434,13 @@
         <v>1503</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
@@ -13448,13 +13448,13 @@
         <v>1367</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
@@ -13462,13 +13462,13 @@
         <v>1472</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
@@ -13476,13 +13476,13 @@
         <v>1448</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
@@ -13490,13 +13490,13 @@
         <v>1447</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>1977</v>
+        <v>1974</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>1978</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
@@ -13504,13 +13504,13 @@
         <v>1353</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="C463" s="2" t="s">
-        <v>1979</v>
+        <v>1976</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>1980</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
@@ -13521,10 +13521,10 @@
         <v>1539</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>1982</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
@@ -13535,10 +13535,10 @@
         <v>1557</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>1984</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
@@ -13546,13 +13546,13 @@
         <v>1391</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>1986</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
@@ -13560,13 +13560,13 @@
         <v>1516</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>1988</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
@@ -13574,13 +13574,13 @@
         <v>1524</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>1989</v>
+        <v>1986</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>1990</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
@@ -13588,13 +13588,13 @@
         <v>1529</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>1992</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
@@ -13602,13 +13602,13 @@
         <v>1538</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>1994</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.3">
@@ -13616,13 +13616,13 @@
         <v>1450</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>1996</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.3">
@@ -13630,13 +13630,13 @@
         <v>1475</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>1998</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
@@ -13644,13 +13644,13 @@
         <v>1446</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>2000</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
@@ -13658,13 +13658,13 @@
         <v>1438</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>2002</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.3">
@@ -13672,13 +13672,13 @@
         <v>1483</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="C475" s="2" t="s">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>2004</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
@@ -13686,13 +13686,13 @@
         <v>1437</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>2006</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.3">
@@ -13700,13 +13700,13 @@
         <v>1487</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>2008</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.3">
@@ -13714,13 +13714,13 @@
         <v>1488</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>2010</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.3">
@@ -13728,13 +13728,13 @@
         <v>1460</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C479" s="2" t="s">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="D479" s="2" t="s">
-        <v>2012</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.3">
@@ -13742,13 +13742,13 @@
         <v>1403</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>2014</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
@@ -13756,13 +13756,13 @@
         <v>1401</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>2016</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.3">
@@ -13770,13 +13770,13 @@
         <v>1451</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>2018</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.3">
@@ -13784,13 +13784,13 @@
         <v>1441</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.3">
@@ -13798,13 +13798,13 @@
         <v>1465</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="C484" s="2" t="s">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D484" s="2" t="s">
-        <v>2022</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.3">
@@ -13812,13 +13812,13 @@
         <v>1433</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="C485" s="2" t="s">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>2024</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.3">
@@ -13826,13 +13826,13 @@
         <v>1455</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>2026</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
@@ -13843,10 +13843,10 @@
         <v>1542</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>2027</v>
+        <v>2024</v>
       </c>
       <c r="D487" s="2" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.3">
@@ -13854,13 +13854,13 @@
         <v>1507</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>2029</v>
+        <v>2026</v>
       </c>
       <c r="D488" s="2" t="s">
-        <v>2030</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.3">
@@ -13871,10 +13871,10 @@
         <v>1554</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>2031</v>
+        <v>2028</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.3">
@@ -13882,13 +13882,13 @@
         <v>1502</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>2033</v>
+        <v>2030</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>2034</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.3">
@@ -13896,13 +13896,13 @@
         <v>1490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>2035</v>
+        <v>2032</v>
       </c>
       <c r="D491" s="2" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.3">
@@ -13910,13 +13910,13 @@
         <v>1434</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="D492" s="2" t="s">
-        <v>2038</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.3">
@@ -13924,13 +13924,13 @@
         <v>1406</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>2039</v>
+        <v>2036</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>2040</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.3">
@@ -13938,13 +13938,13 @@
         <v>1468</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>2042</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.3">
@@ -13955,10 +13955,10 @@
         <v>1558</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>2043</v>
+        <v>2040</v>
       </c>
       <c r="D495" s="2" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.3">
@@ -13966,13 +13966,13 @@
         <v>1517</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>2045</v>
+        <v>2042</v>
       </c>
       <c r="D496" s="2" t="s">
-        <v>2046</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.3">
@@ -13980,13 +13980,13 @@
         <v>1536</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>2047</v>
+        <v>2044</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>2048</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.3">
@@ -13994,13 +13994,13 @@
         <v>1442</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>2049</v>
+        <v>2046</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>2050</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.3">
@@ -14008,13 +14008,13 @@
         <v>1432</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>2051</v>
+        <v>2048</v>
       </c>
       <c r="D499" s="2" t="s">
-        <v>2052</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.3">
@@ -14022,13 +14022,13 @@
         <v>1368</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>2053</v>
+        <v>2050</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>2054</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.3">
@@ -14036,13 +14036,13 @@
         <v>1394</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>2055</v>
+        <v>2052</v>
       </c>
       <c r="D501" s="2" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.3">
@@ -14050,13 +14050,13 @@
         <v>1439</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>2057</v>
+        <v>2054</v>
       </c>
       <c r="D502" s="2" t="s">
-        <v>2058</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.3">
@@ -14064,13 +14064,13 @@
         <v>1499</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>2059</v>
+        <v>2056</v>
       </c>
       <c r="D503" s="2" t="s">
-        <v>2060</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.3">
@@ -14081,10 +14081,10 @@
         <v>1546</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>2061</v>
+        <v>2058</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>2062</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.3">
@@ -14092,13 +14092,13 @@
         <v>1429</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>2063</v>
+        <v>2060</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>2064</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.3">
@@ -14106,13 +14106,13 @@
         <v>1449</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>2065</v>
+        <v>2062</v>
       </c>
       <c r="D506" s="2" t="s">
-        <v>2066</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.3">
@@ -14120,13 +14120,13 @@
         <v>1354</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
       <c r="D507" s="2" t="s">
-        <v>2068</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.3">
@@ -14137,10 +14137,10 @@
         <v>1553</v>
       </c>
       <c r="C508" s="2" t="s">
-        <v>2069</v>
+        <v>2066</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>2070</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.3">
@@ -14148,13 +14148,13 @@
         <v>1360</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="C509" s="2" t="s">
-        <v>2071</v>
+        <v>2068</v>
       </c>
       <c r="D509" s="2" t="s">
-        <v>2072</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.3">
@@ -14162,13 +14162,13 @@
         <v>1506</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>2073</v>
+        <v>2070</v>
       </c>
       <c r="D510" s="2" t="s">
-        <v>2074</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.3">
@@ -14179,10 +14179,10 @@
         <v>1548</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>2075</v>
+        <v>2072</v>
       </c>
       <c r="D511" s="2" t="s">
-        <v>2076</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.3">
@@ -14190,13 +14190,13 @@
         <v>1427</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="C512" s="2" t="s">
-        <v>2077</v>
+        <v>2074</v>
       </c>
       <c r="D512" s="2" t="s">
-        <v>2078</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.3">
@@ -14204,13 +14204,13 @@
         <v>1486</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C513" s="2" t="s">
-        <v>2079</v>
+        <v>2076</v>
       </c>
       <c r="D513" s="2" t="s">
-        <v>2080</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.3">
@@ -14218,13 +14218,13 @@
         <v>1374</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="C514" s="2" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
       <c r="D514" s="2" t="s">
-        <v>2082</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.3">
@@ -14232,13 +14232,13 @@
         <v>1436</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="C515" s="2" t="s">
-        <v>2083</v>
+        <v>2080</v>
       </c>
       <c r="D515" s="2" t="s">
-        <v>2084</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.3">
@@ -14246,13 +14246,13 @@
         <v>1420</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="C516" s="2" t="s">
-        <v>2085</v>
+        <v>2082</v>
       </c>
       <c r="D516" s="2" t="s">
-        <v>2086</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.3">
@@ -14260,13 +14260,13 @@
         <v>1378</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="C517" s="2" t="s">
-        <v>2087</v>
+        <v>2084</v>
       </c>
       <c r="D517" s="2" t="s">
-        <v>2088</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.3">
@@ -14274,13 +14274,13 @@
         <v>1402</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="C518" s="2" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="D518" s="2" t="s">
-        <v>2090</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.3">
@@ -14288,13 +14288,13 @@
         <v>1379</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C519" s="2" t="s">
-        <v>2091</v>
+        <v>2088</v>
       </c>
       <c r="D519" s="2" t="s">
-        <v>2092</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.3">
@@ -14302,13 +14302,13 @@
         <v>1357</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>2093</v>
+        <v>2090</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>2094</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.3">
@@ -14316,13 +14316,13 @@
         <v>1370</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="C521" s="2" t="s">
-        <v>2095</v>
+        <v>2092</v>
       </c>
       <c r="D521" s="2" t="s">
-        <v>2096</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.3">
@@ -14330,13 +14330,13 @@
         <v>1444</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>2097</v>
+        <v>2094</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>2098</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.3">
@@ -14344,13 +14344,13 @@
         <v>1408</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="C523" s="2" t="s">
-        <v>2099</v>
+        <v>2096</v>
       </c>
       <c r="D523" s="2" t="s">
-        <v>2100</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.3">
@@ -14358,13 +14358,13 @@
         <v>1389</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="C524" s="2" t="s">
-        <v>2101</v>
+        <v>2098</v>
       </c>
       <c r="D524" s="2" t="s">
-        <v>2102</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.3">
@@ -14372,13 +14372,13 @@
         <v>1369</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="C525" s="2" t="s">
-        <v>2103</v>
+        <v>2100</v>
       </c>
       <c r="D525" s="2" t="s">
-        <v>2104</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.3">
@@ -14389,10 +14389,10 @@
         <v>1543</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>2105</v>
+        <v>2102</v>
       </c>
       <c r="D526" s="2" t="s">
-        <v>2106</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.3">
@@ -14400,13 +14400,13 @@
         <v>1418</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="C527" s="2" t="s">
-        <v>2107</v>
+        <v>2104</v>
       </c>
       <c r="D527" s="2" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.3">
@@ -14414,13 +14414,13 @@
         <v>1454</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C528" s="2" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="D528" s="2" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.3">
@@ -14428,13 +14428,13 @@
         <v>1497</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="C529" s="2" t="s">
-        <v>2111</v>
+        <v>2108</v>
       </c>
       <c r="D529" s="2" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.3">
@@ -14442,13 +14442,13 @@
         <v>1440</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="C530" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
       <c r="D530" s="2" t="s">
-        <v>2114</v>
+        <v>2111</v>
       </c>
     </row>
   </sheetData>
